--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Udabol-SistemasDeInformacionYSistemasInteligentes\UDABOL_202202\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BB39B4-FA84-4FE5-B24D-8109D008C8B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
-    <sheet r:id="rId2" sheetId="2" name="Hoja2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="430">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1302,14 +1308,16 @@
   </si>
   <si>
     <t>CI:8257209</t>
+  </si>
+  <si>
+    <t>La Paz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,61 +1400,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1457,10 +1458,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1498,71 +1499,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1590,7 +1591,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1613,11 +1614,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1626,13 +1627,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1642,7 +1643,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1651,7 +1652,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1660,7 +1661,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1668,10 +1669,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1736,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1744,17 +1745,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="9">
         <v>1</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>9845916</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="9">
         <v>2</v>
       </c>
@@ -1792,7 +1791,7 @@
         <v>4308676</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>5273148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="9">
         <v>4</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>10680663</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>12873339</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="9">
         <v>6</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>7351544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>7296889</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="9">
         <v>8</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>9083846</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="9">
         <v>9</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>8437859</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="9">
         <v>10</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>11304597</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="9">
         <v>11</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>8911045</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="9">
         <v>12</v>
       </c>
@@ -1986,7 +1985,7 @@
         <v>6717766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="9">
         <v>13</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>2631732</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="9">
         <v>14</v>
       </c>
@@ -2024,7 +2023,7 @@
       </c>
       <c r="F14" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="9">
         <v>15</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>33970</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="9">
         <v>16</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>9899773</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="9">
         <v>17</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>7041610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="9">
         <v>18</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>12669252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="9">
         <v>19</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>10931935</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="9">
         <v>20</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>6920030</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="9">
         <v>21</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>6434495</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="9">
         <v>22</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>9155549</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="9">
         <v>23</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>6823974</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="9">
         <v>24</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>2622061</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="9">
         <v>25</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>7838112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26" s="9">
         <v>26</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>12864046</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="9">
         <v>27</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>9110161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="9">
         <v>28</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>9911855</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="9">
         <v>29</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>9459513</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="9">
         <v>30</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>10954950</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="9">
         <v>31</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>8028972</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32" s="9">
         <v>32</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>428</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="A33" s="9">
         <v>33</v>
       </c>
@@ -2396,36 +2395,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="G42" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="37.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="37.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="27.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="27.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2468,9 +2464,9 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="A2" s="4">
-        <v>44816.89942129629</v>
+        <v>44816.899421296293</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -2509,7 +2505,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" s="4">
         <v>44816.899618055555</v>
       </c>
@@ -2550,7 +2546,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="4">
         <v>44816.90053240741</v>
       </c>
@@ -2591,7 +2587,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:17" ht="18.75" customHeight="1">
       <c r="A5" s="4">
         <v>44816.90079861111</v>
       </c>
@@ -2632,7 +2628,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="A6" s="4">
         <v>44816.90079861111</v>
       </c>
@@ -2673,7 +2669,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1">
       <c r="A7" s="4">
         <v>44816.900821759256</v>
       </c>
@@ -2714,9 +2710,9 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
       <c r="A8" s="4">
-        <v>44816.90090277778</v>
+        <v>44816.900902777779</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>54</v>
@@ -2755,7 +2751,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="A9" s="4">
         <v>44816.900972222225</v>
       </c>
@@ -2796,9 +2792,9 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="A10" s="4">
-        <v>44816.90136574074</v>
+        <v>44816.901365740741</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>69</v>
@@ -2837,9 +2833,9 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
       <c r="A11" s="4">
-        <v>44816.90200231481</v>
+        <v>44816.902002314811</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>76</v>
@@ -2878,9 +2874,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
       <c r="A12" s="4">
-        <v>44816.90200231481</v>
+        <v>44816.902002314811</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>82</v>
@@ -2919,9 +2915,9 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
       <c r="A13" s="4">
-        <v>44816.90210648148</v>
+        <v>44816.902106481481</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>90</v>
@@ -2960,9 +2956,9 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
       <c r="A14" s="4">
-        <v>44816.90212962963</v>
+        <v>44816.902129629627</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>98</v>
@@ -3001,7 +2997,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
       <c r="A15" s="4">
         <v>44816.902141203704</v>
       </c>
@@ -3042,9 +3038,9 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="A16" s="4">
-        <v>44816.90219907407</v>
+        <v>44816.902199074073</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>113</v>
@@ -3083,9 +3079,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:17" ht="18.75" customHeight="1">
       <c r="A17" s="4">
-        <v>44816.90324074074</v>
+        <v>44816.903240740743</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>120</v>
@@ -3124,9 +3120,9 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:17" ht="18.75" customHeight="1">
       <c r="A18" s="4">
-        <v>44816.90335648148</v>
+        <v>44816.903356481482</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>127</v>
@@ -3165,7 +3161,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:17" ht="18.75" customHeight="1">
       <c r="A19" s="4">
         <v>44816.903657407405</v>
       </c>
@@ -3206,9 +3202,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:17" ht="18.75" customHeight="1">
       <c r="A20" s="4">
-        <v>44816.90369212963</v>
+        <v>44816.903692129628</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>142</v>
@@ -3247,9 +3243,9 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:17" ht="18.75" customHeight="1">
       <c r="A21" s="4">
-        <v>44816.90385416667</v>
+        <v>44816.903854166667</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>149</v>
@@ -3288,9 +3284,9 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:17" ht="18.75" customHeight="1">
       <c r="A22" s="4">
-        <v>44816.90443287037</v>
+        <v>44816.904432870368</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>155</v>
@@ -3329,9 +3325,9 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="4">
-        <v>44816.90445601852</v>
+        <v>44816.904456018521</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>162</v>
@@ -3370,9 +3366,9 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:17" ht="18.75" customHeight="1">
       <c r="A24" s="4">
-        <v>44816.90460648148</v>
+        <v>44816.904606481483</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>168</v>
@@ -3411,9 +3407,9 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:17" ht="18.75" customHeight="1">
       <c r="A25" s="4">
-        <v>44816.9047337963</v>
+        <v>44816.904733796298</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>176</v>
@@ -3452,9 +3448,9 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:17" ht="18.75" customHeight="1">
       <c r="A26" s="4">
-        <v>44816.90489583334</v>
+        <v>44816.904895833337</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>183</v>
@@ -3493,9 +3489,9 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:17" ht="18.75" customHeight="1">
       <c r="A27" s="4">
-        <v>44816.90553240741</v>
+        <v>44816.905532407407</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>190</v>
@@ -3534,9 +3530,9 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:17" ht="18.75" customHeight="1">
       <c r="A28" s="4">
-        <v>44816.90611111111</v>
+        <v>44816.906111111108</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>197</v>
@@ -3575,7 +3571,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:17" ht="18.75" customHeight="1">
       <c r="A29" s="4">
         <v>44816.906689814816</v>
       </c>
@@ -3616,9 +3612,9 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:17" ht="18.75" customHeight="1">
       <c r="A30" s="4">
-        <v>44816.90688657408</v>
+        <v>44816.906886574077</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>212</v>
@@ -3657,9 +3653,9 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:17" ht="18.75" customHeight="1">
       <c r="A31" s="4">
-        <v>44816.90694444445</v>
+        <v>44816.906944444447</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>218</v>
@@ -3698,9 +3694,9 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:17" ht="18.75" customHeight="1">
       <c r="A32" s="4">
-        <v>44816.90813657407</v>
+        <v>44816.908136574071</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>226</v>
@@ -3739,9 +3735,9 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:17" ht="18.75" customHeight="1">
       <c r="A33" s="4">
-        <v>44816.90820601852</v>
+        <v>44816.908206018517</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>233</v>
@@ -3780,7 +3776,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1">
       <c r="A34" s="4">
         <v>44816.908321759256</v>
       </c>
@@ -3821,7 +3817,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:17" ht="18.75" customHeight="1">
       <c r="A35" s="4">
         <v>44816.909525462965</v>
       </c>
@@ -3862,7 +3858,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1">
       <c r="A36" s="4">
         <v>44816.909907407404</v>
       </c>
@@ -3903,9 +3899,9 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:17" ht="18.75" customHeight="1">
       <c r="A37" s="4">
-        <v>44816.92482638889</v>
+        <v>44816.924826388888</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>262</v>
@@ -3944,7 +3940,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:17" ht="18.75" customHeight="1">
       <c r="A38" s="4">
         <v>44816.93582175926</v>
       </c>
@@ -3985,9 +3981,9 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:17" ht="18.75" customHeight="1">
       <c r="A39" s="4">
-        <v>44817.34590277778</v>
+        <v>44817.345902777779</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>276</v>
@@ -4026,9 +4022,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:17" ht="18.75" customHeight="1">
       <c r="A40" s="4">
-        <v>44817.72846064815</v>
+        <v>44817.728460648148</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>283</v>
@@ -4069,9 +4065,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:17" ht="18.75" customHeight="1">
       <c r="A41" s="4">
-        <v>44817.85704861111</v>
+        <v>44817.857048611113</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>292</v>
@@ -4110,9 +4106,9 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:17" ht="18.75" customHeight="1">
       <c r="A42" s="4">
-        <v>44817.97329861111</v>
+        <v>44817.973298611112</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>299</v>
@@ -4151,9 +4147,9 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:17" ht="18.75" customHeight="1">
       <c r="A43" s="4">
-        <v>44818.01280092593</v>
+        <v>44818.012800925928</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>305</v>
@@ -4192,7 +4188,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:17" ht="18.75" customHeight="1">
       <c r="A44" s="4">
         <v>44818.452256944445</v>
       </c>
@@ -4233,9 +4229,9 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:17" ht="18.75" customHeight="1">
       <c r="A45" s="4">
-        <v>44818.5594212963</v>
+        <v>44818.559421296297</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>319</v>
@@ -4274,7 +4270,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:17" ht="18.75" customHeight="1">
       <c r="A46" s="4">
         <v>44818.81627314815</v>
       </c>
@@ -4308,16 +4304,18 @@
       <c r="K46" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="L46" s="5"/>
+      <c r="L46" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:17" ht="18.75" customHeight="1">
       <c r="A47" s="4">
-        <v>44818.83111111111</v>
+        <v>44818.831111111111</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>333</v>
@@ -4356,9 +4354,9 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:17" ht="18.75" customHeight="1">
       <c r="A48" s="4">
-        <v>44819.45891203704</v>
+        <v>44819.458912037036</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>340</v>
@@ -4397,9 +4395,9 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:17" ht="18.75" customHeight="1">
       <c r="A49" s="4">
-        <v>44819.79439814815</v>
+        <v>44819.794398148151</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>346</v>
@@ -4438,9 +4436,9 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:17" ht="18.75" customHeight="1">
       <c r="A50" s="4">
-        <v>44819.81234953704</v>
+        <v>44819.812349537038</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>353</v>
@@ -4479,7 +4477,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:17" ht="18.75" customHeight="1">
       <c r="A51" s="4">
         <v>44819.851585648146</v>
       </c>
@@ -4520,7 +4518,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:17" ht="18.75" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4539,7 +4537,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:17" ht="18.75" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4558,7 +4556,7 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:17" ht="18.75" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4577,7 +4575,7 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:17" ht="18.75" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4596,7 +4594,7 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:17" ht="18.75" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4615,7 +4613,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:17" ht="18.75" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4634,7 +4632,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:17" ht="18.75" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4653,7 +4651,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:17" ht="18.75" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4672,7 +4670,7 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:17" ht="18.75" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4691,7 +4689,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:17" ht="18.75" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4710,7 +4708,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:17" ht="18.75" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4729,7 +4727,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:17" ht="18.75" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4748,7 +4746,7 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:17" ht="18.75" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4767,7 +4765,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:17" ht="18.75" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4786,7 +4784,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:17" ht="18.75" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4805,7 +4803,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:17" ht="18.75" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4824,7 +4822,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:17" ht="18.75" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4843,7 +4841,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:17" ht="18.75" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4862,7 +4860,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:17" ht="18.75" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4881,7 +4879,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:17" ht="18.75" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4900,7 +4898,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:17" ht="18.75" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4919,7 +4917,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:17" ht="18.75" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4938,7 +4936,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:17" ht="18.75" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4957,7 +4955,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:17" ht="18.75" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4976,7 +4974,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:17" ht="18.75" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4995,7 +4993,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:17" ht="18.75" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5014,7 +5012,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:17" ht="18.75" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5033,7 +5031,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:17" ht="18.75" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5052,7 +5050,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:17" ht="18.75" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5071,7 +5069,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:17" ht="18.75" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5090,7 +5088,7 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:17" ht="18.75" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5109,7 +5107,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:17" ht="18.75" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5128,7 +5126,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:17" ht="18.75" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5147,7 +5145,7 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:17" ht="18.75" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5166,7 +5164,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:17" ht="18.75" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5185,7 +5183,7 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:17" ht="18.75" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5204,7 +5202,7 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:17" ht="18.75" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5223,7 +5221,7 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:17" ht="18.75" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5242,7 +5240,7 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:17" ht="18.75" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5261,7 +5259,7 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:17" ht="18.75" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5280,7 +5278,7 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:17" ht="18.75" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5299,7 +5297,7 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:17" ht="18.75" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5318,7 +5316,7 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:17" ht="18.75" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5337,7 +5335,7 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:17" ht="18.75" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5356,7 +5354,7 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:17" ht="18.75" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5375,7 +5373,7 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:17" ht="18.75" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5394,7 +5392,7 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:17" ht="18.75" customHeight="1">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5413,7 +5411,7 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:17" ht="18.75" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5432,7 +5430,7 @@
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:17" ht="18.75" customHeight="1">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5451,7 +5449,7 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:17" ht="18.75" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5470,7 +5468,7 @@
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:17" ht="18.75" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5489,7 +5487,7 @@
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:17" ht="18.75" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5508,7 +5506,7 @@
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:17" ht="18.75" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5527,7 +5525,7 @@
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:17" ht="18.75" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5546,7 +5544,7 @@
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:17" ht="18.75" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5565,7 +5563,7 @@
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:17" ht="18.75" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5584,7 +5582,7 @@
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:17" ht="18.75" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5603,7 +5601,7 @@
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:17" ht="18.75" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5622,7 +5620,7 @@
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:17" ht="18.75" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5641,7 +5639,7 @@
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:17" ht="18.75" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5660,7 +5658,7 @@
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:17" ht="18.75" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5679,7 +5677,7 @@
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:17" ht="18.75" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5698,7 +5696,7 @@
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:17" ht="18.75" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5717,7 +5715,7 @@
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:17" ht="18.75" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5736,7 +5734,7 @@
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:17" ht="18.75" customHeight="1">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5755,7 +5753,7 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:17" ht="18.75" customHeight="1">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5774,7 +5772,7 @@
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:17" ht="18.75" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5793,7 +5791,7 @@
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:17" ht="18.75" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5812,7 +5810,7 @@
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:17" ht="18.75" customHeight="1">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5831,7 +5829,7 @@
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:17" ht="18.75" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5850,7 +5848,7 @@
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:17" ht="18.75" customHeight="1">
       <c r="A122" s="6"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5869,7 +5867,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:17" ht="18.75" customHeight="1">
       <c r="A123" s="6"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5888,7 +5886,7 @@
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:17" ht="18.75" customHeight="1">
       <c r="A124" s="6"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5907,7 +5905,7 @@
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:17" ht="18.75" customHeight="1">
       <c r="A125" s="6"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5926,7 +5924,7 @@
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:17" ht="18.75" customHeight="1">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5945,7 +5943,7 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:17" ht="18.75" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5964,7 +5962,7 @@
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:17" ht="18.75" customHeight="1">
       <c r="A128" s="6"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5983,7 +5981,7 @@
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:17" ht="18.75" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6002,7 +6000,7 @@
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:17" ht="18.75" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6021,7 +6019,7 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:17" ht="18.75" customHeight="1">
       <c r="A131" s="6"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6040,7 +6038,7 @@
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:17" ht="18.75" customHeight="1">
       <c r="A132" s="6"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6059,7 +6057,7 @@
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:17" ht="18.75" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6078,7 +6076,7 @@
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:17" ht="18.75" customHeight="1">
       <c r="A134" s="6"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6097,7 +6095,7 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:17" ht="18.75" customHeight="1">
       <c r="A135" s="6"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -6116,7 +6114,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:17" ht="18.75" customHeight="1">
       <c r="A136" s="6"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -6135,7 +6133,7 @@
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:17" ht="18.75" customHeight="1">
       <c r="A137" s="6"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -6154,7 +6152,7 @@
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:17" ht="18.75" customHeight="1">
       <c r="A138" s="6"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -6173,7 +6171,7 @@
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:17" ht="18.75" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -6192,7 +6190,7 @@
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:17" ht="18.75" customHeight="1">
       <c r="A140" s="6"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -6211,7 +6209,7 @@
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:17" ht="18.75" customHeight="1">
       <c r="A141" s="6"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -6230,7 +6228,7 @@
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:17" ht="18.75" customHeight="1">
       <c r="A142" s="6"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -6249,7 +6247,7 @@
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:17" ht="18.75" customHeight="1">
       <c r="A143" s="6"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -6268,7 +6266,7 @@
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:17" ht="18.75" customHeight="1">
       <c r="A144" s="6"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -6287,7 +6285,7 @@
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:17" ht="18.75" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -6306,7 +6304,7 @@
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:17" ht="18.75" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -6325,7 +6323,7 @@
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:17" ht="18.75" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -6344,7 +6342,7 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:17" ht="18.75" customHeight="1">
       <c r="A148" s="6"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -6363,7 +6361,7 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:17" ht="18.75" customHeight="1">
       <c r="A149" s="6"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -6382,7 +6380,7 @@
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:17" ht="18.75" customHeight="1">
       <c r="A150" s="6"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -6401,7 +6399,7 @@
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:17" ht="18.75" customHeight="1">
       <c r="A151" s="6"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Udabol-SistemasDeInformacionYSistemasInteligentes\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nueva carpeta\Diplomado\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BB39B4-FA84-4FE5-B24D-8109D008C8B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD993F6-9121-4C93-9349-04A261E5E50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="431">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1311,6 +1311,9 @@
   </si>
   <si>
     <t>La Paz</t>
+  </si>
+  <si>
+    <t>Cochabamba</t>
   </si>
 </sst>
 </file>
@@ -1745,12 +1748,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2401,24 +2404,24 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2785,7 +2788,9 @@
       <c r="K9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nueva carpeta\Diplomado\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Udabol-SistemasDeInformacionYSistemasInteligentes\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD993F6-9121-4C93-9349-04A261E5E50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467BC83D-1701-4BAE-9673-7C94A1694F4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="430">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1308,9 +1308,6 @@
   </si>
   <si>
     <t>CI:8257209</t>
-  </si>
-  <si>
-    <t>La Paz</t>
   </si>
   <si>
     <t>Cochabamba</t>
@@ -1748,12 +1745,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2404,24 +2401,24 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2789,7 +2786,7 @@
         <v>68</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -4309,9 +4306,7 @@
       <c r="K46" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="L46" s="5" t="s">
-        <v>429</v>
-      </c>
+      <c r="L46" s="5"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Udabol-SistemasDeInformacionYSistemasInteligentes\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max-Soria\Desktop\udabol\Proyecto\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467BC83D-1701-4BAE-9673-7C94A1694F4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FFBE16-73BA-4302-98B4-09F357667607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="431">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1311,6 +1311,9 @@
   </si>
   <si>
     <t>Cochabamba</t>
+  </si>
+  <si>
+    <t>La Paz</t>
   </si>
 </sst>
 </file>
@@ -1745,12 +1748,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2401,24 +2404,24 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2498,7 +2501,9 @@
       <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max-Soria\Desktop\udabol\Proyecto\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\UDABOL\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FFBE16-73BA-4302-98B4-09F357667607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0F1FD9-6632-4EBF-BD28-FAE9B90EE9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="431">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1748,12 +1748,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2405,23 +2405,23 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2544,7 +2544,9 @@
       <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Udabol-SistemasDeInformacionYSistemasInteligentes\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalio\Desktop\UdabolGit\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467BC83D-1701-4BAE-9673-7C94A1694F4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AD40C0-E196-4A96-A29E-D4177A5662AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="431">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1311,6 +1311,9 @@
   </si>
   <si>
     <t>Cochabamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalio </t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1419,23 +1422,23 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1741,652 +1744,659 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="9">
+      <c r="A1" s="8">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>9845916</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" t="s">
         <v>370</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" t="s">
         <v>371</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>4308676</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>374</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>5273148</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" t="s">
         <v>377</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" t="s">
         <v>378</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>10680663</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>380</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" t="s">
         <v>381</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>12873339</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>6</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>7351544</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s">
         <v>385</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>7296889</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" t="s">
         <v>387</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" t="s">
         <v>327</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>9083846</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>8437859</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" t="s">
         <v>390</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" t="s">
         <v>347</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" t="s">
         <v>348</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>11304597</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>11</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" t="s">
         <v>392</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>8911045</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>12</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>6717766</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" t="s">
         <v>394</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>2631732</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>14</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" t="s">
         <v>396</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" t="s">
         <v>397</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" t="s">
         <v>398</v>
       </c>
-      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>15</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" t="s">
         <v>400</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>33970</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>16</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>9899773</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>17</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" t="s">
         <v>403</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>7041610</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>18</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" t="s">
         <v>405</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" t="s">
         <v>163</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>12669252</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>19</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" t="s">
         <v>407</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" t="s">
         <v>184</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>10931935</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>20</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" t="s">
         <v>408</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>6920030</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>21</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" t="s">
         <v>410</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" t="s">
         <v>411</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" t="s">
         <v>412</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>6434495</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>22</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" t="s">
         <v>390</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" t="s">
         <v>263</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" t="s">
         <v>264</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>9155549</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>23</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" t="s">
         <v>413</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" t="s">
         <v>414</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>6823974</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>24</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" t="s">
         <v>406</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" t="s">
         <v>341</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>2622061</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>25</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" t="s">
         <v>257</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>7838112</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>26</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" t="s">
         <v>417</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>12864046</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>27</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" t="s">
         <v>419</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" t="s">
         <v>420</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" t="s">
         <v>421</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>9110161</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>28</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" t="s">
         <v>423</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>9911855</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>29</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>9459513</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>30</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>10954950</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>31</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" t="s">
         <v>206</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>8028972</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>32</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" t="s">
         <v>425</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" t="s">
         <v>426</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" t="s">
         <v>427</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>33</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" t="s">
         <v>426</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" t="s">
         <v>427</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6">
+      <c r="A34" s="12">
+        <v>34</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C34" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="11">
+        <v>4319751</v>
       </c>
     </row>
   </sheetData>
@@ -2401,24 +2411,24 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -3853,7 +3863,9 @@
       <c r="K35" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="L35" s="5"/>
+      <c r="L35" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalio\Desktop\UdabolGit\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba539708c964344/Desktop/Bryan/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AD40C0-E196-4A96-A29E-D4177A5662AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{30AD40C0-E196-4A96-A29E-D4177A5662AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C68A7E03-DAEE-4BC2-A538-4674F5DD226B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="924" yWindow="0" windowWidth="22116" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="432">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1314,6 +1314,9 @@
   </si>
   <si>
     <t xml:space="preserve">Natalio </t>
+  </si>
+  <si>
+    <t>Oruro</t>
   </si>
 </sst>
 </file>
@@ -2411,8 +2414,8 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2672,7 +2675,9 @@
       <c r="K6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalio\Desktop\UdabolGit\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRABAJOS\GitHub\Trabajo01\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AD40C0-E196-4A96-A29E-D4177A5662AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DB24A2-36EA-474E-8003-AEB455DFAA28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="431">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1750,12 +1750,12 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2382,7 +2382,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="12">
         <v>34</v>
       </c>
@@ -2411,24 +2411,24 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2590,7 +2590,9 @@
       <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRABAJOS\GitHub\Trabajo01\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DB24A2-36EA-474E-8003-AEB455DFAA28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE4A8BF-7A69-4AC5-A363-732A812421D2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba539708c964344/Desktop/Bryan/UDABOL_202202/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-ktercero\Desktop\Desktop\Kenneth Tercero\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{30AD40C0-E196-4A96-A29E-D4177A5662AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C68A7E03-DAEE-4BC2-A538-4674F5DD226B}"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="0" windowWidth="22116" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22110" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="432">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1322,7 +1321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1743,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1753,12 +1752,12 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2385,7 +2384,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="12">
         <v>34</v>
       </c>
@@ -2408,30 +2407,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -3704,7 +3703,9 @@
       <c r="K31" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="L31" s="5"/>
+      <c r="L31" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRABAJOS\GitHub\Trabajo01\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max-Soria\Desktop\udabol\Proyecto\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00379B0-BDDB-4F5B-A5FD-2394E0360C3C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F60F032-484C-4431-9369-33359B5673D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="432">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1314,6 +1314,9 @@
   </si>
   <si>
     <t xml:space="preserve">Natalio </t>
+  </si>
+  <si>
+    <t>La Paz</t>
   </si>
 </sst>
 </file>
@@ -2411,8 +2414,8 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2508,7 +2511,9 @@
       <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max-Soria\Desktop\udabol\Proyecto\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\UDABOL\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F60F032-484C-4431-9369-33359B5673D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0278F791-2AA3-44C7-AAF0-6C3D28CFB32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="432">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1753,12 +1753,12 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2385,7 +2385,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="12">
         <v>34</v>
       </c>
@@ -2415,23 +2415,23 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2554,7 +2554,9 @@
       <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\UDABOL\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabo\Desktop\DIPLOMADO GIT\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0278F791-2AA3-44C7-AAF0-6C3D28CFB32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE7B420-40D5-4E57-AC98-B379BD2BD11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="390" windowWidth="14445" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="433">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1317,6 +1317,9 @@
   </si>
   <si>
     <t>La Paz</t>
+  </si>
+  <si>
+    <t>Oruro</t>
   </si>
 </sst>
 </file>
@@ -1753,12 +1756,12 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2385,7 +2388,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="12">
         <v>34</v>
       </c>
@@ -2414,24 +2417,24 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2640,7 +2643,9 @@
       <c r="K5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>432</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabo\Desktop\DIPLOMADO GIT\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRABAJOS\GitHub\Trabajo01\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE7B420-40D5-4E57-AC98-B379BD2BD11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3341B5-E3CC-4748-BC5E-137E7561A9D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14280" yWindow="390" windowWidth="14445" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="434">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1320,6 +1320,9 @@
   </si>
   <si>
     <t>Oruro</t>
+  </si>
+  <si>
+    <t>COCHABAMBA</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2421,7 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2601,7 +2604,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRABAJOS\GitHub\Trabajo01\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres_PC\Documents\GIT\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3341B5-E3CC-4748-BC5E-137E7561A9D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658B0839-907F-4714-AD4D-8A7AAF41B11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="390" windowWidth="14445" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="434">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1759,12 +1759,12 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2391,7 +2391,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.5">
       <c r="A34" s="12">
         <v>34</v>
       </c>
@@ -2421,23 +2421,23 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2730,7 +2730,9 @@
       <c r="K7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ancieta\Desktop\repositorio\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIKAELA NOELIA\Desktop\Udabol1\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C75C44-C048-438C-9455-23F2F7A2C984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F259B0FE-E0AA-46A2-A953-9E460ED8872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="435">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1323,6 +1323,9 @@
   </si>
   <si>
     <t>COCHABAMBA</t>
+  </si>
+  <si>
+    <t>LA PAZ</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2424,7 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2900,7 +2903,9 @@
       <c r="K11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIKAELA NOELIA\Desktop\Udabol1\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIO\Desktop\UDABOL\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F259B0FE-E0AA-46A2-A953-9E460ED8872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A5988-C3CA-49B5-BDBC-A7AD52502F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="435">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1414,7 +1414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1447,9 +1447,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2398,7 +2395,7 @@
       <c r="A34" s="12">
         <v>34</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>430</v>
       </c>
       <c r="C34" t="s">
@@ -2424,7 +2421,7 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2946,7 +2943,9 @@
       <c r="K12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIO\Desktop\UDABOL\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter Ramos\Desktop\U\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A5988-C3CA-49B5-BDBC-A7AD52502F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E799CEA-6C1B-4AE3-A030-476B00C834E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="435">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1332,7 +1332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,6 +1369,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1414,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1447,6 +1454,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2421,7 +2431,7 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2986,7 +2996,9 @@
       <c r="K13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -3027,7 +3039,7 @@
       <c r="K14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -6457,5 +6469,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter Ramos\Desktop\U\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KN\Desktop\dimplomado\modulo 2 sistemas de informacion y sis inte\proyecto\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E799CEA-6C1B-4AE3-A030-476B00C834E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="435">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1331,7 +1330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1759,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2424,13 +2423,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -3039,7 +3038,9 @@
       <c r="K14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>432</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1331,7 +1331,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,13 +1368,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1420,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1453,9 +1446,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3038,7 +3028,7 @@
       <c r="K14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="5" t="s">
         <v>432</v>
       </c>
       <c r="M14" s="3"/>
@@ -6470,6 +6460,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dictex\Desktop\udabol\UDABOL_202202\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,1350 +25,1333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="437">
-  <si>
-    <t xml:space="preserve">Leonardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guevara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quispe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orlando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escobar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antezana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giovana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balboa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zapata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vargas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancieta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guzman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achocalla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riveros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amilkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuevas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osvaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arroyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goncalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aqui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colocar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edenilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arturo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beymar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troncoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamachi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aguilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuquendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguirre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soliz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vilalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zurita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jherson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jhoel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quisbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cristian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ariel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quispe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mikaela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aramayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torrico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huayhuati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jefferson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canaviri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paniagua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERALTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI:8257209</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="437">
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Guevara</t>
+  </si>
+  <si>
+    <t>Quispe</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Escobar</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>Soria</t>
+  </si>
+  <si>
+    <t>Antezana</t>
+  </si>
+  <si>
+    <t>Giovana</t>
+  </si>
+  <si>
+    <t>Rosy</t>
+  </si>
+  <si>
+    <t>Balboa</t>
+  </si>
+  <si>
+    <t>Mayta</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>Zapata</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Ancieta</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>Achocalla</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Riveros</t>
+  </si>
+  <si>
+    <t>Amilkar</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Quezo</t>
+  </si>
+  <si>
+    <t>Ticona</t>
+  </si>
+  <si>
+    <t>Flor</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Dorado</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>Fanor</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Cuevas</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Osvaldo</t>
+  </si>
+  <si>
+    <t>Arroyo</t>
+  </si>
+  <si>
+    <t>Goncalves</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>aqui</t>
+  </si>
+  <si>
+    <t>colocar</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Edenilson</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Amaya</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Copa</t>
+  </si>
+  <si>
+    <t>Beymar</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Aliaga</t>
+  </si>
+  <si>
+    <t>Choque</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Loza</t>
+  </si>
+  <si>
+    <t>Troncoso</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Patrik</t>
+  </si>
+  <si>
+    <t>Plata</t>
+  </si>
+  <si>
+    <t>Romario</t>
+  </si>
+  <si>
+    <t>Jamachi</t>
+  </si>
+  <si>
+    <t>Varela</t>
+  </si>
+  <si>
+    <t>walter</t>
+  </si>
+  <si>
+    <t>jurgen</t>
+  </si>
+  <si>
+    <t>aguilar</t>
+  </si>
+  <si>
+    <t>flores</t>
+  </si>
+  <si>
+    <t>Cornejo</t>
+  </si>
+  <si>
+    <t>Cuquendo</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Aguirre</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Soliz</t>
+  </si>
+  <si>
+    <t>Vilalo</t>
+  </si>
+  <si>
+    <t>Zurita</t>
+  </si>
+  <si>
+    <t>Jherson</t>
+  </si>
+  <si>
+    <t>Jhoel</t>
+  </si>
+  <si>
+    <t>Huanca</t>
+  </si>
+  <si>
+    <t>Quisbert</t>
+  </si>
+  <si>
+    <t>cristian</t>
+  </si>
+  <si>
+    <t>ariel</t>
+  </si>
+  <si>
+    <t>huanca</t>
+  </si>
+  <si>
+    <t>quispe</t>
+  </si>
+  <si>
+    <t>mikaela</t>
+  </si>
+  <si>
+    <t>aramayo</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Torrico</t>
+  </si>
+  <si>
+    <t>Huayhuati</t>
+  </si>
+  <si>
+    <t>jefferson</t>
+  </si>
+  <si>
+    <t>canaviri</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>Paniagua</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>GOMES</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>CI:8257209</t>
   </si>
   <si>
     <t xml:space="preserve">Natalio </t>
   </si>
   <si>
-    <t xml:space="preserve">Yana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marca temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección de correo electrónico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paterno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correo de git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usurio de Git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario de TRELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KATTIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo con el que se registro en GoogleClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo Udabol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msoria-es1@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Eddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxeddy7@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seosargo@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Osvaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soarroyo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SergioArroyoG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SergioArroyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joerudeviluke@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoeruS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel Torrico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jtorrico15-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCHABAMBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">falrcon-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alarcon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabricio Javier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">falarcon-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABOSoft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabricio J. Alarcon Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabricio Javier Alarcon Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fabrixio.fabo@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oruro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bryan.antezana.riveros@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryan Alberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wistuvida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ba_riveros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wistuvida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baantezana-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andresguti267@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Arturo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AndresGutierrez2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Gutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aagutierrez3-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mateofree19@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancieta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elias samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eliasancietarocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elias Samuel Ancieta rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esancieta-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andresguzguzman@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Gustavo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andresguz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Guzman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andru guzman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agguzman-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cochabamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackye13montanno@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montaño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huayhua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacqueline Milenka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmmontano-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JacquelineMontano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JACQUELINE MILENKA MONTAÑO HUAYHUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noeliaadenis12@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aramayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illanes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikaela Noelia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikaeeellaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mnaramayo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA PAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbalboa-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALBOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAYTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIOVANA ROSY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIOV28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giov-rbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giovana-rosy-balboa-mayta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giov.rbm@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weafullxd@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Edenilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weramos2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weramosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@weramos2es1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario: walter ramos Correo: weafullxd@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malganiz.mj@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mjorge-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJOrgeCuevas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcelojorgecuevas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">326.osito@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Franco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSITO326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osito_326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osito326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kfzapata-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcoca4-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcocafranco08@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danielcocafranco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL COCA FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sistemasgrwr@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grower7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grower Laura Choque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glaura2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beymar512a@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beymar Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miltraxos@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beymar1912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beymar Aliaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baaliaga-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronn01235@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronny091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronnyloza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronny Loza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rloza2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffersitoluna11@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcanaviri5-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jefferson11980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jefferson canaviri luna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neferaguilarflores@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Jurgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W_jurgen_aguilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wjaguilar-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronald.saucedotito@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saucedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsaucedo97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronald Saucedo Tito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsacudo-es1@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lozatroncosomiguel@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Miguel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MickLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miguellozatroncoso1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmloza-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19agosto88@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gutiérrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Abigail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fagutierrez-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19Flor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLOR GUTIÉRREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Gutiérrez Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tclavijograndon@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clavijo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tclavijo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Clavijo Grandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tclavijo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauguti123m@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio Patrik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MauricioPlata123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauriciopatrikplatagutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauricio-patrik-plata-gutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mpplata-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jhersonjhuancaq@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jherson Jhoel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jjhuanca1-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jherson-Huanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JHERSON JHOEL HUANCA QUISBERT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliagacallejuancarlos@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Carlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JuanCarlosAliaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN CARLOS ALIAGA CALLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juan carlos aliaga calle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcaliaga1-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samuelpaniagua99@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spaniagua2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samAla99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samuelpaniaguaala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samuel-paniagua-ala spaniagua2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quirozfloreskatherine2802@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quiroz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katherine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kquiroz3-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">katherineQuirozFlores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katherine Quiroz Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ketercero-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tercero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenneth Egon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennetheto1995@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketote95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keto030695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketercero-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmamani2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mamani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yujra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcialmamani777@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcial777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcial mamani yujra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jennyfer.karem@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salazar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karem Jennyfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jennyfer-Karem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karem Jennyfer Achá Salazar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jennyfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kjacha-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abeizaga264@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beizaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alessandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlessoXD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alessandro beizaga bolivar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alessandro-beizaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abeizaga1-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nyana-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NatalioYana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalio Yana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalio Yana Ticona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samuelvilalozurita@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamuelVilaloZurita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Vilalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svilalo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daccsagc@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Alejandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dacornejo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diegodacc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diegoalejandrocornejocuquendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cocojorgeromario@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Romario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrjamachi-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JorgeCoky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE ROMARIO JAMACHI VARELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macomx7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canqui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacOmx7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macomx7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macomx7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macanqui-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ldclaure-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chavez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo Danilo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leonardoclaure141@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leonardodaniloclaure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@leonardodaniloclaurechavez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leonardo Claure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huarachideymargabriel@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUARACHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mujica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deymar Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deymar13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deymar Gabriel Huarachi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dghuarachi-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huancacristian17@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristian Ariel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cahuanca-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristianariel98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISTIAN ARIEL HUANCA QUISPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Ariel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waguilerabruno@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aguilera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bruno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willan alonzo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willan86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waaguilera-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gomesperaltajosemaria@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peralta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Maria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jhosef2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE MARIA GOMES PERALTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jgomes-es2@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jgonzalespatino@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonzales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patiño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jose ricardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrgonzales-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonzalespat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jose gonzales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danielquezo296@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amilkar Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmilkarDaniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amilkarquezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amilkar-daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adquezo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcmchavarria123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chavarria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus Moises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JesusChavarria123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus Chavarria Martinez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmchavarria1-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paulomauricioaguilarsoliz@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo Mauricio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PauloAguilarSoliz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo Aguilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pmaguilar-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marduksin@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiegoAlejandroDorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Alejandro Dorado Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego A Dorado R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dadorado-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronfis30@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUIRRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RONALD PIORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronchi18@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RONFISAGUIRRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RONALD PIORT AGUIRRE MEDINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpaguirre-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renaciendodeunavez@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suxo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Emilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manuemyl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">megonzales1-es@udabol.edu.bo</t>
+    <t>Yana</t>
+  </si>
+  <si>
+    <t>Marca temporal</t>
+  </si>
+  <si>
+    <t>Dirección de correo electrónico</t>
+  </si>
+  <si>
+    <t>Paterno</t>
+  </si>
+  <si>
+    <t>Materno</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>correo de git</t>
+  </si>
+  <si>
+    <t>Usurio de Git</t>
+  </si>
+  <si>
+    <t>Usuario de TRELLO</t>
+  </si>
+  <si>
+    <t>KATTIS</t>
+  </si>
+  <si>
+    <t>Correo con el que se registro en GoogleClass</t>
+  </si>
+  <si>
+    <t>Correo Udabol</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>msoria-es1@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Max Eddy</t>
+  </si>
+  <si>
+    <t>maxeddy7@hotmail.com</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>seosargo@gmail.com</t>
+  </si>
+  <si>
+    <t>Sergio Osvaldo</t>
+  </si>
+  <si>
+    <t>soarroyo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>SergioArroyoG</t>
+  </si>
+  <si>
+    <t>SergioArroyo</t>
+  </si>
+  <si>
+    <t>joerudeviluke@gmail.com</t>
+  </si>
+  <si>
+    <t>JoeruS</t>
+  </si>
+  <si>
+    <t>Joel Torrico</t>
+  </si>
+  <si>
+    <t>jtorrico15-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>COCHABAMBA</t>
+  </si>
+  <si>
+    <t>falrcon-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Alarcon</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Fabricio Javier</t>
+  </si>
+  <si>
+    <t>falarcon-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>FABOSoft</t>
+  </si>
+  <si>
+    <t>Fabricio J. Alarcon Lopez</t>
+  </si>
+  <si>
+    <t>Fabricio Javier Alarcon Lopez</t>
+  </si>
+  <si>
+    <t>fabrixio.fabo@gmail.com</t>
+  </si>
+  <si>
+    <t>Oruro</t>
+  </si>
+  <si>
+    <t>bryan.antezana.riveros@gmail.com</t>
+  </si>
+  <si>
+    <t>Bryan Alberto</t>
+  </si>
+  <si>
+    <t>Wistuvida</t>
+  </si>
+  <si>
+    <t>ba_riveros</t>
+  </si>
+  <si>
+    <t>wistuvida</t>
+  </si>
+  <si>
+    <t>baantezana-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>andresguti267@gmail.com</t>
+  </si>
+  <si>
+    <t>Andres Arturo</t>
+  </si>
+  <si>
+    <t>AndresGutierrez2022</t>
+  </si>
+  <si>
+    <t>Andres Gutierrez</t>
+  </si>
+  <si>
+    <t>aagutierrez3-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>mateofree19@gmail.com</t>
+  </si>
+  <si>
+    <t>ancieta</t>
+  </si>
+  <si>
+    <t>rocha</t>
+  </si>
+  <si>
+    <t>elias samuel</t>
+  </si>
+  <si>
+    <t>eliasancietarocha</t>
+  </si>
+  <si>
+    <t>elias Samuel Ancieta rocha</t>
+  </si>
+  <si>
+    <t>esancieta-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>andresguzguzman@gmail.com</t>
+  </si>
+  <si>
+    <t>Andres Gustavo</t>
+  </si>
+  <si>
+    <t>Andresguz</t>
+  </si>
+  <si>
+    <t>Andres Guzman</t>
+  </si>
+  <si>
+    <t>andru guzman</t>
+  </si>
+  <si>
+    <t>agguzman-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Cochabamba</t>
+  </si>
+  <si>
+    <t>jackye13montanno@gmail.com</t>
+  </si>
+  <si>
+    <t>Montaño</t>
+  </si>
+  <si>
+    <t>Huayhua</t>
+  </si>
+  <si>
+    <t>Jacqueline Milenka</t>
+  </si>
+  <si>
+    <t>jmmontano-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>JacquelineMontano</t>
+  </si>
+  <si>
+    <t>JACQUELINE MILENKA MONTAÑO HUAYHUA</t>
+  </si>
+  <si>
+    <t>noeliaadenis12@gmail.com</t>
+  </si>
+  <si>
+    <t>Aramayo</t>
+  </si>
+  <si>
+    <t>Illanes</t>
+  </si>
+  <si>
+    <t>Mikaela Noelia</t>
+  </si>
+  <si>
+    <t>Mikaeeellaa</t>
+  </si>
+  <si>
+    <t>mnaramayo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>LA PAZ</t>
+  </si>
+  <si>
+    <t>gbalboa-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>BALBOA</t>
+  </si>
+  <si>
+    <t>MAYTA</t>
+  </si>
+  <si>
+    <t>GIOVANA ROSY</t>
+  </si>
+  <si>
+    <t>GIOV28</t>
+  </si>
+  <si>
+    <t>giov-rbm</t>
+  </si>
+  <si>
+    <t>giovana-rosy-balboa-mayta</t>
+  </si>
+  <si>
+    <t>giov.rbm@gmail.com</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>weafullxd@gmail.com</t>
+  </si>
+  <si>
+    <t>Walter Edenilson</t>
+  </si>
+  <si>
+    <t>weramos2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>weramosa</t>
+  </si>
+  <si>
+    <t>@weramos2es1</t>
+  </si>
+  <si>
+    <t>Usuario: walter ramos Correo: weafullxd@gmail.com</t>
+  </si>
+  <si>
+    <t>malganiz.mj@gmail.com</t>
+  </si>
+  <si>
+    <t>mjorge-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>MJOrgeCuevas</t>
+  </si>
+  <si>
+    <t>marcelojorgecuevas</t>
+  </si>
+  <si>
+    <t>326.osito@gmail.com</t>
+  </si>
+  <si>
+    <t>Kevin Franco</t>
+  </si>
+  <si>
+    <t>OSITO326</t>
+  </si>
+  <si>
+    <t>osito_326</t>
+  </si>
+  <si>
+    <t>osito326</t>
+  </si>
+  <si>
+    <t>kfzapata-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>dcoca4-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>COCA</t>
+  </si>
+  <si>
+    <t>FRANCO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>dcocafranco08@gmail.com</t>
+  </si>
+  <si>
+    <t>danielcocafranco</t>
+  </si>
+  <si>
+    <t>DANIEL COCA FRANCO</t>
+  </si>
+  <si>
+    <t>sistemasgrwr@gmail.com</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Grower</t>
+  </si>
+  <si>
+    <t>Grower7</t>
+  </si>
+  <si>
+    <t>Grower Laura Choque</t>
+  </si>
+  <si>
+    <t>glaura2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>beymar512a@gmail.com</t>
+  </si>
+  <si>
+    <t>Beymar Antonio</t>
+  </si>
+  <si>
+    <t>miltraxos@gmail.com</t>
+  </si>
+  <si>
+    <t>Beymar1912</t>
+  </si>
+  <si>
+    <t>Beymar Aliaga</t>
+  </si>
+  <si>
+    <t>baaliaga-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>ronn01235@gmail.com</t>
+  </si>
+  <si>
+    <t>Ronny</t>
+  </si>
+  <si>
+    <t>Ronny091</t>
+  </si>
+  <si>
+    <t>ronnyloza</t>
+  </si>
+  <si>
+    <t>Ronny Loza</t>
+  </si>
+  <si>
+    <t>rloza2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>jeffersitoluna11@gmail.com</t>
+  </si>
+  <si>
+    <t>jcanaviri5-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>jefferson11980</t>
+  </si>
+  <si>
+    <t>jefferson canaviri luna</t>
+  </si>
+  <si>
+    <t>neferaguilarflores@gmail.com</t>
+  </si>
+  <si>
+    <t>Walter Jurgen</t>
+  </si>
+  <si>
+    <t>W_jurgen_aguilar</t>
+  </si>
+  <si>
+    <t>wjaguilar-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>ronald.saucedotito@gmail.com</t>
+  </si>
+  <si>
+    <t>Saucedo</t>
+  </si>
+  <si>
+    <t>Tito</t>
+  </si>
+  <si>
+    <t>rsaucedo97</t>
+  </si>
+  <si>
+    <t>Ronald Saucedo Tito</t>
+  </si>
+  <si>
+    <t>rsacudo-es1@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>lozatroncosomiguel@gmail.com</t>
+  </si>
+  <si>
+    <t>Jose Miguel</t>
+  </si>
+  <si>
+    <t>MickLT</t>
+  </si>
+  <si>
+    <t>miguellozatroncoso1</t>
+  </si>
+  <si>
+    <t>jmloza-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>19agosto88@gmail.com</t>
+  </si>
+  <si>
+    <t>Gutiérrez</t>
+  </si>
+  <si>
+    <t>Flor Abigail</t>
+  </si>
+  <si>
+    <t>fagutierrez-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>19Flor</t>
+  </si>
+  <si>
+    <t>FLOR GUTIÉRREZ</t>
+  </si>
+  <si>
+    <t>Flor Gutiérrez Cruz</t>
+  </si>
+  <si>
+    <t>tclavijograndon@gmail.com</t>
+  </si>
+  <si>
+    <t>Clavijo</t>
+  </si>
+  <si>
+    <t>Grandon</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Tclavijo</t>
+  </si>
+  <si>
+    <t>Thomas Clavijo Grandon</t>
+  </si>
+  <si>
+    <t>tclavijo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>mauguti123m@gmail.com</t>
+  </si>
+  <si>
+    <t>Mauricio Patrik</t>
+  </si>
+  <si>
+    <t>MauricioPlata123</t>
+  </si>
+  <si>
+    <t>mauriciopatrikplatagutierrez</t>
+  </si>
+  <si>
+    <t>mauricio-patrik-plata-gutierrez</t>
+  </si>
+  <si>
+    <t>mpplata-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>jhersonjhuancaq@gmail.com</t>
+  </si>
+  <si>
+    <t>Jherson Jhoel</t>
+  </si>
+  <si>
+    <t>jjhuanca1-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Jherson-Huanca</t>
+  </si>
+  <si>
+    <t>JHERSON JHOEL HUANCA QUISBERT</t>
+  </si>
+  <si>
+    <t>aliagacallejuancarlos@gmail.com</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>JuanCarlosAliaga</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS ALIAGA CALLE</t>
+  </si>
+  <si>
+    <t>juan carlos aliaga calle</t>
+  </si>
+  <si>
+    <t>jcaliaga1-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>samuelpaniagua99@gmail.com</t>
+  </si>
+  <si>
+    <t>spaniagua2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>samAla99</t>
+  </si>
+  <si>
+    <t>samuelpaniaguaala</t>
+  </si>
+  <si>
+    <t>samuel-paniagua-ala spaniagua2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>quirozfloreskatherine2802@gmail.com</t>
+  </si>
+  <si>
+    <t>Quiroz</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>kquiroz3-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>katherineQuirozFlores</t>
+  </si>
+  <si>
+    <t>Katherine Quiroz Flores</t>
+  </si>
+  <si>
+    <t>ketercero-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Tercero</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Kenneth Egon</t>
+  </si>
+  <si>
+    <t>Kennetheto1995@gmail.com</t>
+  </si>
+  <si>
+    <t>Ketote95</t>
+  </si>
+  <si>
+    <t>keto030695</t>
+  </si>
+  <si>
+    <t>Ketercero-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>mmamani2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>mamani</t>
+  </si>
+  <si>
+    <t>yujra</t>
+  </si>
+  <si>
+    <t>marcial</t>
+  </si>
+  <si>
+    <t>marcialmamani777@gmail.com</t>
+  </si>
+  <si>
+    <t>marcial777</t>
+  </si>
+  <si>
+    <t>marcial mamani yujra</t>
+  </si>
+  <si>
+    <t>jennyfer.karem@gmail.com</t>
+  </si>
+  <si>
+    <t>Achá</t>
+  </si>
+  <si>
+    <t>Salazar</t>
+  </si>
+  <si>
+    <t>Karem Jennyfer</t>
+  </si>
+  <si>
+    <t>Jennyfer-Karem</t>
+  </si>
+  <si>
+    <t>Karem Jennyfer Achá Salazar</t>
+  </si>
+  <si>
+    <t>Jennyfer</t>
+  </si>
+  <si>
+    <t>kjacha-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>abeizaga264@gmail.com</t>
+  </si>
+  <si>
+    <t>Beizaga</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Alessandro</t>
+  </si>
+  <si>
+    <t>AlessoXD</t>
+  </si>
+  <si>
+    <t>alessandro beizaga bolivar</t>
+  </si>
+  <si>
+    <t>alessandro-beizaga</t>
+  </si>
+  <si>
+    <t>abeizaga1-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>nyana-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Natalio</t>
+  </si>
+  <si>
+    <t>NatalioYana</t>
+  </si>
+  <si>
+    <t>Natalio Yana</t>
+  </si>
+  <si>
+    <t>Natalio Yana Ticona</t>
+  </si>
+  <si>
+    <t>samuelvilalozurita@gmail.com</t>
+  </si>
+  <si>
+    <t>SamuelVilaloZurita</t>
+  </si>
+  <si>
+    <t>Samuel Vilalo</t>
+  </si>
+  <si>
+    <t>svilalo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>daccsagc@gmail.com</t>
+  </si>
+  <si>
+    <t>Diego Alejandro</t>
+  </si>
+  <si>
+    <t>dacornejo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>diegodacc</t>
+  </si>
+  <si>
+    <t>diegoalejandrocornejocuquendo</t>
+  </si>
+  <si>
+    <t>cocojorgeromario@gmail.com</t>
+  </si>
+  <si>
+    <t>Jorge Romario</t>
+  </si>
+  <si>
+    <t>jrjamachi-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>JorgeCoky</t>
+  </si>
+  <si>
+    <t>JORGE ROMARIO JAMACHI VARELA</t>
+  </si>
+  <si>
+    <t>macomx7@gmail.com</t>
+  </si>
+  <si>
+    <t>Canqui</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t>MacOmx7</t>
+  </si>
+  <si>
+    <t>macomx7</t>
+  </si>
+  <si>
+    <t>Macomx7</t>
+  </si>
+  <si>
+    <t>macanqui-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>ldclaure-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Claure</t>
+  </si>
+  <si>
+    <t>Chavez</t>
+  </si>
+  <si>
+    <t>Leonardo Danilo</t>
+  </si>
+  <si>
+    <t>leonardoclaure141@gmail.com</t>
+  </si>
+  <si>
+    <t>leonardodaniloclaure</t>
+  </si>
+  <si>
+    <t>@leonardodaniloclaurechavez</t>
+  </si>
+  <si>
+    <t>leonardo Claure</t>
+  </si>
+  <si>
+    <t>huarachideymargabriel@gmail.com</t>
+  </si>
+  <si>
+    <t>HUARACHI</t>
+  </si>
+  <si>
+    <t>Mujica</t>
+  </si>
+  <si>
+    <t>Deymar Gabriel</t>
+  </si>
+  <si>
+    <t>Deymar13</t>
+  </si>
+  <si>
+    <t>Deymar Gabriel Huarachi</t>
+  </si>
+  <si>
+    <t>dghuarachi-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>huancacristian17@gmail.com</t>
+  </si>
+  <si>
+    <t>Cristian Ariel</t>
+  </si>
+  <si>
+    <t>cahuanca-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Cristianariel98</t>
+  </si>
+  <si>
+    <t>CRISTIAN ARIEL HUANCA QUISPE</t>
+  </si>
+  <si>
+    <t>Christian Ariel</t>
+  </si>
+  <si>
+    <t>waguilerabruno@gmail.com</t>
+  </si>
+  <si>
+    <t>aguilera</t>
+  </si>
+  <si>
+    <t>bruno</t>
+  </si>
+  <si>
+    <t>willan alonzo</t>
+  </si>
+  <si>
+    <t>willan86</t>
+  </si>
+  <si>
+    <t>waaguilera-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>gomesperaltajosemaria@gmail.com</t>
+  </si>
+  <si>
+    <t>Gomes</t>
+  </si>
+  <si>
+    <t>Peralta</t>
+  </si>
+  <si>
+    <t>José Maria</t>
+  </si>
+  <si>
+    <t>jhosef2022</t>
+  </si>
+  <si>
+    <t>JOSE MARIA GOMES PERALTA</t>
+  </si>
+  <si>
+    <t>gomes</t>
+  </si>
+  <si>
+    <t>jgomes-es2@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>jgonzalespatino@gmail.com</t>
+  </si>
+  <si>
+    <t>gonzales</t>
+  </si>
+  <si>
+    <t>patiño</t>
+  </si>
+  <si>
+    <t>jose ricardo</t>
+  </si>
+  <si>
+    <t>jrgonzales-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>gonzalespat</t>
+  </si>
+  <si>
+    <t>jose gonzales</t>
+  </si>
+  <si>
+    <t>danielquezo296@gmail.com</t>
+  </si>
+  <si>
+    <t>Amilkar Daniel</t>
+  </si>
+  <si>
+    <t>AmilkarDaniel</t>
+  </si>
+  <si>
+    <t>amilkarquezo</t>
+  </si>
+  <si>
+    <t>amilkar-daniel</t>
+  </si>
+  <si>
+    <t>adquezo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>jcmchavarria123@gmail.com</t>
+  </si>
+  <si>
+    <t>Chavarria</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Jesus Moises</t>
+  </si>
+  <si>
+    <t>JesusChavarria123</t>
+  </si>
+  <si>
+    <t>Jesus Chavarria Martinez</t>
+  </si>
+  <si>
+    <t>jmchavarria1-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>paulomauricioaguilarsoliz@gmail.com</t>
+  </si>
+  <si>
+    <t>Paulo Mauricio</t>
+  </si>
+  <si>
+    <t>PauloAguilarSoliz</t>
+  </si>
+  <si>
+    <t>Paulo Aguilar</t>
+  </si>
+  <si>
+    <t>pmaguilar-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>marduksin@gmail.com</t>
+  </si>
+  <si>
+    <t>DiegoAlejandroDorado</t>
+  </si>
+  <si>
+    <t>Diego Alejandro Dorado Rojas</t>
+  </si>
+  <si>
+    <t>Diego A Dorado R</t>
+  </si>
+  <si>
+    <t>dadorado-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>ronfis30@gmail.com</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>RONALD PIORT</t>
+  </si>
+  <si>
+    <t>ronchi18@hotmail.com</t>
+  </si>
+  <si>
+    <t>RONFISAGUIRRE</t>
+  </si>
+  <si>
+    <t>RONALD PIORT AGUIRRE MEDINA</t>
+  </si>
+  <si>
+    <t>rpaguirre-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>renaciendodeunavez@gmail.com</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>Suxo</t>
+  </si>
+  <si>
+    <t>Manuel Emilio</t>
+  </si>
+  <si>
+    <t>manuemyl</t>
+  </si>
+  <si>
+    <t>megonzales1-es@udabol.edu.bo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="dd\/mm\/yyyy\ hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1381,7 +1368,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1405,830 +1392,1052 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.57"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="3">
         <v>9845916</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>4308676</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>5273148</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>10680663</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>5246381</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>12873339</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>7351544</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>7296889</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>9083846</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>8437859</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>11304597</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A12" s="3">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>8911045</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A13" s="3">
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>6717766</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>2631732</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>33970</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A17" s="3">
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>9899773</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A18" s="3">
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="3">
         <v>7041610</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A19" s="3">
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="3">
         <v>12669252</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A20" s="3">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>10931935</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A21" s="3">
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>6920030</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A22" s="3">
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="3">
         <v>6434495</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A23" s="3">
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>9155549</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A24" s="3">
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>6823974</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A25" s="3">
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="3">
         <v>2622061</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A26" s="3">
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="3">
         <v>7838112</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A27" s="3">
         <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>12864046</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A28" s="3">
         <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="3">
         <v>9110161</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A29" s="3">
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="3">
         <v>9911855</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A30" s="3">
         <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="3">
         <v>9459513</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A31" s="3">
         <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="3">
         <v>10954950</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A32" s="3">
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="3">
         <v>8028972</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A33" s="3">
         <v>33</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>110</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>110</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>4319751</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="43.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="27.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="13" style="0" width="13.57"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>114</v>
       </c>
@@ -2271,9 +2480,9 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
-        <v>44816.8994212963</v>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" s="10">
+        <v>44816.899421296301</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>126</v>
@@ -2314,9 +2523,9 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
-        <v>44816.8996180556</v>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A3" s="10">
+        <v>44816.899618055599</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>130</v>
@@ -2357,9 +2566,9 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
-        <v>44816.9005324074</v>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A4" s="10">
+        <v>44816.900532407402</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>135</v>
@@ -2400,9 +2609,9 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
-        <v>44816.9007986111</v>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A5" s="10">
+        <v>44816.900798611103</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>140</v>
@@ -2443,9 +2652,9 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>44816.9007986111</v>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A6" s="10">
+        <v>44816.900798611103</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>150</v>
@@ -2484,8 +2693,8 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A7" s="10">
         <v>44816.9008217593</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2527,9 +2736,9 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
-        <v>44816.9009027778</v>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A8" s="10">
+        <v>44816.900902777801</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>161</v>
@@ -2570,9 +2779,9 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
-        <v>44816.9009722222</v>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A9" s="10">
+        <v>44816.900972222204</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>168</v>
@@ -2613,9 +2822,9 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
-        <v>44816.9013657407</v>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A10" s="10">
+        <v>44816.901365740698</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>175</v>
@@ -2654,9 +2863,9 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
-        <v>44816.9020023148</v>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A11" s="10">
+        <v>44816.902002314797</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>182</v>
@@ -2697,9 +2906,9 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
-        <v>44816.9020023148</v>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A12" s="10">
+        <v>44816.902002314797</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>189</v>
@@ -2740,9 +2949,9 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
-        <v>44816.9021064815</v>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A13" s="10">
+        <v>44816.902106481502</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>198</v>
@@ -2783,9 +2992,9 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
-        <v>44816.9021296296</v>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A14" s="10">
+        <v>44816.902129629598</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>204</v>
@@ -2826,9 +3035,9 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
-        <v>44816.9021412037</v>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A15" s="10">
+        <v>44816.902141203696</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>208</v>
@@ -2869,9 +3078,9 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
-        <v>44816.9021990741</v>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A16" s="10">
+        <v>44816.902199074102</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>214</v>
@@ -2910,9 +3119,9 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
-        <v>44816.9032407407</v>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A17" s="10">
+        <v>44816.903240740699</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>221</v>
@@ -2951,9 +3160,9 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
-        <v>44816.9033564815</v>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A18" s="10">
+        <v>44816.903356481504</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>227</v>
@@ -2985,16 +3194,18 @@
       <c r="K18" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
-        <v>44816.9036574074</v>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A19" s="10">
+        <v>44816.903657407398</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>233</v>
@@ -3033,9 +3244,9 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
-        <v>44816.9036921296</v>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A20" s="10">
+        <v>44816.903692129599</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>239</v>
@@ -3074,9 +3285,9 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
-        <v>44816.9038541667</v>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A21" s="10">
+        <v>44816.903854166703</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>243</v>
@@ -3115,9 +3326,9 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
-        <v>44816.9044328704</v>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A22" s="10">
+        <v>44816.904432870397</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>247</v>
@@ -3156,9 +3367,9 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
-        <v>44816.9044560185</v>
+    <row r="23" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A23" s="10">
+        <v>44816.904456018499</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>253</v>
@@ -3197,9 +3408,9 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
-        <v>44816.9046064815</v>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A24" s="10">
+        <v>44816.904606481497</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>258</v>
@@ -3238,9 +3449,9 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
-        <v>44816.9047337963</v>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A25" s="10">
+        <v>44816.904733796298</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>265</v>
@@ -3279,9 +3490,9 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
-        <v>44816.9048958333</v>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A26" s="10">
+        <v>44816.904895833301</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>272</v>
@@ -3320,8 +3531,8 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+    <row r="27" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A27" s="10">
         <v>44816.9055324074</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3361,8 +3572,8 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
+    <row r="28" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A28" s="10">
         <v>44816.9061111111</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -3402,9 +3613,9 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
-        <v>44816.9066898148</v>
+    <row r="29" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A29" s="10">
+        <v>44816.906689814801</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>290</v>
@@ -3443,9 +3654,9 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
-        <v>44816.9068865741</v>
+    <row r="30" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A30" s="10">
+        <v>44816.906886574099</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>295</v>
@@ -3484,9 +3695,9 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
-        <v>44816.9069444445</v>
+    <row r="31" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A31" s="10">
+        <v>44816.906944444498</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>301</v>
@@ -3525,8 +3736,8 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
+    <row r="32" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A32" s="10">
         <v>44816.9081365741</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3566,9 +3777,9 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
-        <v>44816.9082060185</v>
+    <row r="33" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A33" s="10">
+        <v>44816.908206018503</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>316</v>
@@ -3607,8 +3818,8 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="n">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A34" s="10">
         <v>44816.9083217593</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -3648,9 +3859,9 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="n">
-        <v>44816.909525463</v>
+    <row r="35" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A35" s="10">
+        <v>44816.909525463001</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>332</v>
@@ -3691,9 +3902,9 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
-        <v>44816.9099074074</v>
+    <row r="36" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A36" s="10">
+        <v>44816.909907407397</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>337</v>
@@ -3732,9 +3943,9 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
-        <v>44816.9248263889</v>
+    <row r="37" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A37" s="10">
+        <v>44816.924826388902</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>341</v>
@@ -3773,9 +3984,9 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="n">
-        <v>44816.9358217593</v>
+    <row r="38" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A38" s="10">
+        <v>44816.935821759304</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>346</v>
@@ -3814,9 +4025,9 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="n">
-        <v>44817.3459027778</v>
+    <row r="39" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A39" s="10">
+        <v>44817.345902777801</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>351</v>
@@ -3855,9 +4066,9 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="n">
-        <v>44817.7284606482</v>
+    <row r="40" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A40" s="10">
+        <v>44817.728460648199</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>358</v>
@@ -3898,9 +4109,9 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="n">
-        <v>44817.8570486111</v>
+    <row r="41" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A41" s="10">
+        <v>44817.857048611098</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>366</v>
@@ -3939,9 +4150,9 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
-        <v>44817.9732986111</v>
+    <row r="42" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A42" s="10">
+        <v>44817.973298611098</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>373</v>
@@ -3980,9 +4191,9 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="n">
-        <v>44818.0128009259</v>
+    <row r="43" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A43" s="10">
+        <v>44818.012800925899</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>379</v>
@@ -4021,9 +4232,9 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="n">
-        <v>44818.4522569444</v>
+    <row r="44" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A44" s="10">
+        <v>44818.452256944402</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>385</v>
@@ -4062,9 +4273,9 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="n">
-        <v>44818.5594212963</v>
+    <row r="45" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A45" s="10">
+        <v>44818.559421296297</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>393</v>
@@ -4103,9 +4314,9 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="n">
-        <v>44818.8162731482</v>
+    <row r="46" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A46" s="10">
+        <v>44818.816273148201</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>400</v>
@@ -4144,9 +4355,9 @@
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="n">
-        <v>44818.8311111111</v>
+    <row r="47" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A47" s="10">
+        <v>44818.831111111103</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>406</v>
@@ -4185,8 +4396,8 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="n">
+    <row r="48" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A48" s="10">
         <v>44819.458912037</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -4226,9 +4437,9 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="n">
-        <v>44819.7943981482</v>
+    <row r="49" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A49" s="10">
+        <v>44819.794398148202</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>418</v>
@@ -4267,9 +4478,9 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="n">
-        <v>44819.812349537</v>
+    <row r="50" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A50" s="10">
+        <v>44819.812349537002</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>423</v>
@@ -4308,9 +4519,9 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="n">
-        <v>44819.8515856481</v>
+    <row r="51" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A51" s="10">
+        <v>44819.851585648103</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>431</v>
@@ -4349,7 +4560,7 @@
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:17" ht="18.75" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -4368,7 +4579,7 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:17" ht="18.75" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -4387,7 +4598,7 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:17" ht="18.75" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -4406,7 +4617,7 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:17" ht="18.75" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -4425,7 +4636,7 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:17" ht="18.75" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -4444,7 +4655,7 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:17" ht="18.75" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -4463,7 +4674,7 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:17" ht="18.75" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -4482,7 +4693,7 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:17" ht="18.75" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4501,7 +4712,7 @@
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:17" ht="18.75" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4520,7 +4731,7 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:17" ht="18.75" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -4539,7 +4750,7 @@
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:17" ht="18.75" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -4558,7 +4769,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:17" ht="18.75" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -4577,7 +4788,7 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:17" ht="18.75" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -4596,7 +4807,7 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:17" ht="18.75" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -4615,7 +4826,7 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:17" ht="18.75" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -4634,7 +4845,7 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:17" ht="18.75" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -4653,7 +4864,7 @@
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:17" ht="18.75" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -4672,7 +4883,7 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:17" ht="18.75" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -4691,7 +4902,7 @@
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:17" ht="18.75" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -4710,7 +4921,7 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:17" ht="18.75" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -4729,7 +4940,7 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:17" ht="18.75" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -4748,7 +4959,7 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:17" ht="18.75" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -4767,7 +4978,7 @@
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:17" ht="18.75" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -4786,7 +4997,7 @@
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:17" ht="18.75" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -4805,7 +5016,7 @@
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:17" ht="18.75" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -4824,7 +5035,7 @@
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:17" ht="18.75" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -4843,7 +5054,7 @@
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:17" ht="18.75" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -4862,7 +5073,7 @@
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:17" ht="18.75" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -4881,7 +5092,7 @@
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:17" ht="18.75" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -4900,7 +5111,7 @@
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:17" ht="18.75" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -4919,7 +5130,7 @@
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:17" ht="18.75" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -4938,7 +5149,7 @@
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:17" ht="18.75" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -4957,7 +5168,7 @@
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:17" ht="18.75" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -4976,7 +5187,7 @@
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:17" ht="18.75" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4995,7 +5206,7 @@
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:17" ht="18.75" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -5014,7 +5225,7 @@
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:17" ht="18.75" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -5033,7 +5244,7 @@
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:17" ht="18.75" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -5052,7 +5263,7 @@
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
     </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:17" ht="18.75" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -5071,7 +5282,7 @@
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:17" ht="18.75" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -5090,7 +5301,7 @@
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
     </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:17" ht="18.75" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -5109,7 +5320,7 @@
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:17" ht="18.75" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -5128,7 +5339,7 @@
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:17" ht="18.75" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -5147,7 +5358,7 @@
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:17" ht="18.75" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -5166,7 +5377,7 @@
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:17" ht="18.75" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -5185,7 +5396,7 @@
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:17" ht="18.75" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -5204,7 +5415,7 @@
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:17" ht="18.75" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -5223,7 +5434,7 @@
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:17" ht="18.75" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -5242,7 +5453,7 @@
       <c r="P98" s="9"/>
       <c r="Q98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:17" ht="18.75" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -5261,7 +5472,7 @@
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:17" ht="18.75" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -5280,7 +5491,7 @@
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:17" ht="18.75" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -5299,7 +5510,7 @@
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:17" ht="18.75" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -5318,7 +5529,7 @@
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:17" ht="18.75" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -5337,7 +5548,7 @@
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:17" ht="18.75" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -5356,7 +5567,7 @@
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:17" ht="18.75" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -5375,7 +5586,7 @@
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:17" ht="18.75" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -5394,7 +5605,7 @@
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:17" ht="18.75" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -5413,7 +5624,7 @@
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:17" ht="18.75" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -5432,7 +5643,7 @@
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:17" ht="18.75" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -5451,7 +5662,7 @@
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:17" ht="18.75" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -5470,7 +5681,7 @@
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:17" ht="18.75" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -5489,7 +5700,7 @@
       <c r="P111" s="9"/>
       <c r="Q111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:17" ht="18.75" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -5508,7 +5719,7 @@
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:17" ht="18.75" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -5527,7 +5738,7 @@
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:17" ht="18.75" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -5546,7 +5757,7 @@
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:17" ht="18.75" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -5565,7 +5776,7 @@
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:17" ht="18.75" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -5584,7 +5795,7 @@
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:17" ht="18.75" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -5603,7 +5814,7 @@
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:17" ht="18.75" customHeight="1">
       <c r="A118" s="12"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -5622,7 +5833,7 @@
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:17" ht="18.75" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -5641,7 +5852,7 @@
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:17" ht="18.75" customHeight="1">
       <c r="A120" s="12"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -5660,7 +5871,7 @@
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:17" ht="18.75" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -5679,7 +5890,7 @@
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:17" ht="18.75" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -5698,7 +5909,7 @@
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:17" ht="18.75" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -5717,7 +5928,7 @@
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:17" ht="18.75" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -5736,7 +5947,7 @@
       <c r="P124" s="9"/>
       <c r="Q124" s="9"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:17" ht="18.75" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -5755,7 +5966,7 @@
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:17" ht="18.75" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -5774,7 +5985,7 @@
       <c r="P126" s="9"/>
       <c r="Q126" s="9"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:17" ht="18.75" customHeight="1">
       <c r="A127" s="12"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -5793,7 +6004,7 @@
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:17" ht="18.75" customHeight="1">
       <c r="A128" s="12"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -5812,7 +6023,7 @@
       <c r="P128" s="9"/>
       <c r="Q128" s="9"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:17" ht="18.75" customHeight="1">
       <c r="A129" s="12"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -5831,7 +6042,7 @@
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:17" ht="18.75" customHeight="1">
       <c r="A130" s="12"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -5850,7 +6061,7 @@
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:17" ht="18.75" customHeight="1">
       <c r="A131" s="12"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -5869,7 +6080,7 @@
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
     </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:17" ht="18.75" customHeight="1">
       <c r="A132" s="12"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5888,7 +6099,7 @@
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:17" ht="18.75" customHeight="1">
       <c r="A133" s="12"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -5907,7 +6118,7 @@
       <c r="P133" s="9"/>
       <c r="Q133" s="9"/>
     </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:17" ht="18.75" customHeight="1">
       <c r="A134" s="12"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5926,7 +6137,7 @@
       <c r="P134" s="9"/>
       <c r="Q134" s="9"/>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:17" ht="18.75" customHeight="1">
       <c r="A135" s="12"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -5945,7 +6156,7 @@
       <c r="P135" s="9"/>
       <c r="Q135" s="9"/>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:17" ht="18.75" customHeight="1">
       <c r="A136" s="12"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5964,7 +6175,7 @@
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:17" ht="18.75" customHeight="1">
       <c r="A137" s="12"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -5983,7 +6194,7 @@
       <c r="P137" s="9"/>
       <c r="Q137" s="9"/>
     </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:17" ht="18.75" customHeight="1">
       <c r="A138" s="12"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -6002,7 +6213,7 @@
       <c r="P138" s="9"/>
       <c r="Q138" s="9"/>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:17" ht="18.75" customHeight="1">
       <c r="A139" s="12"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -6021,7 +6232,7 @@
       <c r="P139" s="9"/>
       <c r="Q139" s="9"/>
     </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:17" ht="18.75" customHeight="1">
       <c r="A140" s="12"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -6040,7 +6251,7 @@
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
     </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:17" ht="18.75" customHeight="1">
       <c r="A141" s="12"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -6059,7 +6270,7 @@
       <c r="P141" s="9"/>
       <c r="Q141" s="9"/>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:17" ht="18.75" customHeight="1">
       <c r="A142" s="12"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -6078,7 +6289,7 @@
       <c r="P142" s="9"/>
       <c r="Q142" s="9"/>
     </row>
-    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:17" ht="18.75" customHeight="1">
       <c r="A143" s="12"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -6097,7 +6308,7 @@
       <c r="P143" s="9"/>
       <c r="Q143" s="9"/>
     </row>
-    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:17" ht="18.75" customHeight="1">
       <c r="A144" s="12"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -6116,7 +6327,7 @@
       <c r="P144" s="9"/>
       <c r="Q144" s="9"/>
     </row>
-    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:17" ht="18.75" customHeight="1">
       <c r="A145" s="12"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -6135,7 +6346,7 @@
       <c r="P145" s="9"/>
       <c r="Q145" s="9"/>
     </row>
-    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:17" ht="18.75" customHeight="1">
       <c r="A146" s="12"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -6154,7 +6365,7 @@
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
     </row>
-    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:17" ht="18.75" customHeight="1">
       <c r="A147" s="12"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -6173,7 +6384,7 @@
       <c r="P147" s="9"/>
       <c r="Q147" s="9"/>
     </row>
-    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:17" ht="18.75" customHeight="1">
       <c r="A148" s="12"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -6192,7 +6403,7 @@
       <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
     </row>
-    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:17" ht="18.75" customHeight="1">
       <c r="A149" s="12"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -6211,7 +6422,7 @@
       <c r="P149" s="9"/>
       <c r="Q149" s="9"/>
     </row>
-    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:17" ht="18.75" customHeight="1">
       <c r="A150" s="12"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -6230,7 +6441,7 @@
       <c r="P150" s="9"/>
       <c r="Q150" s="9"/>
     </row>
-    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:17" ht="18.75" customHeight="1">
       <c r="A151" s="12"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -6250,12 +6461,7 @@
       <c r="Q151" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\repo2022\UDABOL_202202\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8C9C9B-0265-4BAC-A611-27C86D322BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,1350 +26,1333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="437">
-  <si>
-    <t xml:space="preserve">Leonardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guevara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quispe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orlando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escobar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antezana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giovana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balboa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zapata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vargas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancieta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guzman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achocalla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riveros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amilkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuevas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osvaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arroyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goncalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aqui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colocar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edenilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arturo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beymar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troncoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamachi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aguilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuquendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguirre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soliz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vilalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zurita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jherson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jhoel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quisbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cristian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ariel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quispe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mikaela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aramayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torrico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huayhuati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jefferson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canaviri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paniagua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERALTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI:8257209</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="437">
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Guevara</t>
+  </si>
+  <si>
+    <t>Quispe</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Escobar</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>Soria</t>
+  </si>
+  <si>
+    <t>Antezana</t>
+  </si>
+  <si>
+    <t>Giovana</t>
+  </si>
+  <si>
+    <t>Rosy</t>
+  </si>
+  <si>
+    <t>Balboa</t>
+  </si>
+  <si>
+    <t>Mayta</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>Zapata</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Ancieta</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>Achocalla</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Riveros</t>
+  </si>
+  <si>
+    <t>Amilkar</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Quezo</t>
+  </si>
+  <si>
+    <t>Ticona</t>
+  </si>
+  <si>
+    <t>Flor</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Dorado</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>Fanor</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Cuevas</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Osvaldo</t>
+  </si>
+  <si>
+    <t>Arroyo</t>
+  </si>
+  <si>
+    <t>Goncalves</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>aqui</t>
+  </si>
+  <si>
+    <t>colocar</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Edenilson</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Amaya</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Copa</t>
+  </si>
+  <si>
+    <t>Beymar</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Aliaga</t>
+  </si>
+  <si>
+    <t>Choque</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Loza</t>
+  </si>
+  <si>
+    <t>Troncoso</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Patrik</t>
+  </si>
+  <si>
+    <t>Plata</t>
+  </si>
+  <si>
+    <t>Romario</t>
+  </si>
+  <si>
+    <t>Jamachi</t>
+  </si>
+  <si>
+    <t>Varela</t>
+  </si>
+  <si>
+    <t>walter</t>
+  </si>
+  <si>
+    <t>jurgen</t>
+  </si>
+  <si>
+    <t>aguilar</t>
+  </si>
+  <si>
+    <t>flores</t>
+  </si>
+  <si>
+    <t>Cornejo</t>
+  </si>
+  <si>
+    <t>Cuquendo</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Aguirre</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Soliz</t>
+  </si>
+  <si>
+    <t>Vilalo</t>
+  </si>
+  <si>
+    <t>Zurita</t>
+  </si>
+  <si>
+    <t>Jherson</t>
+  </si>
+  <si>
+    <t>Jhoel</t>
+  </si>
+  <si>
+    <t>Huanca</t>
+  </si>
+  <si>
+    <t>Quisbert</t>
+  </si>
+  <si>
+    <t>cristian</t>
+  </si>
+  <si>
+    <t>ariel</t>
+  </si>
+  <si>
+    <t>huanca</t>
+  </si>
+  <si>
+    <t>quispe</t>
+  </si>
+  <si>
+    <t>mikaela</t>
+  </si>
+  <si>
+    <t>aramayo</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Torrico</t>
+  </si>
+  <si>
+    <t>Huayhuati</t>
+  </si>
+  <si>
+    <t>jefferson</t>
+  </si>
+  <si>
+    <t>canaviri</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>Paniagua</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>GOMES</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>CI:8257209</t>
   </si>
   <si>
     <t xml:space="preserve">Natalio </t>
   </si>
   <si>
-    <t xml:space="preserve">Yana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marca temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección de correo electrónico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paterno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correo de git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usurio de Git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario de TRELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KATTIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo con el que se registro en GoogleClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo Udabol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msoria-es1@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Eddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxeddy7@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seosargo@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Osvaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soarroyo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SergioArroyoG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SergioArroyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joerudeviluke@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoeruS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel Torrico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jtorrico15-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCHABAMBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">falrcon-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alarcon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabricio Javier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">falarcon-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABOSoft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabricio J. Alarcon Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabricio Javier Alarcon Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fabrixio.fabo@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oruro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bryan.antezana.riveros@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryan Alberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wistuvida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ba_riveros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wistuvida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baantezana-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andresguti267@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Arturo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AndresGutierrez2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Gutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aagutierrez3-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mateofree19@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancieta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elias samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eliasancietarocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elias Samuel Ancieta rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esancieta-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andresguzguzman@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Gustavo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andresguz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Guzman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andru guzman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agguzman-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cochabamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jackye13montanno@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montaño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huayhua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacqueline Milenka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmmontano-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JacquelineMontano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JACQUELINE MILENKA MONTAÑO HUAYHUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noeliaadenis12@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aramayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illanes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikaela Noelia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikaeeellaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mnaramayo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA PAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbalboa-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALBOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAYTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIOVANA ROSY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIOV28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giov-rbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giovana-rosy-balboa-mayta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giov.rbm@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weafullxd@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Edenilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weramos2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weramosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@weramos2es1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario: walter ramos Correo: weafullxd@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malganiz.mj@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mjorge-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJOrgeCuevas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcelojorgecuevas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">326.osito@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Franco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSITO326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osito_326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osito326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kfzapata-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcoca4-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcocafranco08@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danielcocafranco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL COCA FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sistemasgrwr@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grower7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grower Laura Choque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glaura2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beymar512a@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beymar Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miltraxos@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beymar1912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beymar Aliaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baaliaga-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronn01235@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronny091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronnyloza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronny Loza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rloza2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffersitoluna11@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcanaviri5-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jefferson11980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jefferson canaviri luna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neferaguilarflores@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Jurgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W_jurgen_aguilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wjaguilar-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronald.saucedotito@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saucedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsaucedo97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronald Saucedo Tito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsacudo-es1@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lozatroncosomiguel@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Miguel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MickLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miguellozatroncoso1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmloza-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19agosto88@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gutiérrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Abigail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fagutierrez-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19Flor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLOR GUTIÉRREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Gutiérrez Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tclavijograndon@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clavijo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tclavijo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Clavijo Grandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tclavijo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauguti123m@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio Patrik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MauricioPlata123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauriciopatrikplatagutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauricio-patrik-plata-gutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mpplata-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jhersonjhuancaq@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jherson Jhoel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jjhuanca1-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jherson-Huanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JHERSON JHOEL HUANCA QUISBERT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliagacallejuancarlos@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Carlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JuanCarlosAliaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN CARLOS ALIAGA CALLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juan carlos aliaga calle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcaliaga1-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samuelpaniagua99@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spaniagua2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samAla99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samuelpaniaguaala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samuel-paniagua-ala spaniagua2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quirozfloreskatherine2802@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quiroz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katherine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kquiroz3-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">katherineQuirozFlores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katherine Quiroz Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ketercero-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tercero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenneth Egon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennetheto1995@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketote95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keto030695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketercero-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmamani2-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mamani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yujra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcialmamani777@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcial777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcial mamani yujra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jennyfer.karem@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salazar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karem Jennyfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jennyfer-Karem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karem Jennyfer Achá Salazar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jennyfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kjacha-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abeizaga264@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beizaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alessandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlessoXD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alessandro beizaga bolivar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alessandro-beizaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abeizaga1-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nyana-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NatalioYana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalio Yana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalio Yana Ticona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samuelvilalozurita@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamuelVilaloZurita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Vilalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svilalo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daccsagc@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Alejandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dacornejo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diegodacc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diegoalejandrocornejocuquendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cocojorgeromario@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Romario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrjamachi-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JorgeCoky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE ROMARIO JAMACHI VARELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macomx7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canqui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacOmx7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macomx7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macomx7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macanqui-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ldclaure-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chavez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo Danilo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leonardoclaure141@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leonardodaniloclaure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@leonardodaniloclaurechavez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leonardo Claure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huarachideymargabriel@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUARACHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mujica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deymar Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deymar13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deymar Gabriel Huarachi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dghuarachi-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huancacristian17@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristian Ariel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cahuanca-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristianariel98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISTIAN ARIEL HUANCA QUISPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Ariel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waguilerabruno@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aguilera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bruno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willan alonzo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willan86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waaguilera-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gomesperaltajosemaria@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peralta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Maria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jhosef2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE MARIA GOMES PERALTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jgomes-es2@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jgonzalespatino@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonzales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patiño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jose ricardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrgonzales-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonzalespat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jose gonzales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danielquezo296@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amilkar Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmilkarDaniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amilkarquezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amilkar-daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adquezo-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jcmchavarria123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chavarria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus Moises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JesusChavarria123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus Chavarria Martinez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmchavarria1-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paulomauricioaguilarsoliz@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo Mauricio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PauloAguilarSoliz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo Aguilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pmaguilar-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marduksin@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiegoAlejandroDorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Alejandro Dorado Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego A Dorado R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dadorado-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronfis30@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUIRRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RONALD PIORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronchi18@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RONFISAGUIRRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RONALD PIORT AGUIRRE MEDINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpaguirre-es@udabol.edu.bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renaciendodeunavez@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suxo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Emilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manuemyl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">megonzales1-es@udabol.edu.bo</t>
+    <t>Yana</t>
+  </si>
+  <si>
+    <t>Marca temporal</t>
+  </si>
+  <si>
+    <t>Dirección de correo electrónico</t>
+  </si>
+  <si>
+    <t>Paterno</t>
+  </si>
+  <si>
+    <t>Materno</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>correo de git</t>
+  </si>
+  <si>
+    <t>Usurio de Git</t>
+  </si>
+  <si>
+    <t>Usuario de TRELLO</t>
+  </si>
+  <si>
+    <t>KATTIS</t>
+  </si>
+  <si>
+    <t>Correo con el que se registro en GoogleClass</t>
+  </si>
+  <si>
+    <t>Correo Udabol</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>msoria-es1@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Max Eddy</t>
+  </si>
+  <si>
+    <t>maxeddy7@hotmail.com</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>seosargo@gmail.com</t>
+  </si>
+  <si>
+    <t>Sergio Osvaldo</t>
+  </si>
+  <si>
+    <t>soarroyo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>SergioArroyoG</t>
+  </si>
+  <si>
+    <t>SergioArroyo</t>
+  </si>
+  <si>
+    <t>joerudeviluke@gmail.com</t>
+  </si>
+  <si>
+    <t>JoeruS</t>
+  </si>
+  <si>
+    <t>Joel Torrico</t>
+  </si>
+  <si>
+    <t>jtorrico15-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>COCHABAMBA</t>
+  </si>
+  <si>
+    <t>falrcon-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Alarcon</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Fabricio Javier</t>
+  </si>
+  <si>
+    <t>falarcon-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>FABOSoft</t>
+  </si>
+  <si>
+    <t>Fabricio J. Alarcon Lopez</t>
+  </si>
+  <si>
+    <t>Fabricio Javier Alarcon Lopez</t>
+  </si>
+  <si>
+    <t>fabrixio.fabo@gmail.com</t>
+  </si>
+  <si>
+    <t>Oruro</t>
+  </si>
+  <si>
+    <t>bryan.antezana.riveros@gmail.com</t>
+  </si>
+  <si>
+    <t>Bryan Alberto</t>
+  </si>
+  <si>
+    <t>Wistuvida</t>
+  </si>
+  <si>
+    <t>ba_riveros</t>
+  </si>
+  <si>
+    <t>wistuvida</t>
+  </si>
+  <si>
+    <t>baantezana-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>andresguti267@gmail.com</t>
+  </si>
+  <si>
+    <t>Andres Arturo</t>
+  </si>
+  <si>
+    <t>AndresGutierrez2022</t>
+  </si>
+  <si>
+    <t>Andres Gutierrez</t>
+  </si>
+  <si>
+    <t>aagutierrez3-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>mateofree19@gmail.com</t>
+  </si>
+  <si>
+    <t>ancieta</t>
+  </si>
+  <si>
+    <t>rocha</t>
+  </si>
+  <si>
+    <t>elias samuel</t>
+  </si>
+  <si>
+    <t>eliasancietarocha</t>
+  </si>
+  <si>
+    <t>elias Samuel Ancieta rocha</t>
+  </si>
+  <si>
+    <t>esancieta-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>andresguzguzman@gmail.com</t>
+  </si>
+  <si>
+    <t>Andres Gustavo</t>
+  </si>
+  <si>
+    <t>Andresguz</t>
+  </si>
+  <si>
+    <t>Andres Guzman</t>
+  </si>
+  <si>
+    <t>andru guzman</t>
+  </si>
+  <si>
+    <t>agguzman-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Cochabamba</t>
+  </si>
+  <si>
+    <t>jackye13montanno@gmail.com</t>
+  </si>
+  <si>
+    <t>Montaño</t>
+  </si>
+  <si>
+    <t>Huayhua</t>
+  </si>
+  <si>
+    <t>Jacqueline Milenka</t>
+  </si>
+  <si>
+    <t>jmmontano-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>JacquelineMontano</t>
+  </si>
+  <si>
+    <t>JACQUELINE MILENKA MONTAÑO HUAYHUA</t>
+  </si>
+  <si>
+    <t>noeliaadenis12@gmail.com</t>
+  </si>
+  <si>
+    <t>Aramayo</t>
+  </si>
+  <si>
+    <t>Illanes</t>
+  </si>
+  <si>
+    <t>Mikaela Noelia</t>
+  </si>
+  <si>
+    <t>Mikaeeellaa</t>
+  </si>
+  <si>
+    <t>mnaramayo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>LA PAZ</t>
+  </si>
+  <si>
+    <t>gbalboa-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>BALBOA</t>
+  </si>
+  <si>
+    <t>MAYTA</t>
+  </si>
+  <si>
+    <t>GIOVANA ROSY</t>
+  </si>
+  <si>
+    <t>GIOV28</t>
+  </si>
+  <si>
+    <t>giov-rbm</t>
+  </si>
+  <si>
+    <t>giovana-rosy-balboa-mayta</t>
+  </si>
+  <si>
+    <t>giov.rbm@gmail.com</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>weafullxd@gmail.com</t>
+  </si>
+  <si>
+    <t>Walter Edenilson</t>
+  </si>
+  <si>
+    <t>weramos2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>weramosa</t>
+  </si>
+  <si>
+    <t>@weramos2es1</t>
+  </si>
+  <si>
+    <t>Usuario: walter ramos Correo: weafullxd@gmail.com</t>
+  </si>
+  <si>
+    <t>malganiz.mj@gmail.com</t>
+  </si>
+  <si>
+    <t>mjorge-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>MJOrgeCuevas</t>
+  </si>
+  <si>
+    <t>marcelojorgecuevas</t>
+  </si>
+  <si>
+    <t>326.osito@gmail.com</t>
+  </si>
+  <si>
+    <t>Kevin Franco</t>
+  </si>
+  <si>
+    <t>OSITO326</t>
+  </si>
+  <si>
+    <t>osito_326</t>
+  </si>
+  <si>
+    <t>osito326</t>
+  </si>
+  <si>
+    <t>kfzapata-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>dcoca4-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>COCA</t>
+  </si>
+  <si>
+    <t>FRANCO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>dcocafranco08@gmail.com</t>
+  </si>
+  <si>
+    <t>danielcocafranco</t>
+  </si>
+  <si>
+    <t>DANIEL COCA FRANCO</t>
+  </si>
+  <si>
+    <t>sistemasgrwr@gmail.com</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Grower</t>
+  </si>
+  <si>
+    <t>Grower7</t>
+  </si>
+  <si>
+    <t>Grower Laura Choque</t>
+  </si>
+  <si>
+    <t>glaura2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>beymar512a@gmail.com</t>
+  </si>
+  <si>
+    <t>Beymar Antonio</t>
+  </si>
+  <si>
+    <t>miltraxos@gmail.com</t>
+  </si>
+  <si>
+    <t>Beymar1912</t>
+  </si>
+  <si>
+    <t>Beymar Aliaga</t>
+  </si>
+  <si>
+    <t>baaliaga-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>ronn01235@gmail.com</t>
+  </si>
+  <si>
+    <t>Ronny</t>
+  </si>
+  <si>
+    <t>Ronny091</t>
+  </si>
+  <si>
+    <t>ronnyloza</t>
+  </si>
+  <si>
+    <t>Ronny Loza</t>
+  </si>
+  <si>
+    <t>rloza2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>jeffersitoluna11@gmail.com</t>
+  </si>
+  <si>
+    <t>jcanaviri5-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>jefferson11980</t>
+  </si>
+  <si>
+    <t>jefferson canaviri luna</t>
+  </si>
+  <si>
+    <t>neferaguilarflores@gmail.com</t>
+  </si>
+  <si>
+    <t>Walter Jurgen</t>
+  </si>
+  <si>
+    <t>W_jurgen_aguilar</t>
+  </si>
+  <si>
+    <t>wjaguilar-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>ronald.saucedotito@gmail.com</t>
+  </si>
+  <si>
+    <t>Saucedo</t>
+  </si>
+  <si>
+    <t>Tito</t>
+  </si>
+  <si>
+    <t>rsaucedo97</t>
+  </si>
+  <si>
+    <t>Ronald Saucedo Tito</t>
+  </si>
+  <si>
+    <t>rsacudo-es1@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>lozatroncosomiguel@gmail.com</t>
+  </si>
+  <si>
+    <t>Jose Miguel</t>
+  </si>
+  <si>
+    <t>MickLT</t>
+  </si>
+  <si>
+    <t>miguellozatroncoso1</t>
+  </si>
+  <si>
+    <t>jmloza-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>19agosto88@gmail.com</t>
+  </si>
+  <si>
+    <t>Gutiérrez</t>
+  </si>
+  <si>
+    <t>Flor Abigail</t>
+  </si>
+  <si>
+    <t>fagutierrez-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>19Flor</t>
+  </si>
+  <si>
+    <t>FLOR GUTIÉRREZ</t>
+  </si>
+  <si>
+    <t>Flor Gutiérrez Cruz</t>
+  </si>
+  <si>
+    <t>tclavijograndon@gmail.com</t>
+  </si>
+  <si>
+    <t>Clavijo</t>
+  </si>
+  <si>
+    <t>Grandon</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Tclavijo</t>
+  </si>
+  <si>
+    <t>Thomas Clavijo Grandon</t>
+  </si>
+  <si>
+    <t>tclavijo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>mauguti123m@gmail.com</t>
+  </si>
+  <si>
+    <t>Mauricio Patrik</t>
+  </si>
+  <si>
+    <t>MauricioPlata123</t>
+  </si>
+  <si>
+    <t>mauriciopatrikplatagutierrez</t>
+  </si>
+  <si>
+    <t>mauricio-patrik-plata-gutierrez</t>
+  </si>
+  <si>
+    <t>mpplata-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>jhersonjhuancaq@gmail.com</t>
+  </si>
+  <si>
+    <t>Jherson Jhoel</t>
+  </si>
+  <si>
+    <t>jjhuanca1-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Jherson-Huanca</t>
+  </si>
+  <si>
+    <t>JHERSON JHOEL HUANCA QUISBERT</t>
+  </si>
+  <si>
+    <t>aliagacallejuancarlos@gmail.com</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>JuanCarlosAliaga</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS ALIAGA CALLE</t>
+  </si>
+  <si>
+    <t>juan carlos aliaga calle</t>
+  </si>
+  <si>
+    <t>jcaliaga1-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>samuelpaniagua99@gmail.com</t>
+  </si>
+  <si>
+    <t>spaniagua2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>samAla99</t>
+  </si>
+  <si>
+    <t>samuelpaniaguaala</t>
+  </si>
+  <si>
+    <t>samuel-paniagua-ala spaniagua2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>quirozfloreskatherine2802@gmail.com</t>
+  </si>
+  <si>
+    <t>Quiroz</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>kquiroz3-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>katherineQuirozFlores</t>
+  </si>
+  <si>
+    <t>Katherine Quiroz Flores</t>
+  </si>
+  <si>
+    <t>ketercero-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Tercero</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Kenneth Egon</t>
+  </si>
+  <si>
+    <t>Kennetheto1995@gmail.com</t>
+  </si>
+  <si>
+    <t>Ketote95</t>
+  </si>
+  <si>
+    <t>keto030695</t>
+  </si>
+  <si>
+    <t>Ketercero-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>mmamani2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>mamani</t>
+  </si>
+  <si>
+    <t>yujra</t>
+  </si>
+  <si>
+    <t>marcial</t>
+  </si>
+  <si>
+    <t>marcialmamani777@gmail.com</t>
+  </si>
+  <si>
+    <t>marcial777</t>
+  </si>
+  <si>
+    <t>marcial mamani yujra</t>
+  </si>
+  <si>
+    <t>jennyfer.karem@gmail.com</t>
+  </si>
+  <si>
+    <t>Achá</t>
+  </si>
+  <si>
+    <t>Salazar</t>
+  </si>
+  <si>
+    <t>Karem Jennyfer</t>
+  </si>
+  <si>
+    <t>Jennyfer-Karem</t>
+  </si>
+  <si>
+    <t>Karem Jennyfer Achá Salazar</t>
+  </si>
+  <si>
+    <t>Jennyfer</t>
+  </si>
+  <si>
+    <t>kjacha-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>abeizaga264@gmail.com</t>
+  </si>
+  <si>
+    <t>Beizaga</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Alessandro</t>
+  </si>
+  <si>
+    <t>AlessoXD</t>
+  </si>
+  <si>
+    <t>alessandro beizaga bolivar</t>
+  </si>
+  <si>
+    <t>alessandro-beizaga</t>
+  </si>
+  <si>
+    <t>abeizaga1-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>nyana-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Natalio</t>
+  </si>
+  <si>
+    <t>NatalioYana</t>
+  </si>
+  <si>
+    <t>Natalio Yana</t>
+  </si>
+  <si>
+    <t>Natalio Yana Ticona</t>
+  </si>
+  <si>
+    <t>samuelvilalozurita@gmail.com</t>
+  </si>
+  <si>
+    <t>SamuelVilaloZurita</t>
+  </si>
+  <si>
+    <t>Samuel Vilalo</t>
+  </si>
+  <si>
+    <t>svilalo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>daccsagc@gmail.com</t>
+  </si>
+  <si>
+    <t>Diego Alejandro</t>
+  </si>
+  <si>
+    <t>dacornejo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>diegodacc</t>
+  </si>
+  <si>
+    <t>diegoalejandrocornejocuquendo</t>
+  </si>
+  <si>
+    <t>cocojorgeromario@gmail.com</t>
+  </si>
+  <si>
+    <t>Jorge Romario</t>
+  </si>
+  <si>
+    <t>jrjamachi-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>JorgeCoky</t>
+  </si>
+  <si>
+    <t>JORGE ROMARIO JAMACHI VARELA</t>
+  </si>
+  <si>
+    <t>macomx7@gmail.com</t>
+  </si>
+  <si>
+    <t>Canqui</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t>MacOmx7</t>
+  </si>
+  <si>
+    <t>macomx7</t>
+  </si>
+  <si>
+    <t>Macomx7</t>
+  </si>
+  <si>
+    <t>macanqui-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>ldclaure-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Claure</t>
+  </si>
+  <si>
+    <t>Chavez</t>
+  </si>
+  <si>
+    <t>Leonardo Danilo</t>
+  </si>
+  <si>
+    <t>leonardoclaure141@gmail.com</t>
+  </si>
+  <si>
+    <t>leonardodaniloclaure</t>
+  </si>
+  <si>
+    <t>@leonardodaniloclaurechavez</t>
+  </si>
+  <si>
+    <t>leonardo Claure</t>
+  </si>
+  <si>
+    <t>huarachideymargabriel@gmail.com</t>
+  </si>
+  <si>
+    <t>HUARACHI</t>
+  </si>
+  <si>
+    <t>Mujica</t>
+  </si>
+  <si>
+    <t>Deymar Gabriel</t>
+  </si>
+  <si>
+    <t>Deymar13</t>
+  </si>
+  <si>
+    <t>Deymar Gabriel Huarachi</t>
+  </si>
+  <si>
+    <t>dghuarachi-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>huancacristian17@gmail.com</t>
+  </si>
+  <si>
+    <t>Cristian Ariel</t>
+  </si>
+  <si>
+    <t>cahuanca-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>Cristianariel98</t>
+  </si>
+  <si>
+    <t>CRISTIAN ARIEL HUANCA QUISPE</t>
+  </si>
+  <si>
+    <t>Christian Ariel</t>
+  </si>
+  <si>
+    <t>waguilerabruno@gmail.com</t>
+  </si>
+  <si>
+    <t>aguilera</t>
+  </si>
+  <si>
+    <t>bruno</t>
+  </si>
+  <si>
+    <t>willan alonzo</t>
+  </si>
+  <si>
+    <t>willan86</t>
+  </si>
+  <si>
+    <t>waaguilera-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>gomesperaltajosemaria@gmail.com</t>
+  </si>
+  <si>
+    <t>Gomes</t>
+  </si>
+  <si>
+    <t>Peralta</t>
+  </si>
+  <si>
+    <t>José Maria</t>
+  </si>
+  <si>
+    <t>jhosef2022</t>
+  </si>
+  <si>
+    <t>JOSE MARIA GOMES PERALTA</t>
+  </si>
+  <si>
+    <t>gomes</t>
+  </si>
+  <si>
+    <t>jgomes-es2@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>jgonzalespatino@gmail.com</t>
+  </si>
+  <si>
+    <t>gonzales</t>
+  </si>
+  <si>
+    <t>patiño</t>
+  </si>
+  <si>
+    <t>jose ricardo</t>
+  </si>
+  <si>
+    <t>jrgonzales-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>gonzalespat</t>
+  </si>
+  <si>
+    <t>jose gonzales</t>
+  </si>
+  <si>
+    <t>danielquezo296@gmail.com</t>
+  </si>
+  <si>
+    <t>Amilkar Daniel</t>
+  </si>
+  <si>
+    <t>AmilkarDaniel</t>
+  </si>
+  <si>
+    <t>amilkarquezo</t>
+  </si>
+  <si>
+    <t>amilkar-daniel</t>
+  </si>
+  <si>
+    <t>adquezo-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>jcmchavarria123@gmail.com</t>
+  </si>
+  <si>
+    <t>Chavarria</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Jesus Moises</t>
+  </si>
+  <si>
+    <t>JesusChavarria123</t>
+  </si>
+  <si>
+    <t>Jesus Chavarria Martinez</t>
+  </si>
+  <si>
+    <t>jmchavarria1-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>paulomauricioaguilarsoliz@gmail.com</t>
+  </si>
+  <si>
+    <t>Paulo Mauricio</t>
+  </si>
+  <si>
+    <t>PauloAguilarSoliz</t>
+  </si>
+  <si>
+    <t>Paulo Aguilar</t>
+  </si>
+  <si>
+    <t>pmaguilar-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>marduksin@gmail.com</t>
+  </si>
+  <si>
+    <t>DiegoAlejandroDorado</t>
+  </si>
+  <si>
+    <t>Diego Alejandro Dorado Rojas</t>
+  </si>
+  <si>
+    <t>Diego A Dorado R</t>
+  </si>
+  <si>
+    <t>dadorado-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>ronfis30@gmail.com</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>RONALD PIORT</t>
+  </si>
+  <si>
+    <t>ronchi18@hotmail.com</t>
+  </si>
+  <si>
+    <t>RONFISAGUIRRE</t>
+  </si>
+  <si>
+    <t>RONALD PIORT AGUIRRE MEDINA</t>
+  </si>
+  <si>
+    <t>rpaguirre-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>renaciendodeunavez@gmail.com</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>Suxo</t>
+  </si>
+  <si>
+    <t>Manuel Emilio</t>
+  </si>
+  <si>
+    <t>manuemyl</t>
+  </si>
+  <si>
+    <t>megonzales1-es@udabol.edu.bo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="dd\/mm\/yyyy\ hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1381,7 +1369,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1405,830 +1393,1086 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.57"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="3">
         <v>9845916</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>4308676</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>5273148</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>10680663</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>5246381</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>12873339</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>7351544</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>7296889</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>9083846</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>8437859</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>11304597</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A12" s="3">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>8911045</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A13" s="3">
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>6717766</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>2631732</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>33970</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A17" s="3">
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>9899773</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A18" s="3">
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="3">
         <v>7041610</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A19" s="3">
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="3">
         <v>12669252</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A20" s="3">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>10931935</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A21" s="3">
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>6920030</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A22" s="3">
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="3">
         <v>6434495</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A23" s="3">
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>9155549</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A24" s="3">
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>6823974</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A25" s="3">
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="3">
         <v>2622061</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A26" s="3">
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="3">
         <v>7838112</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A27" s="3">
         <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>12864046</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A28" s="3">
         <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="3">
         <v>9110161</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A29" s="3">
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="3">
         <v>9911855</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A30" s="3">
         <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="3">
         <v>9459513</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A31" s="3">
         <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="3">
         <v>10954950</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A32" s="3">
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="3">
         <v>8028972</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A33" s="3">
         <v>33</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>110</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:6" ht="15.6">
+      <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>110</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:6" ht="15.6">
+      <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>4319751</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="43.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="27.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="13" style="0" width="13.57"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="43.21875" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="11" max="12" width="27.21875" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>114</v>
       </c>
@@ -2271,9 +2515,9 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
-        <v>44816.8994212963</v>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" s="10">
+        <v>44816.899421296301</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>126</v>
@@ -2314,9 +2558,9 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
-        <v>44816.8996180556</v>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A3" s="10">
+        <v>44816.899618055599</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>130</v>
@@ -2357,9 +2601,9 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
-        <v>44816.9005324074</v>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A4" s="10">
+        <v>44816.900532407402</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>135</v>
@@ -2400,9 +2644,9 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
-        <v>44816.9007986111</v>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A5" s="10">
+        <v>44816.900798611103</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>140</v>
@@ -2443,9 +2687,9 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>44816.9007986111</v>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A6" s="10">
+        <v>44816.900798611103</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>150</v>
@@ -2484,8 +2728,8 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A7" s="10">
         <v>44816.9008217593</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2527,9 +2771,9 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
-        <v>44816.9009027778</v>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A8" s="10">
+        <v>44816.900902777801</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>161</v>
@@ -2570,9 +2814,9 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
-        <v>44816.9009722222</v>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A9" s="10">
+        <v>44816.900972222204</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>168</v>
@@ -2613,9 +2857,9 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
-        <v>44816.9013657407</v>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A10" s="10">
+        <v>44816.901365740698</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>175</v>
@@ -2654,9 +2898,9 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
-        <v>44816.9020023148</v>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A11" s="10">
+        <v>44816.902002314797</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>182</v>
@@ -2697,9 +2941,9 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
-        <v>44816.9020023148</v>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A12" s="10">
+        <v>44816.902002314797</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>189</v>
@@ -2740,9 +2984,9 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
-        <v>44816.9021064815</v>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A13" s="10">
+        <v>44816.902106481502</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>198</v>
@@ -2783,9 +3027,9 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
-        <v>44816.9021296296</v>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A14" s="10">
+        <v>44816.902129629598</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>204</v>
@@ -2826,9 +3070,9 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
-        <v>44816.9021412037</v>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A15" s="10">
+        <v>44816.902141203696</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>208</v>
@@ -2869,9 +3113,9 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
-        <v>44816.9021990741</v>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A16" s="10">
+        <v>44816.902199074102</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>214</v>
@@ -2903,16 +3147,18 @@
       <c r="K16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="L16" s="11"/>
+      <c r="L16" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
-        <v>44816.9032407407</v>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A17" s="10">
+        <v>44816.903240740699</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>221</v>
@@ -2951,9 +3197,9 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
-        <v>44816.9033564815</v>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A18" s="10">
+        <v>44816.903356481504</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>227</v>
@@ -2992,9 +3238,9 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
-        <v>44816.9036574074</v>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A19" s="10">
+        <v>44816.903657407398</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>233</v>
@@ -3033,9 +3279,9 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
-        <v>44816.9036921296</v>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A20" s="10">
+        <v>44816.903692129599</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>239</v>
@@ -3074,9 +3320,9 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
-        <v>44816.9038541667</v>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A21" s="10">
+        <v>44816.903854166703</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>243</v>
@@ -3115,9 +3361,9 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
-        <v>44816.9044328704</v>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A22" s="10">
+        <v>44816.904432870397</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>247</v>
@@ -3156,9 +3402,9 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
-        <v>44816.9044560185</v>
+    <row r="23" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A23" s="10">
+        <v>44816.904456018499</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>253</v>
@@ -3197,9 +3443,9 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
-        <v>44816.9046064815</v>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A24" s="10">
+        <v>44816.904606481497</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>258</v>
@@ -3238,9 +3484,9 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
-        <v>44816.9047337963</v>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A25" s="10">
+        <v>44816.904733796298</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>265</v>
@@ -3279,9 +3525,9 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
-        <v>44816.9048958333</v>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A26" s="10">
+        <v>44816.904895833301</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>272</v>
@@ -3320,8 +3566,8 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+    <row r="27" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A27" s="10">
         <v>44816.9055324074</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3361,8 +3607,8 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
+    <row r="28" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A28" s="10">
         <v>44816.9061111111</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -3402,9 +3648,9 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
-        <v>44816.9066898148</v>
+    <row r="29" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A29" s="10">
+        <v>44816.906689814801</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>290</v>
@@ -3443,9 +3689,9 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
-        <v>44816.9068865741</v>
+    <row r="30" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A30" s="10">
+        <v>44816.906886574099</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>295</v>
@@ -3484,9 +3730,9 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
-        <v>44816.9069444445</v>
+    <row r="31" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A31" s="10">
+        <v>44816.906944444498</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>301</v>
@@ -3525,8 +3771,8 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
+    <row r="32" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A32" s="10">
         <v>44816.9081365741</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3566,9 +3812,9 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
-        <v>44816.9082060185</v>
+    <row r="33" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A33" s="10">
+        <v>44816.908206018503</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>316</v>
@@ -3607,8 +3853,8 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="n">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A34" s="10">
         <v>44816.9083217593</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -3648,9 +3894,9 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="n">
-        <v>44816.909525463</v>
+    <row r="35" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A35" s="10">
+        <v>44816.909525463001</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>332</v>
@@ -3691,9 +3937,9 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
-        <v>44816.9099074074</v>
+    <row r="36" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A36" s="10">
+        <v>44816.909907407397</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>337</v>
@@ -3732,9 +3978,9 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
-        <v>44816.9248263889</v>
+    <row r="37" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A37" s="10">
+        <v>44816.924826388902</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>341</v>
@@ -3773,9 +4019,9 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="n">
-        <v>44816.9358217593</v>
+    <row r="38" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A38" s="10">
+        <v>44816.935821759304</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>346</v>
@@ -3814,9 +4060,9 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="n">
-        <v>44817.3459027778</v>
+    <row r="39" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A39" s="10">
+        <v>44817.345902777801</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>351</v>
@@ -3855,9 +4101,9 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="n">
-        <v>44817.7284606482</v>
+    <row r="40" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A40" s="10">
+        <v>44817.728460648199</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>358</v>
@@ -3898,9 +4144,9 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="n">
-        <v>44817.8570486111</v>
+    <row r="41" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A41" s="10">
+        <v>44817.857048611098</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>366</v>
@@ -3939,9 +4185,9 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
-        <v>44817.9732986111</v>
+    <row r="42" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A42" s="10">
+        <v>44817.973298611098</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>373</v>
@@ -3980,9 +4226,9 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="n">
-        <v>44818.0128009259</v>
+    <row r="43" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A43" s="10">
+        <v>44818.012800925899</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>379</v>
@@ -4021,9 +4267,9 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="n">
-        <v>44818.4522569444</v>
+    <row r="44" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A44" s="10">
+        <v>44818.452256944402</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>385</v>
@@ -4062,9 +4308,9 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="n">
-        <v>44818.5594212963</v>
+    <row r="45" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A45" s="10">
+        <v>44818.559421296297</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>393</v>
@@ -4103,9 +4349,9 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="n">
-        <v>44818.8162731482</v>
+    <row r="46" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A46" s="10">
+        <v>44818.816273148201</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>400</v>
@@ -4144,9 +4390,9 @@
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="n">
-        <v>44818.8311111111</v>
+    <row r="47" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A47" s="10">
+        <v>44818.831111111103</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>406</v>
@@ -4185,8 +4431,8 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="n">
+    <row r="48" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A48" s="10">
         <v>44819.458912037</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -4226,9 +4472,9 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="n">
-        <v>44819.7943981482</v>
+    <row r="49" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A49" s="10">
+        <v>44819.794398148202</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>418</v>
@@ -4267,9 +4513,9 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="n">
-        <v>44819.812349537</v>
+    <row r="50" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A50" s="10">
+        <v>44819.812349537002</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>423</v>
@@ -4308,9 +4554,9 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="n">
-        <v>44819.8515856481</v>
+    <row r="51" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A51" s="10">
+        <v>44819.851585648103</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>431</v>
@@ -4349,7 +4595,7 @@
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:17" ht="18.75" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -4368,7 +4614,7 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:17" ht="18.75" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -4387,7 +4633,7 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:17" ht="18.75" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -4406,7 +4652,7 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:17" ht="18.75" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -4425,7 +4671,7 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:17" ht="18.75" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -4444,7 +4690,7 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:17" ht="18.75" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -4463,7 +4709,7 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:17" ht="18.75" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -4482,7 +4728,7 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:17" ht="18.75" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4501,7 +4747,7 @@
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:17" ht="18.75" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4520,7 +4766,7 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:17" ht="18.75" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -4539,7 +4785,7 @@
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:17" ht="18.75" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -4558,7 +4804,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:17" ht="18.75" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -4577,7 +4823,7 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:17" ht="18.75" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -4596,7 +4842,7 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:17" ht="18.75" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -4615,7 +4861,7 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:17" ht="18.75" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -4634,7 +4880,7 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:17" ht="18.75" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -4653,7 +4899,7 @@
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:17" ht="18.75" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -4672,7 +4918,7 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:17" ht="18.75" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -4691,7 +4937,7 @@
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:17" ht="18.75" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -4710,7 +4956,7 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:17" ht="18.75" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -4729,7 +4975,7 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:17" ht="18.75" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -4748,7 +4994,7 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:17" ht="18.75" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -4767,7 +5013,7 @@
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:17" ht="18.75" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -4786,7 +5032,7 @@
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:17" ht="18.75" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -4805,7 +5051,7 @@
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:17" ht="18.75" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -4824,7 +5070,7 @@
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:17" ht="18.75" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -4843,7 +5089,7 @@
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:17" ht="18.75" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -4862,7 +5108,7 @@
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:17" ht="18.75" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -4881,7 +5127,7 @@
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:17" ht="18.75" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -4900,7 +5146,7 @@
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:17" ht="18.75" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -4919,7 +5165,7 @@
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:17" ht="18.75" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -4938,7 +5184,7 @@
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:17" ht="18.75" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -4957,7 +5203,7 @@
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:17" ht="18.75" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -4976,7 +5222,7 @@
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:17" ht="18.75" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4995,7 +5241,7 @@
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:17" ht="18.75" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -5014,7 +5260,7 @@
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:17" ht="18.75" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -5033,7 +5279,7 @@
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:17" ht="18.75" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -5052,7 +5298,7 @@
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
     </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:17" ht="18.75" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -5071,7 +5317,7 @@
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:17" ht="18.75" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -5090,7 +5336,7 @@
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
     </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:17" ht="18.75" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -5109,7 +5355,7 @@
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:17" ht="18.75" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -5128,7 +5374,7 @@
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:17" ht="18.75" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -5147,7 +5393,7 @@
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:17" ht="18.75" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -5166,7 +5412,7 @@
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:17" ht="18.75" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -5185,7 +5431,7 @@
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:17" ht="18.75" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -5204,7 +5450,7 @@
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:17" ht="18.75" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -5223,7 +5469,7 @@
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:17" ht="18.75" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -5242,7 +5488,7 @@
       <c r="P98" s="9"/>
       <c r="Q98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:17" ht="18.75" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -5261,7 +5507,7 @@
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:17" ht="18.75" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -5280,7 +5526,7 @@
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:17" ht="18.75" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -5299,7 +5545,7 @@
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:17" ht="18.75" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -5318,7 +5564,7 @@
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:17" ht="18.75" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -5337,7 +5583,7 @@
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:17" ht="18.75" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -5356,7 +5602,7 @@
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:17" ht="18.75" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -5375,7 +5621,7 @@
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:17" ht="18.75" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -5394,7 +5640,7 @@
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:17" ht="18.75" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -5413,7 +5659,7 @@
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:17" ht="18.75" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -5432,7 +5678,7 @@
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:17" ht="18.75" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -5451,7 +5697,7 @@
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:17" ht="18.75" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -5470,7 +5716,7 @@
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:17" ht="18.75" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -5489,7 +5735,7 @@
       <c r="P111" s="9"/>
       <c r="Q111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:17" ht="18.75" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -5508,7 +5754,7 @@
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:17" ht="18.75" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -5527,7 +5773,7 @@
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:17" ht="18.75" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -5546,7 +5792,7 @@
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:17" ht="18.75" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -5565,7 +5811,7 @@
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:17" ht="18.75" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -5584,7 +5830,7 @@
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:17" ht="18.75" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -5603,7 +5849,7 @@
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:17" ht="18.75" customHeight="1">
       <c r="A118" s="12"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -5622,7 +5868,7 @@
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:17" ht="18.75" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -5641,7 +5887,7 @@
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:17" ht="18.75" customHeight="1">
       <c r="A120" s="12"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -5660,7 +5906,7 @@
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:17" ht="18.75" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -5679,7 +5925,7 @@
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:17" ht="18.75" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -5698,7 +5944,7 @@
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:17" ht="18.75" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -5717,7 +5963,7 @@
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:17" ht="18.75" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -5736,7 +5982,7 @@
       <c r="P124" s="9"/>
       <c r="Q124" s="9"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:17" ht="18.75" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -5755,7 +6001,7 @@
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:17" ht="18.75" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -5774,7 +6020,7 @@
       <c r="P126" s="9"/>
       <c r="Q126" s="9"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:17" ht="18.75" customHeight="1">
       <c r="A127" s="12"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -5793,7 +6039,7 @@
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:17" ht="18.75" customHeight="1">
       <c r="A128" s="12"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -5812,7 +6058,7 @@
       <c r="P128" s="9"/>
       <c r="Q128" s="9"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:17" ht="18.75" customHeight="1">
       <c r="A129" s="12"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -5831,7 +6077,7 @@
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:17" ht="18.75" customHeight="1">
       <c r="A130" s="12"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -5850,7 +6096,7 @@
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:17" ht="18.75" customHeight="1">
       <c r="A131" s="12"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -5869,7 +6115,7 @@
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
     </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:17" ht="18.75" customHeight="1">
       <c r="A132" s="12"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5888,7 +6134,7 @@
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:17" ht="18.75" customHeight="1">
       <c r="A133" s="12"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -5907,7 +6153,7 @@
       <c r="P133" s="9"/>
       <c r="Q133" s="9"/>
     </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:17" ht="18.75" customHeight="1">
       <c r="A134" s="12"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5926,7 +6172,7 @@
       <c r="P134" s="9"/>
       <c r="Q134" s="9"/>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:17" ht="18.75" customHeight="1">
       <c r="A135" s="12"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -5945,7 +6191,7 @@
       <c r="P135" s="9"/>
       <c r="Q135" s="9"/>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:17" ht="18.75" customHeight="1">
       <c r="A136" s="12"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5964,7 +6210,7 @@
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:17" ht="18.75" customHeight="1">
       <c r="A137" s="12"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -5983,7 +6229,7 @@
       <c r="P137" s="9"/>
       <c r="Q137" s="9"/>
     </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:17" ht="18.75" customHeight="1">
       <c r="A138" s="12"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -6002,7 +6248,7 @@
       <c r="P138" s="9"/>
       <c r="Q138" s="9"/>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:17" ht="18.75" customHeight="1">
       <c r="A139" s="12"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -6021,7 +6267,7 @@
       <c r="P139" s="9"/>
       <c r="Q139" s="9"/>
     </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:17" ht="18.75" customHeight="1">
       <c r="A140" s="12"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -6040,7 +6286,7 @@
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
     </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:17" ht="18.75" customHeight="1">
       <c r="A141" s="12"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -6059,7 +6305,7 @@
       <c r="P141" s="9"/>
       <c r="Q141" s="9"/>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:17" ht="18.75" customHeight="1">
       <c r="A142" s="12"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -6078,7 +6324,7 @@
       <c r="P142" s="9"/>
       <c r="Q142" s="9"/>
     </row>
-    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:17" ht="18.75" customHeight="1">
       <c r="A143" s="12"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -6097,7 +6343,7 @@
       <c r="P143" s="9"/>
       <c r="Q143" s="9"/>
     </row>
-    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:17" ht="18.75" customHeight="1">
       <c r="A144" s="12"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -6116,7 +6362,7 @@
       <c r="P144" s="9"/>
       <c r="Q144" s="9"/>
     </row>
-    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:17" ht="18.75" customHeight="1">
       <c r="A145" s="12"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -6135,7 +6381,7 @@
       <c r="P145" s="9"/>
       <c r="Q145" s="9"/>
     </row>
-    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:17" ht="18.75" customHeight="1">
       <c r="A146" s="12"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -6154,7 +6400,7 @@
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
     </row>
-    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:17" ht="18.75" customHeight="1">
       <c r="A147" s="12"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -6173,7 +6419,7 @@
       <c r="P147" s="9"/>
       <c r="Q147" s="9"/>
     </row>
-    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:17" ht="18.75" customHeight="1">
       <c r="A148" s="12"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -6192,7 +6438,7 @@
       <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
     </row>
-    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:17" ht="18.75" customHeight="1">
       <c r="A149" s="12"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -6211,7 +6457,7 @@
       <c r="P149" s="9"/>
       <c r="Q149" s="9"/>
     </row>
-    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:17" ht="18.75" customHeight="1">
       <c r="A150" s="12"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -6230,7 +6476,7 @@
       <c r="P150" s="9"/>
       <c r="Q150" s="9"/>
     </row>
-    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:17" ht="18.75" customHeight="1">
       <c r="A151" s="12"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -6250,12 +6496,7 @@
       <c r="Q151" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\repo2022\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dictex\Desktop\udabol\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8C9C9B-0265-4BAC-A611-27C86D322BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="-105" windowWidth="22080" windowHeight="13170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="437">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1342,7 +1341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1766,19 +1765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2405,7 +2404,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2449,27 +2448,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="6" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="9" width="43.21875" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
-    <col min="11" max="12" width="27.21875" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -3231,7 +3230,9 @@
       <c r="K18" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\flor\A +\git\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mick\Desktop\Nueva carpeta\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C4A62F-2E76-47A0-83C2-C42290C44909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="12624" windowHeight="12360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="0" windowWidth="12630" windowHeight="12360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="437">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1342,7 +1341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1766,19 +1765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2405,7 +2404,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2449,27 +2448,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="6" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
-    <col min="11" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -3438,7 +3437,9 @@
       <c r="K23" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="L23" s="11"/>
+      <c r="L23" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dictex\Desktop\udabol\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\flor\A +\git\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C4A62F-2E76-47A0-83C2-C42290C44909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="-105" windowWidth="22080" windowHeight="13170" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="12624" windowHeight="12360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="437">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1341,7 +1342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1765,19 +1766,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2404,7 +2405,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2448,27 +2449,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" style="6" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="11" max="12" width="27.33203125" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -3478,7 +3479,9 @@
       <c r="K24" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L24" s="11"/>
+      <c r="L24" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEGION\Desktop\DIPLOMADO Sistemas de Informacion\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Plata\Desktop\uda\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4DFA28-BAFA-4E51-8169-1CEE4E1F8836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7F44C2-7BE6-4C98-B926-3238F23BD3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="780" windowWidth="20910" windowHeight="11835" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="437">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1419,38 +1419,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1773,19 +1770,19 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="3">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -1794,15 +1791,15 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="1">
         <v>9845916</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -1814,15 +1811,15 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>4308676</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -1834,15 +1831,15 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>5273148</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
@@ -1854,12 +1851,12 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>10680663</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -1874,15 +1871,15 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>5246381</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -1894,15 +1891,15 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>12873339</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
@@ -1914,15 +1911,15 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>7351544</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
@@ -1934,15 +1931,15 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>7296889</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
@@ -1954,15 +1951,15 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>9083846</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
@@ -1971,15 +1968,15 @@
       <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>8437859</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="s">
@@ -1991,15 +1988,15 @@
       <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>11304597</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
@@ -2008,15 +2005,15 @@
       <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>8911045</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
@@ -2025,15 +2022,15 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>6717766</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="s">
@@ -2045,15 +2042,15 @@
       <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>2631732</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
@@ -2067,10 +2064,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C16" t="s">
@@ -2082,15 +2079,15 @@
       <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>33970</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
@@ -2102,15 +2099,15 @@
       <c r="E17" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>9899773</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C18" t="s">
@@ -2122,15 +2119,15 @@
       <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>7041610</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C19" t="s">
@@ -2142,15 +2139,15 @@
       <c r="E19" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>12669252</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C20" t="s">
@@ -2162,15 +2159,15 @@
       <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>10931935</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
@@ -2182,15 +2179,15 @@
       <c r="E21" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>6920030</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C22" t="s">
@@ -2202,15 +2199,15 @@
       <c r="E22" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>6434495</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
@@ -2222,15 +2219,15 @@
       <c r="E23" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>9155549</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C24" t="s">
@@ -2239,15 +2236,15 @@
       <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>6823974</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C25" t="s">
@@ -2259,15 +2256,15 @@
       <c r="E25" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>2622061</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C26" t="s">
@@ -2276,15 +2273,15 @@
       <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>7838112</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C27" t="s">
@@ -2296,15 +2293,15 @@
       <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>12864046</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C28" t="s">
@@ -2316,29 +2313,29 @@
       <c r="E28" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>9110161</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>9911855</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C30" t="s">
@@ -2347,15 +2344,15 @@
       <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>9459513</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C31" t="s">
@@ -2364,15 +2361,15 @@
       <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>10954950</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
@@ -2381,15 +2378,15 @@
       <c r="D32" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="1">
         <v>8028972</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C33" t="s">
@@ -2405,11 +2402,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C34" t="s">
@@ -2425,11 +2422,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C35" t="s">
@@ -2452,4056 +2449,4058 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13" style="5" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
-    <col min="11" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>44816.899421296301</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>44816.899618055599</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>44816.900532407402</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>44816.900798611103</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>44816.900798611103</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>44816.9008217593</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>44816.900902777801</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>44816.900972222204</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>44816.901365740698</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>44816.902002314797</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>44816.902002314797</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>44816.902106481502</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>44816.902129629598</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>44816.902141203696</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>44816.902199074102</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>44816.903240740699</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>44816.903356481504</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>44816.903657407398</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>44816.903692129599</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>44816.903854166703</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>44816.904432870397</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>44816.904456018499</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>44816.904606481497</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>44816.904733796298</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>44816.904895833301</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
+      <c r="L26" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>44816.9055324074</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>44816.9061111111</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>44816.906689814801</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>44816.906886574099</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>44816.906944444498</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>44816.9081365741</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>44816.908206018503</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>44816.9083217593</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
     </row>
     <row r="35" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>44816.909525463001</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
     </row>
     <row r="36" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>44816.909907407397</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>44816.924826388902</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>44816.935821759304</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>44817.345902777801</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>44817.728460648199</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>44817.857048611098</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>44817.973298611098</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="L42" s="11"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
     </row>
     <row r="43" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <v>44818.012800925899</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
     </row>
     <row r="44" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A44" s="10">
+      <c r="A44" s="9">
         <v>44818.452256944402</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="L44" s="11"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>44818.559421296297</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
     </row>
     <row r="46" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A46" s="10">
+      <c r="A46" s="9">
         <v>44818.816273148201</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
     </row>
     <row r="47" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A47" s="10">
+      <c r="A47" s="9">
         <v>44818.831111111103</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
     </row>
     <row r="48" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A48" s="10">
+      <c r="A48" s="9">
         <v>44819.458912037</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
     </row>
     <row r="49" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <v>44819.794398148202</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A50" s="10">
+      <c r="A50" s="9">
         <v>44819.812349537002</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <v>44819.851585648103</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
     </row>
     <row r="52" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A53" s="12"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A54" s="12"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A55" s="12"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
     </row>
     <row r="56" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A56" s="12"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
     </row>
     <row r="58" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A58" s="12"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
     </row>
     <row r="59" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A59" s="12"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
     </row>
     <row r="60" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A60" s="12"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
     </row>
     <row r="61" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A61" s="12"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
     </row>
     <row r="62" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A62" s="12"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
     </row>
     <row r="63" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A63" s="12"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
     </row>
     <row r="64" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A64" s="12"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
     </row>
     <row r="65" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A65" s="12"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
     </row>
     <row r="66" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A66" s="12"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
     </row>
     <row r="67" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A67" s="12"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
     </row>
     <row r="68" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A68" s="12"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
     </row>
     <row r="69" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A69" s="12"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A72" s="12"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
     </row>
     <row r="73" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A73" s="12"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
     </row>
     <row r="74" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A74" s="12"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
     </row>
     <row r="75" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A75" s="12"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
     </row>
     <row r="76" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A76" s="12"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
     </row>
     <row r="77" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A77" s="12"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
     </row>
     <row r="78" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A78" s="12"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A79" s="12"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
     </row>
     <row r="80" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A80" s="12"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
     </row>
     <row r="81" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A81" s="12"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
     </row>
     <row r="82" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A82" s="12"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A83" s="12"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
     </row>
     <row r="84" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
     </row>
     <row r="85" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A85" s="12"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
     </row>
     <row r="86" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A86" s="12"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
     </row>
     <row r="87" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A87" s="12"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
     </row>
     <row r="88" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A88" s="12"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
     </row>
     <row r="89" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A89" s="12"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
     </row>
     <row r="90" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A90" s="12"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
     </row>
     <row r="91" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A91" s="12"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
     </row>
     <row r="92" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A92" s="12"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
     </row>
     <row r="93" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A93" s="12"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
     </row>
     <row r="94" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A94" s="12"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
     </row>
     <row r="95" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A95" s="12"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
     </row>
     <row r="96" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A96" s="12"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
     </row>
     <row r="97" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A97" s="12"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
     </row>
     <row r="98" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A98" s="12"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
     </row>
     <row r="99" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A99" s="12"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
     </row>
     <row r="100" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A100" s="12"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
     </row>
     <row r="101" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A101" s="12"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-      <c r="N101" s="9"/>
-      <c r="O101" s="9"/>
-      <c r="P101" s="9"/>
-      <c r="Q101" s="9"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
     </row>
     <row r="102" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A102" s="12"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
     </row>
     <row r="103" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A103" s="12"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
     </row>
     <row r="104" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A104" s="12"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="9"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
     </row>
     <row r="105" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A105" s="12"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="9"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
     </row>
     <row r="106" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A106" s="12"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="9"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
     </row>
     <row r="107" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A107" s="12"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="9"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
     </row>
     <row r="108" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A108" s="12"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="9"/>
-      <c r="P108" s="9"/>
-      <c r="Q108" s="9"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
     </row>
     <row r="109" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A109" s="12"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="9"/>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="9"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
     </row>
     <row r="110" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A110" s="12"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
-      <c r="O110" s="9"/>
-      <c r="P110" s="9"/>
-      <c r="Q110" s="9"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
     </row>
     <row r="111" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A111" s="12"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
     </row>
     <row r="112" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A112" s="12"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="9"/>
-      <c r="O112" s="9"/>
-      <c r="P112" s="9"/>
-      <c r="Q112" s="9"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
     </row>
     <row r="113" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A113" s="12"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="9"/>
-      <c r="P113" s="9"/>
-      <c r="Q113" s="9"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
     </row>
     <row r="114" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A114" s="12"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="9"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
     </row>
     <row r="115" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A115" s="12"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-      <c r="N115" s="9"/>
-      <c r="O115" s="9"/>
-      <c r="P115" s="9"/>
-      <c r="Q115" s="9"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
     </row>
     <row r="116" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A116" s="12"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
-      <c r="N116" s="9"/>
-      <c r="O116" s="9"/>
-      <c r="P116" s="9"/>
-      <c r="Q116" s="9"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
     </row>
     <row r="117" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A117" s="12"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-      <c r="M117" s="9"/>
-      <c r="N117" s="9"/>
-      <c r="O117" s="9"/>
-      <c r="P117" s="9"/>
-      <c r="Q117" s="9"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
     </row>
     <row r="118" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A118" s="12"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="9"/>
-      <c r="O118" s="9"/>
-      <c r="P118" s="9"/>
-      <c r="Q118" s="9"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
     </row>
     <row r="119" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A119" s="12"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="9"/>
-      <c r="O119" s="9"/>
-      <c r="P119" s="9"/>
-      <c r="Q119" s="9"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
     </row>
     <row r="120" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A120" s="12"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="9"/>
-      <c r="Q120" s="9"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
     </row>
     <row r="121" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A121" s="12"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="9"/>
-      <c r="P121" s="9"/>
-      <c r="Q121" s="9"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
     </row>
     <row r="122" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A122" s="12"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
     </row>
     <row r="123" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A123" s="12"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
     </row>
     <row r="124" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A124" s="12"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
     </row>
     <row r="125" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A125" s="12"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
     </row>
     <row r="126" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A126" s="12"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="9"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
     </row>
     <row r="127" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A127" s="12"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="9"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
     </row>
     <row r="128" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A128" s="12"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
-      <c r="N128" s="9"/>
-      <c r="O128" s="9"/>
-      <c r="P128" s="9"/>
-      <c r="Q128" s="9"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
     </row>
     <row r="129" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A129" s="12"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="9"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="8"/>
     </row>
     <row r="130" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A130" s="12"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="8"/>
     </row>
     <row r="131" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A131" s="12"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
+      <c r="A131" s="11"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="8"/>
     </row>
     <row r="132" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A132" s="12"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="8"/>
     </row>
     <row r="133" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A133" s="12"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+      <c r="Q133" s="8"/>
     </row>
     <row r="134" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A134" s="12"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="9"/>
-      <c r="O134" s="9"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="8"/>
     </row>
     <row r="135" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A135" s="12"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
-      <c r="N135" s="9"/>
-      <c r="O135" s="9"/>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="9"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="8"/>
     </row>
     <row r="136" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A136" s="12"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9"/>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="9"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="9"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
     </row>
     <row r="137" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A137" s="12"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9"/>
-      <c r="M137" s="9"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="9"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="9"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
     </row>
     <row r="138" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A138" s="12"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
-      <c r="N138" s="9"/>
-      <c r="O138" s="9"/>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="8"/>
     </row>
     <row r="139" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A139" s="12"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
-      <c r="M139" s="9"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="9"/>
-      <c r="P139" s="9"/>
-      <c r="Q139" s="9"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+      <c r="Q139" s="8"/>
     </row>
     <row r="140" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A140" s="12"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
-      <c r="N140" s="9"/>
-      <c r="O140" s="9"/>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="9"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
     </row>
     <row r="141" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A141" s="12"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
-      <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="9"/>
-      <c r="P141" s="9"/>
-      <c r="Q141" s="9"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
     </row>
     <row r="142" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A142" s="12"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
-      <c r="Q142" s="9"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="8"/>
     </row>
     <row r="143" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A143" s="12"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="9"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="8"/>
+      <c r="P143" s="8"/>
+      <c r="Q143" s="8"/>
     </row>
     <row r="144" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A144" s="12"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="9"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="9"/>
+      <c r="A144" s="11"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+      <c r="Q144" s="8"/>
     </row>
     <row r="145" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A145" s="12"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="9"/>
+      <c r="A145" s="11"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="8"/>
     </row>
     <row r="146" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A146" s="12"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="9"/>
-      <c r="P146" s="9"/>
-      <c r="Q146" s="9"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="8"/>
     </row>
     <row r="147" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A147" s="12"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
-      <c r="M147" s="9"/>
-      <c r="N147" s="9"/>
-      <c r="O147" s="9"/>
-      <c r="P147" s="9"/>
-      <c r="Q147" s="9"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8"/>
     </row>
     <row r="148" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A148" s="12"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
-      <c r="P148" s="9"/>
-      <c r="Q148" s="9"/>
+      <c r="A148" s="11"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
     </row>
     <row r="149" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A149" s="12"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
-      <c r="N149" s="9"/>
-      <c r="O149" s="9"/>
-      <c r="P149" s="9"/>
-      <c r="Q149" s="9"/>
+      <c r="A149" s="11"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="8"/>
     </row>
     <row r="150" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A150" s="12"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
-      <c r="N150" s="9"/>
-      <c r="O150" s="9"/>
-      <c r="P150" s="9"/>
-      <c r="Q150" s="9"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+      <c r="Q150" s="8"/>
     </row>
     <row r="151" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A151" s="12"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
-      <c r="M151" s="9"/>
-      <c r="N151" s="9"/>
-      <c r="O151" s="9"/>
-      <c r="P151" s="9"/>
-      <c r="Q151" s="9"/>
+      <c r="A151" s="11"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Plata\Desktop\uda\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhq47\OneDrive\Escritorio\Git\udabol\UDABOL\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7F44C2-7BE6-4C98-B926-3238F23BD3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E920B6-09F4-49F2-A8D3-2BDD2152732E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="780" windowWidth="20910" windowHeight="11835" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="438">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1337,6 +1337,9 @@
   </si>
   <si>
     <t>megonzales1-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz </t>
   </si>
 </sst>
 </file>
@@ -2449,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="H17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3607,7 +3610,9 @@
       <c r="K27" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="10" t="s">
+        <v>437</v>
+      </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhq47\OneDrive\Escritorio\Git\udabol\UDABOL\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\uda\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E920B6-09F4-49F2-A8D3-2BDD2152732E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="438">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1345,7 +1344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1766,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2449,11 +2448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3653,7 +3652,9 @@
       <c r="K28" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\uda\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariella}\OneDrive\Desktop\Bryan\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DBE335-D91B-4077-BEB7-9507B2269226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="924" yWindow="0" windowWidth="22116" windowHeight="12360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="439">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1339,12 +1340,15 @@
   </si>
   <si>
     <t xml:space="preserve">La Paz </t>
+  </si>
+  <si>
+    <t>ORURO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1765,19 +1769,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2404,7 +2408,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2424,7 +2428,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2448,27 +2452,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" style="5" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="11" max="12" width="27.33203125" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2720,7 +2724,9 @@
       <c r="K6" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>438</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariella}\OneDrive\Desktop\Bryan\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\actualizacion de ingenieria de sistemas\mod 2\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DBE335-D91B-4077-BEB7-9507B2269226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="0" windowWidth="22116" windowHeight="12360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22110" windowHeight="12360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="439">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1348,11 +1347,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1383,6 +1382,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1425,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1454,6 +1461,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1769,19 +1779,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2408,7 +2418,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2428,7 +2438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2452,27 +2462,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="5" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
-    <col min="11" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -3361,7 +3371,9 @@
       <c r="K21" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -6516,6 +6528,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\actualizacion de ingenieria de sistemas\mod 2\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows 10\Desktop\Udabolsam\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B2481-D979-46C0-B60F-97780C3722FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22110" windowHeight="12360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="439">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1347,7 +1348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1779,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2462,11 +2463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3713,7 +3714,9 @@
       <c r="K29" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres_PC\Documents\GIT\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ancieta\Desktop\repositorio\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658B0839-907F-4714-AD4D-8A7AAF41B11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C75C44-C048-438C-9455-23F2F7A2C984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="434">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1759,12 +1759,12 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2391,7 +2391,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="12">
         <v>34</v>
       </c>
@@ -2420,24 +2420,24 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2773,7 +2773,9 @@
       <c r="K8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows 10\Desktop\Udabolsam\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B2481-D979-46C0-B60F-97780C3722FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2470B5-4229-476D-93CA-9FC0DAF96C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="439">
   <si>
     <t>Leonardo</t>
   </si>
@@ -2466,13 +2466,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
@@ -2482,7 +2482,8 @@
     <col min="8" max="8" width="37.85546875" customWidth="1"/>
     <col min="9" max="9" width="43.28515625" customWidth="1"/>
     <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="12" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
     <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3798,7 +3799,9 @@
       <c r="K31" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KATY\Desktop\UDABOL ACTUALIZACION\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2470B5-4229-476D-93CA-9FC0DAF96C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97891759-B910-4286-8C72-9162FB34C78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="439">
   <si>
     <t>Leonardo</t>
   </si>
@@ -2466,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3758,7 +3758,9 @@
       <c r="K30" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KATY\Desktop\UDABOL ACTUALIZACION\UDABOL_202202\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97891759-B910-4286-8C72-9162FB34C78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="439">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1348,7 +1342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1773,14 +1767,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2463,11 +2457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="H33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4545,7 +4539,9 @@
       <c r="K49" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="L49" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nueva carpeta\Diplomado\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD993F6-9121-4C93-9349-04A261E5E50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8873CBDD-7987-4B55-8190-47A8E2C6ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="431">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -506,9 +506,6 @@
     <t>Ronald Saucedo Tito</t>
   </si>
   <si>
-    <t>rsacudo-es1@udabol.edu.bo</t>
-  </si>
-  <si>
     <t>lozatroncosomiguel@gmail.com</t>
   </si>
   <si>
@@ -1314,13 +1311,16 @@
   </si>
   <si>
     <t>Cochabamba</t>
+  </si>
+  <si>
+    <t>rsaucedo-es1@udabol.edu.bo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,6 +1358,14 @@
       <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1399,10 +1407,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1439,8 +1448,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1748,12 +1761,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -1761,10 +1774,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>136</v>
@@ -1779,16 +1792,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="F2" s="9">
         <v>4308676</v>
@@ -1799,10 +1812,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>13</v>
@@ -1819,16 +1832,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>377</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>378</v>
       </c>
       <c r="F4" s="9">
         <v>10680663</v>
@@ -1839,16 +1852,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>381</v>
       </c>
       <c r="F5" s="9">
         <v>12873339</v>
@@ -1859,10 +1872,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>383</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>62</v>
@@ -1879,10 +1892,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>384</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>385</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>14</v>
@@ -1899,16 +1912,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>387</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="9">
         <v>9083846</v>
@@ -1919,13 +1932,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="9">
@@ -1937,16 +1950,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>390</v>
-      </c>
       <c r="D10" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>348</v>
       </c>
       <c r="F10" s="9">
         <v>11304597</v>
@@ -1957,13 +1970,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="9">
@@ -1993,10 +2006,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>18</v>
@@ -2013,16 +2026,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -2031,10 +2044,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>91</v>
@@ -2051,10 +2064,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>48</v>
@@ -2071,10 +2084,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>403</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>128</v>
@@ -2091,16 +2104,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>405</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>135</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F18" s="9">
         <v>12669252</v>
@@ -2111,13 +2124,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>407</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>48</v>
@@ -2134,13 +2147,13 @@
         <v>99</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="F20" s="9">
         <v>6920030</v>
@@ -2151,16 +2164,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="F21" s="9">
         <v>6434495</v>
@@ -2171,16 +2184,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>390</v>
-      </c>
       <c r="D22" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="F22" s="9">
         <v>9155549</v>
@@ -2194,10 +2207,10 @@
         <v>158</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>414</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="9">
@@ -2209,16 +2222,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>150</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F24" s="9">
         <v>2622061</v>
@@ -2229,13 +2242,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="9">
@@ -2247,16 +2260,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>417</v>
-      </c>
       <c r="D26" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="F26" s="9">
         <v>12864046</v>
@@ -2267,16 +2280,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>420</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>421</v>
       </c>
       <c r="F27" s="9">
         <v>9110161</v>
@@ -2287,10 +2300,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>423</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -2339,13 +2352,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="9">
@@ -2357,19 +2370,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="13" t="s">
         <v>427</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1">
@@ -2377,19 +2390,19 @@
         <v>33</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="F33" s="13" t="s">
         <v>427</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -2404,24 +2417,24 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2789,7 +2802,7 @@
         <v>68</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -3320,10 +3333,12 @@
       <c r="J22" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L22" s="5"/>
+      <c r="K22" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -3335,34 +3350,34 @@
         <v>44816.904456018521</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="3"/>
@@ -3376,34 +3391,34 @@
         <v>44816.904606481483</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="J24" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="3"/>
@@ -3417,34 +3432,34 @@
         <v>44816.904733796298</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
@@ -3458,34 +3473,34 @@
         <v>44816.904895833337</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
@@ -3499,34 +3514,34 @@
         <v>44816.905532407407</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="I27" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
@@ -3540,34 +3555,34 @@
         <v>44816.906111111108</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
@@ -3581,34 +3596,34 @@
         <v>44816.906689814816</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="J29" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
@@ -3622,34 +3637,34 @@
         <v>44816.906886574077</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>151</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="I30" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
@@ -3663,34 +3678,34 @@
         <v>44816.906944444447</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="3"/>
@@ -3704,34 +3719,34 @@
         <v>44816.908136574071</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="I32" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="3"/>
@@ -3745,34 +3760,34 @@
         <v>44816.908206018517</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="3"/>
@@ -3786,34 +3801,34 @@
         <v>44816.908321759256</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="3"/>
@@ -3827,34 +3842,34 @@
         <v>44816.909525462965</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="J35" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="3"/>
@@ -3868,34 +3883,34 @@
         <v>44816.909907407404</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I36" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="3"/>
@@ -3909,34 +3924,34 @@
         <v>44816.924826388888</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="I37" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="3"/>
@@ -3950,34 +3965,34 @@
         <v>44816.93582175926</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="I38" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="3"/>
@@ -3991,34 +4006,34 @@
         <v>44817.345902777779</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="J39" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="3"/>
@@ -4032,37 +4047,37 @@
         <v>44817.728460648148</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J40" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -4075,34 +4090,34 @@
         <v>44817.857048611113</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="I41" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="3"/>
@@ -4116,34 +4131,34 @@
         <v>44817.973298611112</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="J42" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="3"/>
@@ -4157,34 +4172,34 @@
         <v>44818.012800925928</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="3"/>
@@ -4198,34 +4213,34 @@
         <v>44818.452256944445</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="J44" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="3"/>
@@ -4239,34 +4254,34 @@
         <v>44818.559421296297</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="I45" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="3"/>
@@ -4280,37 +4295,37 @@
         <v>44818.81627314815</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="J46" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>332</v>
-      </c>
       <c r="L46" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -4323,34 +4338,34 @@
         <v>44818.831111111111</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I47" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="3"/>
@@ -4364,34 +4379,34 @@
         <v>44819.458912037036</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="3"/>
@@ -4405,34 +4420,34 @@
         <v>44819.794398148151</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="J49" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="3"/>
@@ -4446,34 +4461,34 @@
         <v>44819.812349537038</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="I50" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="3"/>
@@ -4487,34 +4502,34 @@
         <v>44819.851585648146</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="G51" s="5" t="s">
+      <c r="H51" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="3"/>
@@ -6424,6 +6439,9 @@
       <c r="Q151" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K22" r:id="rId1" xr:uid="{3F99CC24-1CA2-4A9A-B4EF-46F3A9A36F64}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\docker-udabol\UDABOL_202202\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DD06CA-E3A6-4AEB-9843-6C8B297BB0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="444">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1337,16 +1343,31 @@
   </si>
   <si>
     <t>ORURO</t>
+  </si>
+  <si>
+    <t>lguevara240@gmail.com</t>
+  </si>
+  <si>
+    <t>lguevara2805@outlook.com</t>
+  </si>
+  <si>
+    <t>leonardo-guevara</t>
+  </si>
+  <si>
+    <t>leonardoguevara6</t>
+  </si>
+  <si>
+    <t>lguevara2-es@udabol.edu.bo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1391,6 +1412,34 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1424,10 +1473,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1461,8 +1511,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1767,26 +1833,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2413,7 +2479,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2433,7 +2499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2457,28 +2523,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4631,18 +4697,42 @@
       <c r="Q51" s="8"/>
     </row>
     <row r="52" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="A52" s="16">
+        <v>44825.443055555559</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
@@ -4650,15 +4740,15 @@
       <c r="Q52" s="8"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -4694,7 +4784,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="G55" s="17"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -6531,7 +6621,10 @@
       <c r="Q151" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{5CCA29A1-4312-40DB-97BF-352737FC896B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\docker-udabol\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DD06CA-E3A6-4AEB-9843-6C8B297BB0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC27215-52E4-43DC-ADD3-1867B3208953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="444">
   <si>
     <t>Leonardo</t>
   </si>
@@ -784,9 +784,6 @@
     <t>Ronald Saucedo Tito</t>
   </si>
   <si>
-    <t>rsacudo-es1@udabol.edu.bo</t>
-  </si>
-  <si>
     <t>lozatroncosomiguel@gmail.com</t>
   </si>
   <si>
@@ -1358,6 +1355,9 @@
   </si>
   <si>
     <t>lguevara2-es@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>rsaucedo-es1@udabol.edu.bo</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1524,6 +1524,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1847,12 +1850,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2479,7 +2482,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.5">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.5">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2526,25 +2529,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="30.08984375" customWidth="1"/>
+    <col min="7" max="7" width="22.90625" customWidth="1"/>
+    <col min="8" max="8" width="37.90625" customWidth="1"/>
+    <col min="9" max="9" width="43.36328125" customWidth="1"/>
+    <col min="10" max="10" width="37.08984375" customWidth="1"/>
+    <col min="11" max="11" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.36328125" customWidth="1"/>
+    <col min="13" max="17" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2797,7 +2800,7 @@
         <v>155</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -3473,10 +3476,12 @@
       <c r="J22" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="L22" s="10"/>
+      <c r="K22" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -3488,7 +3493,7 @@
         <v>44816.904456018499</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>67</v>
@@ -3497,25 +3502,25 @@
         <v>68</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="I23" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>129</v>
@@ -3531,34 +3536,34 @@
         <v>44816.904606481497</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="I24" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>264</v>
-      </c>
       <c r="J24" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>129</v>
@@ -3574,34 +3579,34 @@
         <v>44816.904733796298</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>139</v>
@@ -3617,7 +3622,7 @@
         <v>44816.904895833301</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>71</v>
@@ -3626,25 +3631,25 @@
         <v>35</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="J26" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>129</v>
@@ -3660,7 +3665,7 @@
         <v>44816.9055324074</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>91</v>
@@ -3669,28 +3674,28 @@
         <v>92</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>282</v>
-      </c>
       <c r="I27" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -3703,34 +3708,34 @@
         <v>44816.9061111111</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="J28" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>139</v>
@@ -3746,7 +3751,7 @@
         <v>44816.906689814801</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>105</v>
@@ -3758,22 +3763,22 @@
         <v>20</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>291</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>139</v>
@@ -3789,34 +3794,34 @@
         <v>44816.906886574099</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>300</v>
-      </c>
       <c r="I30" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>129</v>
@@ -3832,34 +3837,34 @@
         <v>44816.906944444498</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="I31" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K31" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>197</v>
@@ -3875,34 +3880,34 @@
         <v>44816.9081365741</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>315</v>
-      </c>
       <c r="I32" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="8"/>
@@ -3916,34 +3921,34 @@
         <v>44816.908206018503</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="I33" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="J33" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="8"/>
@@ -3957,34 +3962,34 @@
         <v>44816.9083217593</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="J34" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="K34" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="8"/>
@@ -3998,7 +4003,7 @@
         <v>44816.909525463001</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>113</v>
@@ -4007,25 +4012,25 @@
         <v>33</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="I35" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>336</v>
-      </c>
       <c r="J35" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>197</v>
@@ -4041,7 +4046,7 @@
         <v>44816.909907407397</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>87</v>
@@ -4053,22 +4058,22 @@
         <v>20</v>
       </c>
       <c r="F36" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="I36" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="K36" s="10" t="s">
         <v>339</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>340</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="8"/>
@@ -4082,7 +4087,7 @@
         <v>44816.924826388902</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>79</v>
@@ -4091,25 +4096,25 @@
         <v>80</v>
       </c>
       <c r="E37" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>345</v>
-      </c>
       <c r="I37" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="8"/>
@@ -4123,7 +4128,7 @@
         <v>44816.935821759304</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>73</v>
@@ -4132,25 +4137,25 @@
         <v>74</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>350</v>
-      </c>
       <c r="I38" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="8"/>
@@ -4164,34 +4169,34 @@
         <v>44817.345902777801</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="I39" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="J39" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>357</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="8"/>
@@ -4205,34 +4210,34 @@
         <v>44817.728460648199</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="I40" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="I40" s="10" t="s">
-        <v>365</v>
-      </c>
       <c r="J40" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>197</v>
@@ -4248,34 +4253,34 @@
         <v>44817.857048611098</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="F41" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="G41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="I41" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K41" s="10" t="s">
         <v>371</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>372</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="8"/>
@@ -4289,7 +4294,7 @@
         <v>44817.973298611098</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>91</v>
@@ -4298,25 +4303,25 @@
         <v>2</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="I42" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>378</v>
-      </c>
       <c r="J42" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="8"/>
@@ -4330,34 +4335,34 @@
         <v>44818.012800925899</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="F43" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="G43" s="10" t="s">
+      <c r="H43" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="K43" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>384</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="8"/>
@@ -4371,34 +4376,34 @@
         <v>44818.452256944402</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="G44" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="I44" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="J44" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="K44" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>392</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="8"/>
@@ -4412,34 +4417,34 @@
         <v>44818.559421296297</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="G45" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>399</v>
-      </c>
       <c r="I45" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="8"/>
@@ -4453,7 +4458,7 @@
         <v>44818.816273148201</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>32</v>
@@ -4462,25 +4467,25 @@
         <v>33</v>
       </c>
       <c r="E46" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="I46" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="J46" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="K46" s="10" t="s">
         <v>404</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>405</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="8"/>
@@ -4494,34 +4499,34 @@
         <v>44818.831111111103</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="F47" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="G47" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="I47" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K47" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>412</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="8"/>
@@ -4535,7 +4540,7 @@
         <v>44819.458912037</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>85</v>
@@ -4544,25 +4549,25 @@
         <v>86</v>
       </c>
       <c r="E48" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="I48" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="K48" s="10" t="s">
         <v>416</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>417</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="8"/>
@@ -4576,7 +4581,7 @@
         <v>44819.794398148202</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>39</v>
@@ -4585,25 +4590,25 @@
         <v>40</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F49" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="I49" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="J49" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="K49" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>422</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>129</v>
@@ -4619,34 +4624,34 @@
         <v>44819.812349537002</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="I50" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="K50" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="8"/>
@@ -4660,34 +4665,34 @@
         <v>44819.851585648103</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="G51" s="10" t="s">
+      <c r="H51" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="K51" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>436</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="8"/>
@@ -4701,7 +4706,7 @@
         <v>44825.443055555559</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>1</v>
@@ -4713,22 +4718,22 @@
         <v>0</v>
       </c>
       <c r="F52" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="G52" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="H52" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="I52" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="K52" s="13" t="s">
         <v>442</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>443</v>
       </c>
       <c r="L52" s="13" t="s">
         <v>197</v>
@@ -6623,8 +6628,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B52" r:id="rId1" xr:uid="{5CCA29A1-4312-40DB-97BF-352737FC896B}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{7A4ED392-A942-426F-BDF6-8C6A8325C11D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\UDABOL_202202\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC27215-52E4-43DC-ADD3-1867B3208953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1358,12 +1352,15 @@
   </si>
   <si>
     <t>rsaucedo-es1@udabol.edu.bo</t>
+  </si>
+  <si>
+    <t>La paz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1836,26 +1833,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2482,7 +2479,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2502,7 +2499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2526,28 +2523,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="I28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.08984375" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" customWidth="1"/>
-    <col min="8" max="8" width="37.90625" customWidth="1"/>
-    <col min="9" max="9" width="43.36328125" customWidth="1"/>
-    <col min="10" max="10" width="37.08984375" customWidth="1"/>
-    <col min="11" max="11" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.36328125" customWidth="1"/>
-    <col min="13" max="17" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4116,7 +4113,9 @@
       <c r="K37" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="10" t="s">
+        <v>444</v>
+      </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -6627,8 +6626,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{5CCA29A1-4312-40DB-97BF-352737FC896B}"/>
-    <hyperlink ref="K22" r:id="rId2" xr:uid="{7A4ED392-A942-426F-BDF6-8C6A8325C11D}"/>
+    <hyperlink ref="B52" r:id="rId1"/>
+    <hyperlink ref="K22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UDABOL\UDABOL_202202\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94659674-C881-4143-8931-B1D2D1025EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1360,7 +1366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1833,26 +1839,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2479,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2523,28 +2529,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="I18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -3392,7 +3398,9 @@
       <c r="K20" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -6626,8 +6634,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1"/>
-    <hyperlink ref="K22" r:id="rId2"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UDABOL\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHONATAN\Desktop\Udabol\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94659674-C881-4143-8931-B1D2D1025EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1366,7 +1365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1846,19 +1845,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2485,7 +2484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2529,28 +2528,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="I33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4164,7 +4163,9 @@
       <c r="K38" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -6634,8 +6635,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B52" r:id="rId1"/>
+    <hyperlink ref="K22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHONATAN\Desktop\Udabol\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\git\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C19C3-C9EB-426A-819B-FD52793C03CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1365,7 +1366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1845,19 +1846,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="5" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2484,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.4">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2528,28 +2529,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.86328125" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="6" max="6" width="30.1328125" customWidth="1"/>
+    <col min="7" max="7" width="22.86328125" customWidth="1"/>
+    <col min="8" max="8" width="37.86328125" customWidth="1"/>
+    <col min="9" max="9" width="43.3984375" customWidth="1"/>
+    <col min="10" max="10" width="37.1328125" customWidth="1"/>
+    <col min="11" max="11" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.3984375" customWidth="1"/>
+    <col min="13" max="17" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4206,7 +4207,9 @@
       <c r="K39" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -6635,8 +6638,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1"/>
-    <hyperlink ref="K22" r:id="rId2"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\git\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\cristian\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C19C3-C9EB-426A-819B-FD52793C03CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650C2C4D-E656-453F-BE88-6F90930F0D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1853,12 +1853,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2485,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.4">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.4">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2533,24 +2533,24 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.86328125" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" customWidth="1"/>
-    <col min="6" max="6" width="30.1328125" customWidth="1"/>
-    <col min="7" max="7" width="22.86328125" customWidth="1"/>
-    <col min="8" max="8" width="37.86328125" customWidth="1"/>
-    <col min="9" max="9" width="43.3984375" customWidth="1"/>
-    <col min="10" max="10" width="37.1328125" customWidth="1"/>
-    <col min="11" max="11" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.3984375" customWidth="1"/>
-    <col min="13" max="17" width="13.59765625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4334,7 +4334,9 @@
       <c r="K42" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\cristian\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\udabolhub\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650C2C4D-E656-453F-BE88-6F90930F0D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1366,7 +1365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1846,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2529,11 +2528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4080,7 +4079,9 @@
       <c r="K36" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -6640,8 +6641,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B52" r:id="rId1"/>
+    <hyperlink ref="K22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\udabolhub\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Udabol-SistemasDeInformacionYSistemasInteligentes\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9450CAE8-8142-48AA-8BE3-E79D45A3BFD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1365,7 +1366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1845,19 +1846,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2484,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2528,28 +2529,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="I31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4501,7 +4502,9 @@
       <c r="K46" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="L46" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -6641,8 +6644,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1"/>
-    <hyperlink ref="K22" r:id="rId2"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Udabol-SistemasDeInformacionYSistemasInteligentes\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AGUILAR\OneDrive\Escritorio\udabol\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9450CAE8-8142-48AA-8BE3-E79D45A3BFD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0483B7F3-B4A9-49AE-8D49-AEAC771F0F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1853,12 +1853,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2485,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2532,25 +2532,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="I40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4586,7 +4586,9 @@
       <c r="K48" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="L48" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AGUILAR\OneDrive\Escritorio\udabol\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\udabol2022\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0483B7F3-B4A9-49AE-8D49-AEAC771F0F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1366,7 +1365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1846,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2529,11 +2528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="I28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3914,7 +3913,9 @@
       <c r="K32" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -6646,8 +6647,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B52" r:id="rId1"/>
+    <hyperlink ref="K22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\udabol2022\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AGUIRRE\clon\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F31A3C9-7086-45B4-BD22-53A0B2BE9C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1365,7 +1366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1845,19 +1846,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2484,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2528,28 +2529,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="I45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4673,7 +4674,9 @@
       <c r="K50" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="L50" s="10"/>
+      <c r="L50" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
@@ -6647,8 +6650,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1"/>
-    <hyperlink ref="K22" r:id="rId2"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AGUIRRE\clon\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus\Desktop\UDABOL(2)\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F31A3C9-7086-45B4-BD22-53A0B2BE9C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328A1917-0264-4834-897F-71AB58B6BFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1853,12 +1853,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2485,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2532,25 +2532,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="I33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4547,7 +4547,9 @@
       <c r="K47" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus\Desktop\UDABOL(2)\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALESSANDRO\Desktop\tarea git\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328A1917-0264-4834-897F-71AB58B6BFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1366,7 +1365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1846,19 +1845,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2485,7 +2484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2529,28 +2528,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="I27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -3998,7 +3997,9 @@
       <c r="K34" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -6652,8 +6653,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B52" r:id="rId1"/>
+    <hyperlink ref="K22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALESSANDRO\Desktop\tarea git\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a22bcbe14017e97/Escritorio/PRUEBA/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_68DE39CB866707C030E20FFC60BB9E0C6CBFD81A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2CB18AF-1509-4700-A4EC-BB825A9E08D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1365,7 +1366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1533,7 +1534,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1845,14 +1846,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
@@ -2528,14 +2529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="I15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -3356,7 +3357,9 @@
       <c r="K19" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -6653,8 +6656,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1"/>
-    <hyperlink ref="K22" r:id="rId2"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a22bcbe14017e97/Escritorio/PRUEBA/UDABOL_202202/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UDABOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_68DE39CB866707C030E20FFC60BB9E0C6CBFD81A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2CB18AF-1509-4700-A4EC-BB825A9E08D7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1366,7 +1365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1534,7 +1533,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1846,19 +1845,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2485,7 +2484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2529,28 +2528,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="H30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -3959,7 +3958,9 @@
       <c r="K33" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -6656,8 +6657,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B52" r:id="rId1"/>
+    <hyperlink ref="K22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UDABOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEYMAR HUARACHI\GABRIELU\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E0B956-3DA5-4F5F-A2A9-413C42750E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1365,7 +1366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1845,19 +1846,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2484,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2528,28 +2529,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4302,7 +4303,9 @@
       <c r="K41" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -6657,8 +6660,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1"/>
-    <hyperlink ref="K22" r:id="rId2"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UDABOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A97C0C-023A-4B59-BF7F-7E60363BB1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1365,7 +1366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1845,19 +1846,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2484,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2528,28 +2529,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4468,7 +4469,9 @@
       <c r="K45" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="L45" s="10"/>
+      <c r="L45" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -6657,8 +6660,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1"/>
-    <hyperlink ref="K22" r:id="rId2"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\UDABOL\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A306C331-30D6-4AAD-A40A-6B7CC990BEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D3541A-EF21-4F49-A9DE-6BE124B11F14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1853,12 +1853,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2485,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2533,24 +2533,24 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" customWidth="1"/>
-    <col min="13" max="17" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4428,7 +4428,9 @@
       <c r="K44" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="L44" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\UDABOL\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\OneDrive\Escritorio\UDABOL_JM\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D3541A-EF21-4F49-A9DE-6BE124B11F14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817F53C-E853-4593-B49A-4C2204960DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1853,12 +1853,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53515625" customWidth="1"/>
+    <col min="3" max="5" width="13.53515625" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2485,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.45">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.45">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2532,25 +2532,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3828125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.84375" customWidth="1"/>
+    <col min="4" max="4" width="9.3828125" customWidth="1"/>
+    <col min="5" max="5" width="15.84375" customWidth="1"/>
+    <col min="6" max="6" width="30.15234375" customWidth="1"/>
+    <col min="7" max="7" width="22.84375" customWidth="1"/>
+    <col min="8" max="8" width="37.84375" customWidth="1"/>
+    <col min="9" max="9" width="43.3828125" customWidth="1"/>
+    <col min="10" max="10" width="37.15234375" customWidth="1"/>
+    <col min="11" max="11" width="28.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.3828125" customWidth="1"/>
+    <col min="13" max="17" width="13.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -2974,7 +2974,9 @@
       <c r="K10" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\UDABOL\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\udabol\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D3541A-EF21-4F49-A9DE-6BE124B11F14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1366,7 +1365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
@@ -1846,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2529,11 +2528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="H37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4387,7 +4386,9 @@
       <c r="K43" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -6662,8 +6663,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B52" r:id="rId1"/>
+    <hyperlink ref="K22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\OneDrive\Escritorio\UDABOL_JM\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renac\Desktop\GIT\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817F53C-E853-4593-B49A-4C2204960DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFCBB29-8736-4B0A-8F85-6F9183A98CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="445">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1853,12 +1853,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.53515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53515625" customWidth="1"/>
-    <col min="3" max="5" width="13.53515625" customWidth="1"/>
-    <col min="6" max="6" width="13.53515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2485,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.45">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.45">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2532,25 +2532,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="I41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.3828125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.84375" customWidth="1"/>
-    <col min="4" max="4" width="9.3828125" customWidth="1"/>
-    <col min="5" max="5" width="15.84375" customWidth="1"/>
-    <col min="6" max="6" width="30.15234375" customWidth="1"/>
-    <col min="7" max="7" width="22.84375" customWidth="1"/>
-    <col min="8" max="8" width="37.84375" customWidth="1"/>
-    <col min="9" max="9" width="43.3828125" customWidth="1"/>
-    <col min="10" max="10" width="37.15234375" customWidth="1"/>
-    <col min="11" max="11" width="28.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.3828125" customWidth="1"/>
-    <col min="13" max="17" width="13.53515625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
@@ -4731,7 +4731,9 @@
       <c r="K51" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="L51" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renac\Desktop\GIT\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFCBB29-8736-4B0A-8F85-6F9183A98CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86988BDA-1407-174D-9F51-2C3BD07C37C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="460">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1361,6 +1361,51 @@
   </si>
   <si>
     <t>La paz</t>
+  </si>
+  <si>
+    <t>Roger Iván Zuñagua Suntura</t>
+  </si>
+  <si>
+    <t>Fanor Flores Castro</t>
+  </si>
+  <si>
+    <t>Plinio Alex Gonzalo Quipe</t>
+  </si>
+  <si>
+    <t>Usuario 55</t>
+  </si>
+  <si>
+    <t>Usuario 56</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Capa de Negocios</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Api Get DELETE</t>
+  </si>
+  <si>
+    <t>Api Post PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dao ASLQLITE insert select </t>
+  </si>
+  <si>
+    <t>Dao A Postgre insert delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dao ASLQLITE update select </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentacion Menu Operaciones con mensajes </t>
+  </si>
+  <si>
+    <t>Presentacion Operaciones con usuarios</t>
   </si>
 </sst>
 </file>
@@ -1526,12 +1571,10 @@
     <xf numFmtId="22" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1849,16 +1892,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2485,7 +2528,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2505,7 +2548,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="16">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2530,2357 +2573,2835 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q151"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="J15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="37.83203125" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" customWidth="1"/>
+    <col min="11" max="11" width="37.1640625" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A1" s="18"/>
+      <c r="B1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
+        <v>450</v>
+      </c>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="9">
-        <v>44816.899421296301</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>126</v>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A2" s="18">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44816.903854166703</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="10">
+        <v>20</v>
+      </c>
+      <c r="O2" s="10">
+        <f>MOD(N2,10)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A3" s="18">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A3" s="9">
-        <v>44816.899618055599</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>130</v>
+      <c r="B3" s="9">
+        <v>44816.902002314797</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+        <v>187</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="10">
+        <v>10</v>
+      </c>
+      <c r="O3" s="10">
+        <f>MOD(N3,10)</f>
+        <v>0</v>
+      </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="9">
-        <v>44816.900532407402</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>135</v>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A4" s="18">
+        <v>50</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44819.851585648103</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>101</v>
+        <v>431</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>99</v>
+        <v>432</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>135</v>
+        <v>433</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>136</v>
+        <v>430</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>137</v>
+        <v>434</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>137</v>
+        <v>430</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>135</v>
+        <v>430</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>138</v>
+        <v>430</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+        <v>435</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10">
+        <v>50</v>
+      </c>
+      <c r="O4" s="10">
+        <f>MOD(N4,10)</f>
+        <v>0</v>
+      </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A5" s="9">
-        <v>44816.900798611103</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>140</v>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A5" s="18">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44817.857048611098</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>142</v>
+        <v>366</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>143</v>
+        <v>367</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>144</v>
+        <v>368</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>145</v>
+        <v>365</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>146</v>
+        <v>369</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>147</v>
+        <v>370</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>144</v>
+        <v>365</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+        <v>371</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
+        <v>40</v>
+      </c>
+      <c r="O5" s="10">
+        <f>MOD(N5,10)</f>
+        <v>0</v>
+      </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" s="9">
-        <v>44816.900798611103</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>150</v>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A6" s="18">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44816.906944444498</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>150</v>
+        <v>306</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+        <v>307</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N6" s="10">
+        <v>30</v>
+      </c>
+      <c r="O6" s="10">
+        <f>MOD(N6,10)</f>
+        <v>0</v>
+      </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A7" s="9">
-        <v>44816.9008217593</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>156</v>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A7" s="18">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44816.902002314797</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+        <v>189</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N7" s="10">
+        <v>11</v>
+      </c>
+      <c r="O7" s="10">
+        <f>MOD(N7,10)</f>
+        <v>1</v>
+      </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A8" s="9">
-        <v>44816.900902777801</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A8" s="18">
+        <v>51</v>
+      </c>
+      <c r="B8" s="16">
+        <v>44825.443055555559</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="N8" s="10">
+        <v>51</v>
+      </c>
+      <c r="O8" s="10">
+        <f>MOD(N8,10)</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A9" s="9">
-        <v>44816.900972222204</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>168</v>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A9" s="18">
+        <v>41</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44817.973298611098</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>372</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>168</v>
+        <v>373</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>170</v>
+        <v>374</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>172</v>
+        <v>376</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>173</v>
+        <v>372</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+        <v>374</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="10">
+        <v>41</v>
+      </c>
+      <c r="O9" s="10">
+        <f>MOD(N9,10)</f>
+        <v>1</v>
+      </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A10" s="9">
-        <v>44816.901365740698</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>175</v>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A10" s="18">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44816.9081365741</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>179</v>
+        <v>311</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>181</v>
+        <v>313</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>181</v>
+        <v>314</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="L10" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="N10" s="10">
+        <v>31</v>
+      </c>
+      <c r="O10" s="10">
+        <f>MOD(N10,10)</f>
+        <v>1</v>
+      </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A11" s="9">
-        <v>44816.902002314797</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>182</v>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A11" s="18">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44816.904432870397</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+        <v>247</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N11" s="10">
+        <v>21</v>
+      </c>
+      <c r="O11" s="10">
+        <f>MOD(N11,10)</f>
+        <v>1</v>
+      </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A12" s="9">
-        <v>44816.902002314797</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>189</v>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A12" s="18">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44816.899421296301</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N12" s="10">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10">
+        <f>MOD(N12,10)</f>
+        <v>1</v>
+      </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A13" s="9">
-        <v>44816.902106481502</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>198</v>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A13" s="18">
+        <v>32</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44816.908206018503</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>198</v>
+        <v>321</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="L13" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="N13" s="10">
+        <v>32</v>
+      </c>
+      <c r="O13" s="10">
+        <f>MOD(N13,10)</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>451</v>
+      </c>
       <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A14" s="9">
-        <v>44816.902129629598</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>204</v>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A14" s="18">
+        <v>42</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44818.012800925899</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>46</v>
+        <v>379</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>205</v>
+        <v>381</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>206</v>
+        <v>378</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>207</v>
+        <v>382</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+        <v>383</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10">
+        <v>42</v>
+      </c>
+      <c r="O14" s="10">
+        <f>MOD(N14,10)</f>
+        <v>2</v>
+      </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A15" s="9">
-        <v>44816.902141203696</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>208</v>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9">
+        <v>44816.899618055599</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="10">
+        <v>2</v>
+      </c>
+      <c r="O15" s="10">
+        <f>MOD(N15,10)</f>
+        <v>2</v>
+      </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A16" s="9">
-        <v>44816.902199074102</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>214</v>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A16" s="18">
+        <v>22</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44816.904456018499</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+        <v>256</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N16" s="10">
+        <v>22</v>
+      </c>
+      <c r="O16" s="10">
+        <f>MOD(N16,10)</f>
+        <v>2</v>
+      </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A17" s="9">
-        <v>44816.903240740699</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>221</v>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A17" s="18">
+        <v>12</v>
+      </c>
+      <c r="B17" s="9">
+        <v>44816.902106481502</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+        <v>198</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" s="10">
+        <v>12</v>
+      </c>
+      <c r="O17" s="10">
+        <f>MOD(N17,10)</f>
+        <v>2</v>
+      </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A18" s="9">
-        <v>44816.903356481504</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A18" s="18">
+        <v>52</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10">
+        <v>52</v>
+      </c>
+      <c r="O18" s="10">
+        <f>MOD(N18,10)</f>
+        <v>2</v>
+      </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A19" s="9">
-        <v>44816.903657407398</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>233</v>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A19" s="18">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9">
+        <v>44816.9083217593</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>2</v>
+        <v>324</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+        <v>330</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N19" s="10">
+        <v>33</v>
+      </c>
+      <c r="O19" s="10">
+        <f>MOD(N19,10)</f>
+        <v>3</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>452</v>
+      </c>
       <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A20" s="9">
-        <v>44816.903692129599</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>239</v>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A20" s="18">
+        <v>43</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44818.452256944402</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>103</v>
+        <v>384</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>104</v>
+        <v>385</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>102</v>
+        <v>386</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>240</v>
+        <v>387</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>241</v>
+        <v>384</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>242</v>
+        <v>388</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>242</v>
+        <v>389</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>239</v>
+        <v>390</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+        <v>391</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N20" s="10">
+        <v>43</v>
+      </c>
+      <c r="O20" s="10">
+        <f>MOD(N20,10)</f>
+        <v>3</v>
+      </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A21" s="9">
-        <v>44816.903854166703</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>243</v>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A21" s="18">
+        <v>23</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44816.904606481497</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+        <v>257</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N21" s="10">
+        <v>23</v>
+      </c>
+      <c r="O21" s="10">
+        <f>MOD(N21,10)</f>
+        <v>3</v>
+      </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A22" s="9">
-        <v>44816.904432870397</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>247</v>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A22" s="18">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9">
+        <v>44816.902129629598</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>443</v>
+        <v>205</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="10">
+        <v>13</v>
+      </c>
+      <c r="O22" s="10">
+        <f>MOD(N22,10)</f>
+        <v>3</v>
+      </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A23" s="9">
-        <v>44816.904456018499</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>252</v>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A23" s="18">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9">
+        <v>44816.900532407402</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N23" s="10">
+        <v>3</v>
+      </c>
+      <c r="O23" s="10">
+        <f>MOD(N23,10)</f>
+        <v>3</v>
+      </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A24" s="9">
-        <v>44816.904606481497</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A24" s="18">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10">
+        <v>53</v>
+      </c>
+      <c r="O24" s="10">
+        <f>MOD(N24,10)</f>
+        <v>3</v>
+      </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A25" s="9">
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A25" s="18">
+        <v>4</v>
+      </c>
+      <c r="B25" s="9">
+        <v>44816.900798611103</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="10">
+        <v>4</v>
+      </c>
+      <c r="O25" s="10">
+        <f>MOD(N25,10)</f>
+        <v>4</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A26" s="18">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
         <v>44816.904733796298</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="J26" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K26" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="L26" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="M26" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A26" s="9">
-        <v>44816.904895833301</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="N26" s="10">
+        <v>24</v>
+      </c>
+      <c r="O26" s="10">
+        <f>MOD(N26,10)</f>
+        <v>4</v>
+      </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A27" s="9">
-        <v>44816.9055324074</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>277</v>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A27" s="18">
+        <v>44</v>
+      </c>
+      <c r="B27" s="9">
+        <v>44818.559421296297</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>91</v>
+        <v>392</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>92</v>
+        <v>393</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>278</v>
+        <v>394</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>279</v>
+        <v>395</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>280</v>
+        <v>396</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>277</v>
+        <v>398</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>279</v>
+        <v>392</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+        <v>396</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N27" s="10">
+        <v>44</v>
+      </c>
+      <c r="O27" s="10">
+        <f>MOD(N27,10)</f>
+        <v>4</v>
+      </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A28" s="9">
-        <v>44816.9061111111</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>282</v>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A28" s="18">
+        <v>34</v>
+      </c>
+      <c r="B28" s="9">
+        <v>44816.909525463001</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>63</v>
+        <v>331</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>283</v>
+        <v>113</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+        <v>331</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N28" s="10">
+        <v>34</v>
+      </c>
+      <c r="O28" s="10">
+        <f>MOD(N28,10)</f>
+        <v>4</v>
+      </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A29" s="9">
-        <v>44816.906689814801</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>289</v>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A29" s="18">
+        <v>14</v>
+      </c>
+      <c r="B29" s="9">
+        <v>44816.902141203696</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>293</v>
+        <v>211</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="L29" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="N29" s="10">
+        <v>14</v>
+      </c>
+      <c r="O29" s="10">
+        <f>MOD(N29,10)</f>
+        <v>4</v>
+      </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A30" s="9">
-        <v>44816.906886574099</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A30" s="18">
+        <v>54</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10">
+        <v>54</v>
+      </c>
+      <c r="O30" s="10">
+        <f>MOD(N30,10)</f>
+        <v>4</v>
+      </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A31" s="9">
-        <v>44816.906944444498</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>300</v>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A31" s="18">
+        <v>5</v>
+      </c>
+      <c r="B31" s="9">
+        <v>44816.900798611103</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>301</v>
+        <v>150</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>302</v>
+        <v>10</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>303</v>
+        <v>29</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>304</v>
+        <v>151</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="N31" s="10">
+        <v>5</v>
+      </c>
+      <c r="O31" s="10">
+        <f>MOD(N31,10)</f>
+        <v>5</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A32" s="9">
-        <v>44816.9081365741</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>308</v>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A32" s="18">
+        <v>15</v>
+      </c>
+      <c r="B32" s="9">
+        <v>44816.902199074102</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+        <v>214</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" s="10">
+        <v>15</v>
+      </c>
+      <c r="O32" s="10">
+        <f>MOD(N32,10)</f>
+        <v>5</v>
+      </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-    </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A33" s="9">
-        <v>44816.908206018503</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>315</v>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A33" s="18">
+        <v>25</v>
+      </c>
+      <c r="B33" s="9">
+        <v>44816.904895833301</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>317</v>
+        <v>71</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>318</v>
+        <v>35</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="L33" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="N33" s="10">
+        <v>25</v>
+      </c>
+      <c r="O33" s="10">
+        <f>MOD(N33,10)</f>
+        <v>5</v>
+      </c>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-    </row>
-    <row r="34" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A34" s="9">
-        <v>44816.9083217593</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>323</v>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A34" s="18">
+        <v>45</v>
+      </c>
+      <c r="B34" s="9">
+        <v>44818.816273148201</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>326</v>
+        <v>33</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>323</v>
+        <v>400</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+        <v>404</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N34" s="10">
+        <v>45</v>
+      </c>
+      <c r="O34" s="10">
+        <f>MOD(N34,10)</f>
+        <v>5</v>
+      </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-    </row>
-    <row r="35" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A35" s="9">
-        <v>44816.909525463001</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>331</v>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A35" s="18">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9">
+        <v>44816.909907407397</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>332</v>
+        <v>88</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+        <v>339</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N35" s="10">
+        <v>35</v>
+      </c>
+      <c r="O35" s="10">
+        <f>MOD(N35,10)</f>
+        <v>5</v>
+      </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A36" s="9">
-        <v>44816.909907407397</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A36" s="18">
+        <v>55</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10">
+        <v>55</v>
+      </c>
+      <c r="O36" s="10">
+        <f>MOD(N36,10)</f>
+        <v>5</v>
+      </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-    </row>
-    <row r="37" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A37" s="9">
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A37" s="18">
+        <v>46</v>
+      </c>
+      <c r="B37" s="9">
+        <v>44818.831111111103</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N37" s="10">
+        <v>46</v>
+      </c>
+      <c r="O37" s="10">
+        <f>MOD(N37,10)</f>
+        <v>6</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+    </row>
+    <row r="38" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A38" s="18">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9">
         <v>44816.924826388902</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="J38" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="K38" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="L38" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="M38" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-    </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A38" s="9">
-        <v>44816.935821759304</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
+      <c r="N38" s="10">
+        <v>36</v>
+      </c>
+      <c r="O38" s="10">
+        <f>MOD(N38,10)</f>
+        <v>6</v>
+      </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-    </row>
-    <row r="39" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A39" s="9">
-        <v>44817.345902777801</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>350</v>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A39" s="18">
+        <v>6</v>
+      </c>
+      <c r="B39" s="9">
+        <v>44816.9008217593</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>351</v>
+        <v>156</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>350</v>
+        <v>157</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>353</v>
+        <v>156</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>354</v>
+        <v>158</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>355</v>
+        <v>159</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>350</v>
+        <v>159</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="L39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="N39" s="10">
+        <v>6</v>
+      </c>
+      <c r="O39" s="10">
+        <f>MOD(N39,10)</f>
+        <v>6</v>
+      </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A40" s="9">
-        <v>44817.728460648199</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>357</v>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A40" s="18">
+        <v>26</v>
+      </c>
+      <c r="B40" s="9">
+        <v>44816.9055324074</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>358</v>
+        <v>277</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>359</v>
+        <v>91</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>360</v>
+        <v>92</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>361</v>
+        <v>281</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="N40" s="10">
+        <v>26</v>
+      </c>
+      <c r="O40" s="10">
+        <f>MOD(N40,10)</f>
+        <v>6</v>
+      </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A41" s="9">
-        <v>44817.857048611098</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>365</v>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A41" s="18">
+        <v>16</v>
+      </c>
+      <c r="B41" s="9">
+        <v>44816.903240740699</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>366</v>
+        <v>221</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>367</v>
+        <v>222</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>368</v>
+        <v>64</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>369</v>
+        <v>221</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10">
+        <v>16</v>
+      </c>
+      <c r="O41" s="10">
+        <f>MOD(N41,10)</f>
+        <v>6</v>
+      </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A42" s="9">
-        <v>44817.973298611098</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A42" s="18">
+        <v>56</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10">
+        <v>56</v>
+      </c>
+      <c r="O42" s="10">
+        <f>MOD(N42,10)</f>
+        <v>6</v>
+      </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A43" s="9">
-        <v>44818.012800925899</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>378</v>
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A43" s="18">
+        <v>47</v>
+      </c>
+      <c r="B43" s="9">
+        <v>44819.458912037</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>380</v>
+        <v>85</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>381</v>
+        <v>86</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
+        <v>412</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N43" s="10">
+        <v>47</v>
+      </c>
+      <c r="O43" s="10">
+        <f>MOD(N43,10)</f>
+        <v>7</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A44" s="9">
-        <v>44818.452256944402</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>384</v>
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A44" s="18">
+        <v>17</v>
+      </c>
+      <c r="B44" s="9">
+        <v>44816.903356481504</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>385</v>
+        <v>227</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>386</v>
+        <v>63</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>387</v>
+        <v>64</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>384</v>
+        <v>228</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>388</v>
+        <v>229</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>390</v>
+        <v>231</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>384</v>
+        <v>231</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>391</v>
+        <v>227</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
+        <v>232</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N44" s="10">
+        <v>17</v>
+      </c>
+      <c r="O44" s="10">
+        <f>MOD(N44,10)</f>
+        <v>7</v>
+      </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
-    </row>
-    <row r="45" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A45" s="9">
-        <v>44818.559421296297</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>392</v>
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A45" s="18">
+        <v>27</v>
+      </c>
+      <c r="B45" s="9">
+        <v>44816.9061111111</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>393</v>
+        <v>282</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>394</v>
+        <v>63</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>395</v>
+        <v>283</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>396</v>
+        <v>284</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>397</v>
+        <v>282</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>398</v>
+        <v>285</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>398</v>
+        <v>286</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>396</v>
+        <v>282</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
+        <v>288</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N45" s="10">
+        <v>27</v>
+      </c>
+      <c r="O45" s="10">
+        <f>MOD(N45,10)</f>
+        <v>7</v>
+      </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A46" s="9">
-        <v>44818.816273148201</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>399</v>
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A46" s="18">
+        <v>7</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44816.900902777801</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>400</v>
+        <v>163</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>399</v>
+        <v>164</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>401</v>
+        <v>161</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>402</v>
+        <v>165</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>403</v>
+        <v>166</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>399</v>
+        <v>166</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>404</v>
+        <v>161</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+        <v>167</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N46" s="10">
+        <v>7</v>
+      </c>
+      <c r="O46" s="10">
+        <f>MOD(N46,10)</f>
+        <v>7</v>
+      </c>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
-    </row>
-    <row r="47" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A47" s="9">
-        <v>44818.831111111103</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>405</v>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A47" s="18">
+        <v>37</v>
+      </c>
+      <c r="B47" s="9">
+        <v>44816.935821759304</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>407</v>
+        <v>73</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>408</v>
+        <v>74</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+        <v>347</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N47" s="10">
+        <v>37</v>
+      </c>
+      <c r="O47" s="10">
+        <f>MOD(N47,10)</f>
+        <v>7</v>
+      </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
-    </row>
-    <row r="48" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A48" s="9">
-        <v>44819.458912037</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>412</v>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A48" s="18">
+        <v>38</v>
+      </c>
+      <c r="B48" s="9">
+        <v>44817.345902777801</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>416</v>
+        <v>350</v>
       </c>
       <c r="L48" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="M48" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
+      <c r="N48" s="10">
+        <v>38</v>
+      </c>
+      <c r="O48" s="10">
+        <f>MOD(N48,10)</f>
+        <v>8</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>458</v>
+      </c>
       <c r="Q48" s="8"/>
-    </row>
-    <row r="49" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A49" s="9">
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A49" s="18">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9">
         <v>44819.794398148202</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="F49" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="I49" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="J49" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="K49" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="L49" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="M49" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="N49" s="10">
+        <v>48</v>
+      </c>
+      <c r="O49" s="10">
+        <f>MOD(N49,10)</f>
+        <v>8</v>
+      </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
-    </row>
-    <row r="50" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A50" s="9">
-        <v>44819.812349537002</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>422</v>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A50" s="18">
+        <v>8</v>
+      </c>
+      <c r="B50" s="9">
+        <v>44816.900972222204</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>423</v>
+        <v>168</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>424</v>
+        <v>25</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>425</v>
+        <v>26</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>426</v>
+        <v>169</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>427</v>
+        <v>168</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>428</v>
+        <v>170</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>427</v>
+        <v>171</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>422</v>
+        <v>172</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>429</v>
+        <v>168</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="N50" s="10">
+        <v>8</v>
+      </c>
+      <c r="O50" s="10">
+        <f>MOD(N50,10)</f>
+        <v>8</v>
+      </c>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
-    </row>
-    <row r="51" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A51" s="9">
-        <v>44819.851585648103</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>430</v>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A51" s="18">
+        <v>18</v>
+      </c>
+      <c r="B51" s="9">
+        <v>44816.903657407398</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>431</v>
+        <v>233</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>432</v>
+        <v>67</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>433</v>
+        <v>2</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>430</v>
+        <v>234</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>434</v>
+        <v>233</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>430</v>
+        <v>235</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>430</v>
+        <v>236</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>430</v>
+        <v>237</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>435</v>
+        <v>233</v>
       </c>
       <c r="L51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="M51" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="N51" s="10">
+        <v>18</v>
+      </c>
+      <c r="O51" s="10">
+        <f>MOD(N51,10)</f>
+        <v>8</v>
+      </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
-    </row>
-    <row r="52" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A52" s="16">
-        <v>44825.443055555559</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A52" s="18">
+        <v>28</v>
+      </c>
+      <c r="B52" s="9">
+        <v>44816.906689814801</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N52" s="10">
+        <v>28</v>
+      </c>
+      <c r="O52" s="10">
+        <f>MOD(N52,10)</f>
+        <v>8</v>
+      </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
-    </row>
-    <row r="53" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A53" s="18">
+        <v>49</v>
+      </c>
+      <c r="B53" s="9">
+        <v>44819.812349537002</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N53" s="10">
+        <v>49</v>
+      </c>
+      <c r="O53" s="10">
+        <f>MOD(N53,10)</f>
+        <v>9</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="Q53" s="8"/>
-    </row>
-    <row r="54" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A54" s="18">
+        <v>19</v>
+      </c>
+      <c r="B54" s="9">
+        <v>44816.903692129599</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N54" s="10">
+        <v>19</v>
+      </c>
+      <c r="O54" s="10">
+        <f>MOD(N54,10)</f>
+        <v>9</v>
+      </c>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
-    </row>
-    <row r="55" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A55" s="18">
+        <v>39</v>
+      </c>
+      <c r="B55" s="9">
+        <v>44817.728460648199</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N55" s="10">
+        <v>39</v>
+      </c>
+      <c r="O55" s="10">
+        <f>MOD(N55,10)</f>
+        <v>9</v>
+      </c>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
-    </row>
-    <row r="56" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
+      <c r="R55" s="8"/>
+    </row>
+    <row r="56" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A56" s="18">
+        <v>9</v>
+      </c>
+      <c r="B56" s="9">
+        <v>44816.901365740698</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N56" s="10">
+        <v>9</v>
+      </c>
+      <c r="O56" s="10">
+        <f>MOD(N56,10)</f>
+        <v>9</v>
+      </c>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
-    </row>
-    <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
+      <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A57" s="18">
+        <v>29</v>
+      </c>
+      <c r="B57" s="9">
+        <v>44816.906886574099</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N57" s="10">
+        <v>29</v>
+      </c>
+      <c r="O57" s="10">
+        <f>MOD(N57,10)</f>
+        <v>9</v>
+      </c>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
-    </row>
-    <row r="58" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="8"/>
+      <c r="R57" s="8"/>
+    </row>
+    <row r="58" spans="1:18" ht="18.75" customHeight="1">
+      <c r="B58" s="11"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -4896,10 +5417,10 @@
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
-    </row>
-    <row r="59" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="8"/>
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="1:18" ht="18.75" customHeight="1">
+      <c r="B59" s="11"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -4915,10 +5436,10 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
-    </row>
-    <row r="60" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="8"/>
+      <c r="R59" s="8"/>
+    </row>
+    <row r="60" spans="1:18" ht="18.75" customHeight="1">
+      <c r="B60" s="11"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -4934,10 +5455,10 @@
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
-    </row>
-    <row r="61" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="8"/>
+      <c r="R60" s="8"/>
+    </row>
+    <row r="61" spans="1:18" ht="18.75" customHeight="1">
+      <c r="B61" s="11"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -4953,10 +5474,10 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
-    </row>
-    <row r="62" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="8"/>
+      <c r="R61" s="8"/>
+    </row>
+    <row r="62" spans="1:18" ht="18.75" customHeight="1">
+      <c r="B62" s="11"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -4972,10 +5493,10 @@
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
-    </row>
-    <row r="63" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="8"/>
+      <c r="R62" s="8"/>
+    </row>
+    <row r="63" spans="1:18" ht="18.75" customHeight="1">
+      <c r="B63" s="11"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -4991,10 +5512,10 @@
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
-    </row>
-    <row r="64" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="8"/>
+      <c r="R63" s="8"/>
+    </row>
+    <row r="64" spans="1:18" ht="18.75" customHeight="1">
+      <c r="B64" s="11"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -5010,10 +5531,10 @@
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
-    </row>
-    <row r="65" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A65" s="11"/>
-      <c r="B65" s="8"/>
+      <c r="R64" s="8"/>
+    </row>
+    <row r="65" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B65" s="11"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -5029,10 +5550,10 @@
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
-    </row>
-    <row r="66" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="8"/>
+      <c r="R65" s="8"/>
+    </row>
+    <row r="66" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B66" s="11"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -5048,10 +5569,10 @@
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
-    </row>
-    <row r="67" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="8"/>
+      <c r="R66" s="8"/>
+    </row>
+    <row r="67" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B67" s="11"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -5067,10 +5588,10 @@
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
-    </row>
-    <row r="68" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="8"/>
+      <c r="R67" s="8"/>
+    </row>
+    <row r="68" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B68" s="11"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -5086,10 +5607,10 @@
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
-    </row>
-    <row r="69" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="8"/>
+      <c r="R68" s="8"/>
+    </row>
+    <row r="69" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B69" s="11"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -5105,10 +5626,10 @@
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
-    </row>
-    <row r="70" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A70" s="11"/>
-      <c r="B70" s="8"/>
+      <c r="R69" s="8"/>
+    </row>
+    <row r="70" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B70" s="11"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -5124,10 +5645,10 @@
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
-    </row>
-    <row r="71" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="8"/>
+      <c r="R70" s="8"/>
+    </row>
+    <row r="71" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B71" s="11"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -5143,10 +5664,10 @@
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
-    </row>
-    <row r="72" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="8"/>
+      <c r="R71" s="8"/>
+    </row>
+    <row r="72" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B72" s="11"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -5162,10 +5683,10 @@
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
-    </row>
-    <row r="73" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="8"/>
+      <c r="R72" s="8"/>
+    </row>
+    <row r="73" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B73" s="11"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -5181,10 +5702,10 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
-    </row>
-    <row r="74" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="8"/>
+      <c r="R73" s="8"/>
+    </row>
+    <row r="74" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B74" s="11"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -5200,10 +5721,10 @@
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
-    </row>
-    <row r="75" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="8"/>
+      <c r="R74" s="8"/>
+    </row>
+    <row r="75" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B75" s="11"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -5219,10 +5740,10 @@
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="8"/>
+      <c r="R75" s="8"/>
+    </row>
+    <row r="76" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B76" s="11"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -5238,10 +5759,10 @@
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
-    </row>
-    <row r="77" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="8"/>
+      <c r="R76" s="8"/>
+    </row>
+    <row r="77" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B77" s="11"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -5257,10 +5778,10 @@
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="8"/>
+      <c r="R77" s="8"/>
+    </row>
+    <row r="78" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B78" s="11"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -5276,10 +5797,10 @@
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="8"/>
+      <c r="R78" s="8"/>
+    </row>
+    <row r="79" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B79" s="11"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -5295,10 +5816,10 @@
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
-    </row>
-    <row r="80" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="8"/>
+      <c r="R79" s="8"/>
+    </row>
+    <row r="80" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B80" s="11"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -5314,10 +5835,10 @@
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
-    </row>
-    <row r="81" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="8"/>
+      <c r="R80" s="8"/>
+    </row>
+    <row r="81" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B81" s="11"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -5333,10 +5854,10 @@
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
-    </row>
-    <row r="82" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="8"/>
+      <c r="R81" s="8"/>
+    </row>
+    <row r="82" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B82" s="11"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -5352,10 +5873,10 @@
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
-    </row>
-    <row r="83" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="8"/>
+      <c r="R82" s="8"/>
+    </row>
+    <row r="83" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B83" s="11"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -5371,10 +5892,10 @@
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
-    </row>
-    <row r="84" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="8"/>
+      <c r="R83" s="8"/>
+    </row>
+    <row r="84" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B84" s="11"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -5390,10 +5911,10 @@
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
-    </row>
-    <row r="85" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="8"/>
+      <c r="R84" s="8"/>
+    </row>
+    <row r="85" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B85" s="11"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -5409,10 +5930,10 @@
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
-    </row>
-    <row r="86" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="8"/>
+      <c r="R85" s="8"/>
+    </row>
+    <row r="86" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B86" s="11"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -5428,10 +5949,10 @@
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
-    </row>
-    <row r="87" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A87" s="11"/>
-      <c r="B87" s="8"/>
+      <c r="R86" s="8"/>
+    </row>
+    <row r="87" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B87" s="11"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -5447,10 +5968,10 @@
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
-    </row>
-    <row r="88" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A88" s="11"/>
-      <c r="B88" s="8"/>
+      <c r="R87" s="8"/>
+    </row>
+    <row r="88" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B88" s="11"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -5466,10 +5987,10 @@
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
-    </row>
-    <row r="89" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="8"/>
+      <c r="R88" s="8"/>
+    </row>
+    <row r="89" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B89" s="11"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -5485,10 +6006,10 @@
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
-    </row>
-    <row r="90" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A90" s="11"/>
-      <c r="B90" s="8"/>
+      <c r="R89" s="8"/>
+    </row>
+    <row r="90" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B90" s="11"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -5504,10 +6025,10 @@
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
-    </row>
-    <row r="91" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="8"/>
+      <c r="R90" s="8"/>
+    </row>
+    <row r="91" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B91" s="11"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -5523,10 +6044,10 @@
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
-    </row>
-    <row r="92" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="8"/>
+      <c r="R91" s="8"/>
+    </row>
+    <row r="92" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B92" s="11"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -5542,10 +6063,10 @@
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
-    </row>
-    <row r="93" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A93" s="11"/>
-      <c r="B93" s="8"/>
+      <c r="R92" s="8"/>
+    </row>
+    <row r="93" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B93" s="11"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -5561,10 +6082,10 @@
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
-    </row>
-    <row r="94" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A94" s="11"/>
-      <c r="B94" s="8"/>
+      <c r="R93" s="8"/>
+    </row>
+    <row r="94" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B94" s="11"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -5580,10 +6101,10 @@
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
-    </row>
-    <row r="95" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A95" s="11"/>
-      <c r="B95" s="8"/>
+      <c r="R94" s="8"/>
+    </row>
+    <row r="95" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B95" s="11"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -5599,10 +6120,10 @@
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
-    </row>
-    <row r="96" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="8"/>
+      <c r="R95" s="8"/>
+    </row>
+    <row r="96" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B96" s="11"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -5618,10 +6139,10 @@
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
-    </row>
-    <row r="97" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="8"/>
+      <c r="R96" s="8"/>
+    </row>
+    <row r="97" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B97" s="11"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -5637,10 +6158,10 @@
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
-    </row>
-    <row r="98" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="8"/>
+      <c r="R97" s="8"/>
+    </row>
+    <row r="98" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B98" s="11"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -5656,10 +6177,10 @@
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
-    </row>
-    <row r="99" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="8"/>
+      <c r="R98" s="8"/>
+    </row>
+    <row r="99" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B99" s="11"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -5675,10 +6196,10 @@
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
-    </row>
-    <row r="100" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="8"/>
+      <c r="R99" s="8"/>
+    </row>
+    <row r="100" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B100" s="11"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -5694,10 +6215,10 @@
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
-    </row>
-    <row r="101" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="8"/>
+      <c r="R100" s="8"/>
+    </row>
+    <row r="101" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B101" s="11"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -5713,10 +6234,10 @@
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
-    </row>
-    <row r="102" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="8"/>
+      <c r="R101" s="8"/>
+    </row>
+    <row r="102" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B102" s="11"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -5732,10 +6253,10 @@
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
-    </row>
-    <row r="103" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="8"/>
+      <c r="R102" s="8"/>
+    </row>
+    <row r="103" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B103" s="11"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -5751,10 +6272,10 @@
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
-    </row>
-    <row r="104" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="8"/>
+      <c r="R103" s="8"/>
+    </row>
+    <row r="104" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B104" s="11"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -5770,10 +6291,10 @@
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
-    </row>
-    <row r="105" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A105" s="11"/>
-      <c r="B105" s="8"/>
+      <c r="R104" s="8"/>
+    </row>
+    <row r="105" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B105" s="11"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5789,10 +6310,10 @@
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
-    </row>
-    <row r="106" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A106" s="11"/>
-      <c r="B106" s="8"/>
+      <c r="R105" s="8"/>
+    </row>
+    <row r="106" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B106" s="11"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5808,10 +6329,10 @@
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
-    </row>
-    <row r="107" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A107" s="11"/>
-      <c r="B107" s="8"/>
+      <c r="R106" s="8"/>
+    </row>
+    <row r="107" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B107" s="11"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5827,10 +6348,10 @@
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
-    </row>
-    <row r="108" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A108" s="11"/>
-      <c r="B108" s="8"/>
+      <c r="R107" s="8"/>
+    </row>
+    <row r="108" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B108" s="11"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5846,10 +6367,10 @@
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
-    </row>
-    <row r="109" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A109" s="11"/>
-      <c r="B109" s="8"/>
+      <c r="R108" s="8"/>
+    </row>
+    <row r="109" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B109" s="11"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5865,10 +6386,10 @@
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
-    </row>
-    <row r="110" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A110" s="11"/>
-      <c r="B110" s="8"/>
+      <c r="R109" s="8"/>
+    </row>
+    <row r="110" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B110" s="11"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5884,10 +6405,10 @@
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
-    </row>
-    <row r="111" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A111" s="11"/>
-      <c r="B111" s="8"/>
+      <c r="R110" s="8"/>
+    </row>
+    <row r="111" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B111" s="11"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5903,10 +6424,10 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
-    </row>
-    <row r="112" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A112" s="11"/>
-      <c r="B112" s="8"/>
+      <c r="R111" s="8"/>
+    </row>
+    <row r="112" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B112" s="11"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5922,10 +6443,10 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
-    </row>
-    <row r="113" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A113" s="11"/>
-      <c r="B113" s="8"/>
+      <c r="R112" s="8"/>
+    </row>
+    <row r="113" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B113" s="11"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5941,10 +6462,10 @@
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
-    </row>
-    <row r="114" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A114" s="11"/>
-      <c r="B114" s="8"/>
+      <c r="R113" s="8"/>
+    </row>
+    <row r="114" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B114" s="11"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5960,10 +6481,10 @@
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
-    </row>
-    <row r="115" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="8"/>
+      <c r="R114" s="8"/>
+    </row>
+    <row r="115" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B115" s="11"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5979,10 +6500,10 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
-    </row>
-    <row r="116" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A116" s="11"/>
-      <c r="B116" s="8"/>
+      <c r="R115" s="8"/>
+    </row>
+    <row r="116" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B116" s="11"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5998,10 +6519,10 @@
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
-    </row>
-    <row r="117" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A117" s="11"/>
-      <c r="B117" s="8"/>
+      <c r="R116" s="8"/>
+    </row>
+    <row r="117" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B117" s="11"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -6017,10 +6538,10 @@
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
-    </row>
-    <row r="118" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A118" s="11"/>
-      <c r="B118" s="8"/>
+      <c r="R117" s="8"/>
+    </row>
+    <row r="118" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B118" s="11"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -6036,10 +6557,10 @@
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
-    </row>
-    <row r="119" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A119" s="11"/>
-      <c r="B119" s="8"/>
+      <c r="R118" s="8"/>
+    </row>
+    <row r="119" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B119" s="11"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -6055,10 +6576,10 @@
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
-    </row>
-    <row r="120" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A120" s="11"/>
-      <c r="B120" s="8"/>
+      <c r="R119" s="8"/>
+    </row>
+    <row r="120" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B120" s="11"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -6074,10 +6595,10 @@
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
-    </row>
-    <row r="121" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A121" s="11"/>
-      <c r="B121" s="8"/>
+      <c r="R120" s="8"/>
+    </row>
+    <row r="121" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B121" s="11"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -6093,10 +6614,10 @@
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
-    </row>
-    <row r="122" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A122" s="11"/>
-      <c r="B122" s="8"/>
+      <c r="R121" s="8"/>
+    </row>
+    <row r="122" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B122" s="11"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -6112,10 +6633,10 @@
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
-    </row>
-    <row r="123" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A123" s="11"/>
-      <c r="B123" s="8"/>
+      <c r="R122" s="8"/>
+    </row>
+    <row r="123" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B123" s="11"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -6131,10 +6652,10 @@
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
-    </row>
-    <row r="124" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A124" s="11"/>
-      <c r="B124" s="8"/>
+      <c r="R123" s="8"/>
+    </row>
+    <row r="124" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B124" s="11"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -6150,10 +6671,10 @@
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
-    </row>
-    <row r="125" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A125" s="11"/>
-      <c r="B125" s="8"/>
+      <c r="R124" s="8"/>
+    </row>
+    <row r="125" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B125" s="11"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -6169,10 +6690,10 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
-    </row>
-    <row r="126" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A126" s="11"/>
-      <c r="B126" s="8"/>
+      <c r="R125" s="8"/>
+    </row>
+    <row r="126" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B126" s="11"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -6188,10 +6709,10 @@
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
-    </row>
-    <row r="127" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A127" s="11"/>
-      <c r="B127" s="8"/>
+      <c r="R126" s="8"/>
+    </row>
+    <row r="127" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B127" s="11"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -6207,10 +6728,10 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
-    </row>
-    <row r="128" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A128" s="11"/>
-      <c r="B128" s="8"/>
+      <c r="R127" s="8"/>
+    </row>
+    <row r="128" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B128" s="11"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -6226,10 +6747,10 @@
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
-    </row>
-    <row r="129" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A129" s="11"/>
-      <c r="B129" s="8"/>
+      <c r="R128" s="8"/>
+    </row>
+    <row r="129" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B129" s="11"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -6245,10 +6766,10 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
-    </row>
-    <row r="130" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A130" s="11"/>
-      <c r="B130" s="8"/>
+      <c r="R129" s="8"/>
+    </row>
+    <row r="130" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B130" s="11"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -6264,10 +6785,10 @@
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
-    </row>
-    <row r="131" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A131" s="11"/>
-      <c r="B131" s="8"/>
+      <c r="R130" s="8"/>
+    </row>
+    <row r="131" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B131" s="11"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -6283,10 +6804,10 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
-    </row>
-    <row r="132" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A132" s="11"/>
-      <c r="B132" s="8"/>
+      <c r="R131" s="8"/>
+    </row>
+    <row r="132" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B132" s="11"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -6302,10 +6823,10 @@
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
-    </row>
-    <row r="133" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A133" s="11"/>
-      <c r="B133" s="8"/>
+      <c r="R132" s="8"/>
+    </row>
+    <row r="133" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B133" s="11"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -6321,10 +6842,10 @@
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
       <c r="Q133" s="8"/>
-    </row>
-    <row r="134" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A134" s="11"/>
-      <c r="B134" s="8"/>
+      <c r="R133" s="8"/>
+    </row>
+    <row r="134" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B134" s="11"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -6340,10 +6861,10 @@
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
       <c r="Q134" s="8"/>
-    </row>
-    <row r="135" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A135" s="11"/>
-      <c r="B135" s="8"/>
+      <c r="R134" s="8"/>
+    </row>
+    <row r="135" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B135" s="11"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6359,10 +6880,10 @@
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
       <c r="Q135" s="8"/>
-    </row>
-    <row r="136" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A136" s="11"/>
-      <c r="B136" s="8"/>
+      <c r="R135" s="8"/>
+    </row>
+    <row r="136" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B136" s="11"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6378,10 +6899,10 @@
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
-    </row>
-    <row r="137" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A137" s="11"/>
-      <c r="B137" s="8"/>
+      <c r="R136" s="8"/>
+    </row>
+    <row r="137" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B137" s="11"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6397,10 +6918,10 @@
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
-    </row>
-    <row r="138" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A138" s="11"/>
-      <c r="B138" s="8"/>
+      <c r="R137" s="8"/>
+    </row>
+    <row r="138" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B138" s="11"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6416,10 +6937,10 @@
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
       <c r="Q138" s="8"/>
-    </row>
-    <row r="139" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A139" s="11"/>
-      <c r="B139" s="8"/>
+      <c r="R138" s="8"/>
+    </row>
+    <row r="139" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B139" s="11"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6435,10 +6956,10 @@
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
-    </row>
-    <row r="140" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A140" s="11"/>
-      <c r="B140" s="8"/>
+      <c r="R139" s="8"/>
+    </row>
+    <row r="140" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B140" s="11"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6454,10 +6975,10 @@
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
-    </row>
-    <row r="141" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A141" s="11"/>
-      <c r="B141" s="8"/>
+      <c r="R140" s="8"/>
+    </row>
+    <row r="141" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B141" s="11"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6473,10 +6994,10 @@
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
-    </row>
-    <row r="142" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A142" s="11"/>
-      <c r="B142" s="8"/>
+      <c r="R141" s="8"/>
+    </row>
+    <row r="142" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B142" s="11"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6492,10 +7013,10 @@
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
       <c r="Q142" s="8"/>
-    </row>
-    <row r="143" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A143" s="11"/>
-      <c r="B143" s="8"/>
+      <c r="R142" s="8"/>
+    </row>
+    <row r="143" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B143" s="11"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6511,10 +7032,10 @@
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
-    </row>
-    <row r="144" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A144" s="11"/>
-      <c r="B144" s="8"/>
+      <c r="R143" s="8"/>
+    </row>
+    <row r="144" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B144" s="11"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -6530,10 +7051,10 @@
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
       <c r="Q144" s="8"/>
-    </row>
-    <row r="145" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A145" s="11"/>
-      <c r="B145" s="8"/>
+      <c r="R144" s="8"/>
+    </row>
+    <row r="145" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B145" s="11"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -6549,10 +7070,10 @@
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
       <c r="Q145" s="8"/>
-    </row>
-    <row r="146" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A146" s="11"/>
-      <c r="B146" s="8"/>
+      <c r="R145" s="8"/>
+    </row>
+    <row r="146" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B146" s="11"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
@@ -6568,10 +7089,10 @@
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
       <c r="Q146" s="8"/>
-    </row>
-    <row r="147" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A147" s="11"/>
-      <c r="B147" s="8"/>
+      <c r="R146" s="8"/>
+    </row>
+    <row r="147" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B147" s="11"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -6587,10 +7108,10 @@
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
-    </row>
-    <row r="148" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A148" s="11"/>
-      <c r="B148" s="8"/>
+      <c r="R147" s="8"/>
+    </row>
+    <row r="148" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B148" s="11"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -6606,10 +7127,10 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
-    </row>
-    <row r="149" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A149" s="11"/>
-      <c r="B149" s="8"/>
+      <c r="R148" s="8"/>
+    </row>
+    <row r="149" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B149" s="11"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -6625,10 +7146,10 @@
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
-    </row>
-    <row r="150" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A150" s="11"/>
-      <c r="B150" s="8"/>
+      <c r="R149" s="8"/>
+    </row>
+    <row r="150" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B150" s="11"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -6644,10 +7165,10 @@
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
       <c r="Q150" s="8"/>
-    </row>
-    <row r="151" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A151" s="11"/>
-      <c r="B151" s="8"/>
+      <c r="R150" s="8"/>
+    </row>
+    <row r="151" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B151" s="11"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -6663,11 +7184,16 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
+      <c r="R151" s="8"/>
     </row>
   </sheetData>
+  <sortState ref="A2:O57">
+    <sortCondition ref="O2:O57"/>
+    <sortCondition ref="D2:D57"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="K22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="L11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86988BDA-1407-174D-9F51-2C3BD07C37C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8638878C-ACAA-9445-B7FC-6EA603955EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="462">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1372,12 +1372,6 @@
     <t>Plinio Alex Gonzalo Quipe</t>
   </si>
   <si>
-    <t>Usuario 55</t>
-  </si>
-  <si>
-    <t>Usuario 56</t>
-  </si>
-  <si>
     <t>Grupo</t>
   </si>
   <si>
@@ -1406,6 +1400,18 @@
   </si>
   <si>
     <t>Presentacion Operaciones con usuarios</t>
+  </si>
+  <si>
+    <t>STEFANIA CHOQUE APAZA</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO CANQUI OROSCO</t>
+  </si>
+  <si>
+    <t>ROLANDO LISARASO ARNEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Uria </t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1503,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1520,12 +1526,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1575,6 +1629,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2575,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53:P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2636,7 +2711,7 @@
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
@@ -2690,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -2742,7 +2817,9 @@
         <f>MOD(N3,10)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="P3" s="8" t="s">
+        <v>453</v>
+      </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
@@ -2791,7 +2868,9 @@
         <f>MOD(N4,10)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>453</v>
+      </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
@@ -2840,7 +2919,9 @@
         <f>MOD(N5,10)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>453</v>
+      </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
@@ -2891,7 +2972,9 @@
         <f>MOD(N6,10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="P6" s="8" t="s">
+        <v>453</v>
+      </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
@@ -2942,7 +3025,9 @@
         <f>MOD(N7,10)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="8"/>
+      <c r="P7" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
@@ -2994,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -3046,7 +3131,9 @@
         <f>MOD(N9,10)</f>
         <v>1</v>
       </c>
-      <c r="P9" s="8"/>
+      <c r="P9" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
@@ -3097,7 +3184,9 @@
         <f>MOD(N10,10)</f>
         <v>1</v>
       </c>
-      <c r="P10" s="8"/>
+      <c r="P10" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
@@ -3148,7 +3237,9 @@
         <f>MOD(N11,10)</f>
         <v>1</v>
       </c>
-      <c r="P11" s="8"/>
+      <c r="P11" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
@@ -3199,7 +3290,9 @@
         <f>MOD(N12,10)</f>
         <v>1</v>
       </c>
-      <c r="P12" s="8"/>
+      <c r="P12" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
@@ -3251,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -3301,7 +3394,9 @@
         <f>MOD(N14,10)</f>
         <v>2</v>
       </c>
-      <c r="P14" s="8"/>
+      <c r="P14" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
@@ -3352,7 +3447,9 @@
         <f>MOD(N15,10)</f>
         <v>2</v>
       </c>
-      <c r="P15" s="8"/>
+      <c r="P15" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
@@ -3403,7 +3500,9 @@
         <f>MOD(N16,10)</f>
         <v>2</v>
       </c>
-      <c r="P16" s="8"/>
+      <c r="P16" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
@@ -3454,7 +3553,9 @@
         <f>MOD(N17,10)</f>
         <v>2</v>
       </c>
-      <c r="P17" s="8"/>
+      <c r="P17" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
@@ -3483,7 +3584,9 @@
         <f>MOD(N18,10)</f>
         <v>2</v>
       </c>
-      <c r="P18" s="8"/>
+      <c r="P18" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
@@ -3535,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -3587,7 +3690,9 @@
         <f>MOD(N20,10)</f>
         <v>3</v>
       </c>
-      <c r="P20" s="8"/>
+      <c r="P20" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
@@ -3638,7 +3743,9 @@
         <f>MOD(N21,10)</f>
         <v>3</v>
       </c>
-      <c r="P21" s="8"/>
+      <c r="P21" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
@@ -3689,7 +3796,9 @@
         <f>MOD(N22,10)</f>
         <v>3</v>
       </c>
-      <c r="P22" s="8"/>
+      <c r="P22" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
@@ -3740,7 +3849,9 @@
         <f>MOD(N23,10)</f>
         <v>3</v>
       </c>
-      <c r="P23" s="8"/>
+      <c r="P23" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
@@ -3769,7 +3880,9 @@
         <f>MOD(N24,10)</f>
         <v>3</v>
       </c>
-      <c r="P24" s="8"/>
+      <c r="P24" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
@@ -3821,7 +3934,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
@@ -3873,7 +3986,9 @@
         <f>MOD(N26,10)</f>
         <v>4</v>
       </c>
-      <c r="P26" s="8"/>
+      <c r="P26" s="8" t="s">
+        <v>451</v>
+      </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
@@ -3924,7 +4039,9 @@
         <f>MOD(N27,10)</f>
         <v>4</v>
       </c>
-      <c r="P27" s="8"/>
+      <c r="P27" s="8" t="s">
+        <v>451</v>
+      </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
@@ -3975,7 +4092,9 @@
         <f>MOD(N28,10)</f>
         <v>4</v>
       </c>
-      <c r="P28" s="8"/>
+      <c r="P28" s="8" t="s">
+        <v>451</v>
+      </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
@@ -4026,7 +4145,9 @@
         <f>MOD(N29,10)</f>
         <v>4</v>
       </c>
-      <c r="P29" s="8"/>
+      <c r="P29" s="8" t="s">
+        <v>451</v>
+      </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
@@ -4055,7 +4176,9 @@
         <f>MOD(N30,10)</f>
         <v>4</v>
       </c>
-      <c r="P30" s="8"/>
+      <c r="P30" s="8" t="s">
+        <v>451</v>
+      </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
@@ -4107,7 +4230,7 @@
         <v>5</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
@@ -4159,7 +4282,9 @@
         <f>MOD(N32,10)</f>
         <v>5</v>
       </c>
-      <c r="P32" s="8"/>
+      <c r="P32" s="8" t="s">
+        <v>452</v>
+      </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
@@ -4210,7 +4335,9 @@
         <f>MOD(N33,10)</f>
         <v>5</v>
       </c>
-      <c r="P33" s="8"/>
+      <c r="P33" s="8" t="s">
+        <v>452</v>
+      </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
@@ -4261,7 +4388,9 @@
         <f>MOD(N34,10)</f>
         <v>5</v>
       </c>
-      <c r="P34" s="8"/>
+      <c r="P34" s="8" t="s">
+        <v>452</v>
+      </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
@@ -4312,7 +4441,9 @@
         <f>MOD(N35,10)</f>
         <v>5</v>
       </c>
-      <c r="P35" s="8"/>
+      <c r="P35" s="8" t="s">
+        <v>452</v>
+      </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
@@ -4321,7 +4452,7 @@
         <v>55</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -4341,7 +4472,9 @@
         <f>MOD(N36,10)</f>
         <v>5</v>
       </c>
-      <c r="P36" s="8"/>
+      <c r="P36" s="8" t="s">
+        <v>452</v>
+      </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
     </row>
@@ -4393,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
@@ -4445,7 +4578,9 @@
         <f>MOD(N38,10)</f>
         <v>6</v>
       </c>
-      <c r="P38" s="8"/>
+      <c r="P38" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
     </row>
@@ -4496,7 +4631,9 @@
         <f>MOD(N39,10)</f>
         <v>6</v>
       </c>
-      <c r="P39" s="8"/>
+      <c r="P39" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
     </row>
@@ -4547,7 +4684,9 @@
         <f>MOD(N40,10)</f>
         <v>6</v>
       </c>
-      <c r="P40" s="8"/>
+      <c r="P40" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
     </row>
@@ -4596,7 +4735,9 @@
         <f>MOD(N41,10)</f>
         <v>6</v>
       </c>
-      <c r="P41" s="8"/>
+      <c r="P41" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
     </row>
@@ -4605,7 +4746,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -4625,7 +4766,9 @@
         <f>MOD(N42,10)</f>
         <v>6</v>
       </c>
-      <c r="P42" s="8"/>
+      <c r="P42" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
@@ -4677,7 +4820,7 @@
         <v>7</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
@@ -4729,7 +4872,9 @@
         <f>MOD(N44,10)</f>
         <v>7</v>
       </c>
-      <c r="P44" s="8"/>
+      <c r="P44" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
@@ -4780,7 +4925,9 @@
         <f>MOD(N45,10)</f>
         <v>7</v>
       </c>
-      <c r="P45" s="8"/>
+      <c r="P45" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
     </row>
@@ -4831,7 +4978,9 @@
         <f>MOD(N46,10)</f>
         <v>7</v>
       </c>
-      <c r="P46" s="8"/>
+      <c r="P46" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
@@ -4882,559 +5031,601 @@
         <f>MOD(N47,10)</f>
         <v>7</v>
       </c>
-      <c r="P47" s="8"/>
+      <c r="P47" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
     <row r="48" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A48" s="18">
-        <v>38</v>
-      </c>
-      <c r="B48" s="9">
-        <v>44817.345902777801</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="A48" s="22">
+        <v>57</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
       <c r="N48" s="10">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="O48" s="10">
         <f>MOD(N48,10)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
     <row r="49" spans="1:18" ht="18.75" customHeight="1">
       <c r="A49" s="18">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B49" s="9">
-        <v>44819.794398148202</v>
+        <v>44817.345902777801</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>39</v>
+        <v>351</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="M49" s="10" t="s">
         <v>129</v>
       </c>
       <c r="N49" s="10">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O49" s="10">
         <f>MOD(N49,10)</f>
         <v>8</v>
       </c>
-      <c r="P49" s="8"/>
+      <c r="P49" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
     <row r="50" spans="1:18" ht="18.75" customHeight="1">
       <c r="A50" s="18">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B50" s="9">
-        <v>44816.900972222204</v>
+        <v>44819.794398148202</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>170</v>
+        <v>418</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>171</v>
+        <v>419</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>172</v>
+        <v>420</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>173</v>
+        <v>421</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="N50" s="10">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="O50" s="10">
         <f>MOD(N50,10)</f>
         <v>8</v>
       </c>
-      <c r="P50" s="8"/>
+      <c r="P50" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
     <row r="51" spans="1:18" ht="18.75" customHeight="1">
       <c r="A51" s="18">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B51" s="9">
-        <v>44816.903657407398</v>
+        <v>44816.900972222204</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="N51" s="10">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O51" s="10">
         <f>MOD(N51,10)</f>
         <v>8</v>
       </c>
-      <c r="P51" s="8"/>
+      <c r="P51" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
     <row r="52" spans="1:18" ht="18.75" customHeight="1">
       <c r="A52" s="18">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B52" s="9">
-        <v>44816.906689814801</v>
+        <v>44816.903657407398</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N52" s="10">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="O52" s="10">
         <f>MOD(N52,10)</f>
         <v>8</v>
       </c>
-      <c r="P52" s="8"/>
+      <c r="P52" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
     <row r="53" spans="1:18" ht="18.75" customHeight="1">
       <c r="A53" s="18">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B53" s="9">
-        <v>44819.812349537002</v>
+        <v>44816.906689814801</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>423</v>
+        <v>105</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>424</v>
+        <v>106</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>426</v>
+        <v>290</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>427</v>
+        <v>291</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>428</v>
+        <v>292</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>427</v>
+        <v>293</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>429</v>
+        <v>290</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="N53" s="10">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="O53" s="10">
         <f>MOD(N53,10)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
     <row r="54" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A54" s="18">
-        <v>19</v>
-      </c>
-      <c r="B54" s="9">
-        <v>44816.903692129599</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="M54" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="A54" s="22">
+        <v>58</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
       <c r="N54" s="10">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="O54" s="10">
         <f>MOD(N54,10)</f>
-        <v>9</v>
-      </c>
-      <c r="P54" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
     <row r="55" spans="1:18" ht="18.75" customHeight="1">
       <c r="A55" s="18">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B55" s="9">
-        <v>44817.728460648199</v>
+        <v>44819.812349537002</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>357</v>
+        <v>422</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="N55" s="10">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O55" s="10">
         <f>MOD(N55,10)</f>
         <v>9</v>
       </c>
-      <c r="P55" s="8"/>
+      <c r="P55" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
     <row r="56" spans="1:18" ht="18.75" customHeight="1">
       <c r="A56" s="18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B56" s="9">
-        <v>44816.901365740698</v>
+        <v>44816.903692129599</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="M56" s="10" t="s">
         <v>129</v>
       </c>
       <c r="N56" s="10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O56" s="10">
         <f>MOD(N56,10)</f>
         <v>9</v>
       </c>
-      <c r="P56" s="8"/>
+      <c r="P56" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A57" s="18">
-        <v>29</v>
-      </c>
-      <c r="B57" s="9">
-        <v>44816.906886574099</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="M57" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="N57" s="10">
-        <v>29</v>
-      </c>
-      <c r="O57" s="10">
+      <c r="A57" s="19">
+        <v>39</v>
+      </c>
+      <c r="B57" s="20">
+        <v>44817.728460648199</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="L57" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="N57" s="21">
+        <v>39</v>
+      </c>
+      <c r="O57" s="21">
         <f>MOD(N57,10)</f>
         <v>9</v>
       </c>
-      <c r="P57" s="8"/>
+      <c r="P57" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
     <row r="58" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B58" s="11"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
+      <c r="A58" s="18">
+        <v>9</v>
+      </c>
+      <c r="B58" s="9">
+        <v>44816.901365740698</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M58" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="N58" s="21">
+        <v>9</v>
+      </c>
+      <c r="O58" s="21">
+        <f>MOD(N58,10)</f>
+        <v>9</v>
+      </c>
+      <c r="P58" s="24" t="s">
+        <v>457</v>
+      </c>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
     <row r="59" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B59" s="11"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
+      <c r="A59" s="25">
+        <v>29</v>
+      </c>
+      <c r="B59" s="26">
+        <v>44816.906886574099</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="N59" s="21">
+        <v>29</v>
+      </c>
+      <c r="O59" s="21">
+        <f>MOD(N59,10)</f>
+        <v>9</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
@@ -7187,9 +7378,10 @@
       <c r="R151" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:O57">
-    <sortCondition ref="O2:O57"/>
-    <sortCondition ref="D2:D57"/>
+  <sortState ref="A2:P59">
+    <sortCondition ref="O2:O59"/>
+    <sortCondition ref="D2:D59"/>
+    <sortCondition ref="P2:P59"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_ASUS\Desktop\Udabol\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8638878C-ACAA-9445-B7FC-6EA603955EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3906FD8D-D128-40CB-BE96-014AA45768DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,14 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="470">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1412,6 +1420,30 @@
   </si>
   <si>
     <t xml:space="preserve">Joel Uria </t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Plinio Alex</t>
+  </si>
+  <si>
+    <t>Alexgonzaq321@gmail.com</t>
+  </si>
+  <si>
+    <t>PlinioGonzalo</t>
+  </si>
+  <si>
+    <t>alexgonzalo2</t>
+  </si>
+  <si>
+    <t>Alex Gonzalo</t>
+  </si>
+  <si>
+    <t>alexgonzaq321@gmail.com</t>
+  </si>
+  <si>
+    <t>pagonzalo-es@udabol.edu.bo</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1636,7 +1668,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1644,12 +1675,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1971,12 +1996,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -2603,7 +2628,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2623,7 +2648,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2650,25 +2675,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53:P54"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
-    <col min="9" max="9" width="37.83203125" customWidth="1"/>
-    <col min="10" max="10" width="43.33203125" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" customWidth="1"/>
+    <col min="10" max="10" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
@@ -2761,7 +2786,7 @@
         <v>20</v>
       </c>
       <c r="O2" s="10">
-        <f>MOD(N2,10)</f>
+        <f t="shared" ref="O2:O33" si="0">MOD(N2,10)</f>
         <v>0</v>
       </c>
       <c r="P2" s="8" t="s">
@@ -2814,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="10">
-        <f>MOD(N3,10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="8" t="s">
@@ -2865,7 +2890,7 @@
         <v>50</v>
       </c>
       <c r="O4" s="10">
-        <f>MOD(N4,10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="8" t="s">
@@ -2916,7 +2941,7 @@
         <v>40</v>
       </c>
       <c r="O5" s="10">
-        <f>MOD(N5,10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="8" t="s">
@@ -2969,7 +2994,7 @@
         <v>30</v>
       </c>
       <c r="O6" s="10">
-        <f>MOD(N6,10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6" s="8" t="s">
@@ -3022,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="O7" s="10">
-        <f>MOD(N7,10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P7" s="8" t="s">
@@ -3075,7 +3100,7 @@
         <v>51</v>
       </c>
       <c r="O8" s="10">
-        <f>MOD(N8,10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P8" s="8" t="s">
@@ -3128,7 +3153,7 @@
         <v>41</v>
       </c>
       <c r="O9" s="10">
-        <f>MOD(N9,10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P9" s="8" t="s">
@@ -3181,7 +3206,7 @@
         <v>31</v>
       </c>
       <c r="O10" s="10">
-        <f>MOD(N10,10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P10" s="8" t="s">
@@ -3234,7 +3259,7 @@
         <v>21</v>
       </c>
       <c r="O11" s="10">
-        <f>MOD(N11,10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P11" s="8" t="s">
@@ -3287,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f>MOD(N12,10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P12" s="8" t="s">
@@ -3340,7 +3365,7 @@
         <v>32</v>
       </c>
       <c r="O13" s="10">
-        <f>MOD(N13,10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P13" s="8" t="s">
@@ -3391,7 +3416,7 @@
         <v>42</v>
       </c>
       <c r="O14" s="10">
-        <f>MOD(N14,10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P14" s="8" t="s">
@@ -3444,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="10">
-        <f>MOD(N15,10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -3497,7 +3522,7 @@
         <v>22</v>
       </c>
       <c r="O16" s="10">
-        <f>MOD(N16,10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P16" s="8" t="s">
@@ -3550,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="O17" s="10">
-        <f>MOD(N17,10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P17" s="8" t="s">
@@ -3581,7 +3606,7 @@
         <v>52</v>
       </c>
       <c r="O18" s="10">
-        <f>MOD(N18,10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P18" s="8" t="s">
@@ -3634,7 +3659,7 @@
         <v>33</v>
       </c>
       <c r="O19" s="10">
-        <f>MOD(N19,10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P19" s="8" t="s">
@@ -3687,7 +3712,7 @@
         <v>43</v>
       </c>
       <c r="O20" s="10">
-        <f>MOD(N20,10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P20" s="8" t="s">
@@ -3740,7 +3765,7 @@
         <v>23</v>
       </c>
       <c r="O21" s="10">
-        <f>MOD(N21,10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P21" s="8" t="s">
@@ -3793,7 +3818,7 @@
         <v>13</v>
       </c>
       <c r="O22" s="10">
-        <f>MOD(N22,10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P22" s="8" t="s">
@@ -3846,7 +3871,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="10">
-        <f>MOD(N23,10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P23" s="8" t="s">
@@ -3877,7 +3902,7 @@
         <v>53</v>
       </c>
       <c r="O24" s="10">
-        <f>MOD(N24,10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P24" s="8" t="s">
@@ -3930,7 +3955,7 @@
         <v>4</v>
       </c>
       <c r="O25" s="10">
-        <f>MOD(N25,10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P25" s="8" t="s">
@@ -3983,7 +4008,7 @@
         <v>24</v>
       </c>
       <c r="O26" s="10">
-        <f>MOD(N26,10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P26" s="8" t="s">
@@ -4036,7 +4061,7 @@
         <v>44</v>
       </c>
       <c r="O27" s="10">
-        <f>MOD(N27,10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P27" s="8" t="s">
@@ -4089,7 +4114,7 @@
         <v>34</v>
       </c>
       <c r="O28" s="10">
-        <f>MOD(N28,10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P28" s="8" t="s">
@@ -4142,7 +4167,7 @@
         <v>14</v>
       </c>
       <c r="O29" s="10">
-        <f>MOD(N29,10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P29" s="8" t="s">
@@ -4159,21 +4184,41 @@
         <v>447</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="N30" s="10">
         <v>54</v>
       </c>
       <c r="O30" s="10">
-        <f>MOD(N30,10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P30" s="8" t="s">
@@ -4226,7 +4271,7 @@
         <v>5</v>
       </c>
       <c r="O31" s="10">
-        <f>MOD(N31,10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P31" s="8" t="s">
@@ -4279,7 +4324,7 @@
         <v>15</v>
       </c>
       <c r="O32" s="10">
-        <f>MOD(N32,10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P32" s="8" t="s">
@@ -4332,7 +4377,7 @@
         <v>25</v>
       </c>
       <c r="O33" s="10">
-        <f>MOD(N33,10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P33" s="8" t="s">
@@ -4385,7 +4430,7 @@
         <v>45</v>
       </c>
       <c r="O34" s="10">
-        <f>MOD(N34,10)</f>
+        <f t="shared" ref="O34:O65" si="1">MOD(N34,10)</f>
         <v>5</v>
       </c>
       <c r="P34" s="8" t="s">
@@ -4438,7 +4483,7 @@
         <v>35</v>
       </c>
       <c r="O35" s="10">
-        <f>MOD(N35,10)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P35" s="8" t="s">
@@ -4469,7 +4514,7 @@
         <v>55</v>
       </c>
       <c r="O36" s="10">
-        <f>MOD(N36,10)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P36" s="8" t="s">
@@ -4522,7 +4567,7 @@
         <v>46</v>
       </c>
       <c r="O37" s="10">
-        <f>MOD(N37,10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P37" s="8" t="s">
@@ -4575,7 +4620,7 @@
         <v>36</v>
       </c>
       <c r="O38" s="10">
-        <f>MOD(N38,10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P38" s="8" t="s">
@@ -4628,7 +4673,7 @@
         <v>6</v>
       </c>
       <c r="O39" s="10">
-        <f>MOD(N39,10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P39" s="8" t="s">
@@ -4681,7 +4726,7 @@
         <v>26</v>
       </c>
       <c r="O40" s="10">
-        <f>MOD(N40,10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P40" s="8" t="s">
@@ -4732,7 +4777,7 @@
         <v>16</v>
       </c>
       <c r="O41" s="10">
-        <f>MOD(N41,10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P41" s="8" t="s">
@@ -4763,7 +4808,7 @@
         <v>56</v>
       </c>
       <c r="O42" s="10">
-        <f>MOD(N42,10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P42" s="8" t="s">
@@ -4816,7 +4861,7 @@
         <v>47</v>
       </c>
       <c r="O43" s="10">
-        <f>MOD(N43,10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P43" s="8" t="s">
@@ -4869,7 +4914,7 @@
         <v>17</v>
       </c>
       <c r="O44" s="10">
-        <f>MOD(N44,10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P44" s="8" t="s">
@@ -4922,7 +4967,7 @@
         <v>27</v>
       </c>
       <c r="O45" s="10">
-        <f>MOD(N45,10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P45" s="8" t="s">
@@ -4975,7 +5020,7 @@
         <v>7</v>
       </c>
       <c r="O46" s="10">
-        <f>MOD(N46,10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P46" s="8" t="s">
@@ -5028,7 +5073,7 @@
         <v>37</v>
       </c>
       <c r="O47" s="10">
-        <f>MOD(N47,10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P47" s="8" t="s">
@@ -5038,7 +5083,7 @@
       <c r="R47" s="8"/>
     </row>
     <row r="48" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A48" s="22">
+      <c r="A48" s="18">
         <v>57</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -5059,7 +5104,7 @@
         <v>57</v>
       </c>
       <c r="O48" s="10">
-        <f>MOD(N48,10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P48" s="8" t="s">
@@ -5112,7 +5157,7 @@
         <v>38</v>
       </c>
       <c r="O49" s="10">
-        <f>MOD(N49,10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P49" s="8" t="s">
@@ -5165,7 +5210,7 @@
         <v>48</v>
       </c>
       <c r="O50" s="10">
-        <f>MOD(N50,10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P50" s="8" t="s">
@@ -5218,7 +5263,7 @@
         <v>8</v>
       </c>
       <c r="O51" s="10">
-        <f>MOD(N51,10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P51" s="8" t="s">
@@ -5271,7 +5316,7 @@
         <v>18</v>
       </c>
       <c r="O52" s="10">
-        <f>MOD(N52,10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P52" s="8" t="s">
@@ -5324,7 +5369,7 @@
         <v>28</v>
       </c>
       <c r="O53" s="10">
-        <f>MOD(N53,10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P53" s="8" t="s">
@@ -5334,7 +5379,7 @@
       <c r="R53" s="8"/>
     </row>
     <row r="54" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A54" s="22">
+      <c r="A54" s="18">
         <v>58</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -5355,7 +5400,7 @@
         <v>58</v>
       </c>
       <c r="O54" s="10">
-        <f>MOD(N54,10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P54" s="8" t="s">
@@ -5408,7 +5453,7 @@
         <v>49</v>
       </c>
       <c r="O55" s="10">
-        <f>MOD(N55,10)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P55" s="8" t="s">
@@ -5461,7 +5506,7 @@
         <v>19</v>
       </c>
       <c r="O56" s="10">
-        <f>MOD(N56,10)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P56" s="8" t="s">
@@ -5514,7 +5559,7 @@
         <v>39</v>
       </c>
       <c r="O57" s="21">
-        <f>MOD(N57,10)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P57" s="8" t="s">
@@ -5530,97 +5575,97 @@
       <c r="B58" s="9">
         <v>44816.901365740698</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="I58" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="J58" s="23" t="s">
+      <c r="J58" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K58" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="L58" s="23" t="s">
+      <c r="L58" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="M58" s="23" t="s">
+      <c r="M58" s="22" t="s">
         <v>129</v>
       </c>
       <c r="N58" s="21">
         <v>9</v>
       </c>
       <c r="O58" s="21">
-        <f>MOD(N58,10)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P58" s="24" t="s">
+      <c r="P58" s="23" t="s">
         <v>457</v>
       </c>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
     <row r="59" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A59" s="25">
+      <c r="A59" s="24">
         <v>29</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="11">
         <v>44816.906886574099</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G59" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="H59" s="27" t="s">
+      <c r="H59" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="I59" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="J59" s="27" t="s">
+      <c r="J59" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="K59" s="27" t="s">
+      <c r="K59" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="L59" s="27" t="s">
+      <c r="L59" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M59" s="27" t="s">
+      <c r="M59" s="8" t="s">
         <v>129</v>
       </c>
       <c r="N59" s="21">
         <v>29</v>
       </c>
       <c r="O59" s="21">
-        <f>MOD(N59,10)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P59" s="8" t="s">
@@ -7378,7 +7423,7 @@
       <c r="R151" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P59">
     <sortCondition ref="O2:O59"/>
     <sortCondition ref="D2:D59"/>
     <sortCondition ref="P2:P59"/>
@@ -7386,8 +7431,11 @@
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="L11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{7099C4D0-4998-4462-8967-123D1B71EB34}"/>
+    <hyperlink ref="K30" r:id="rId4" xr:uid="{2680D2F7-7697-4771-8F63-7D9ACE5F2264}"/>
+    <hyperlink ref="L30" r:id="rId5" xr:uid="{A0F1D4DC-5F2F-41EF-A0E1-FFD989F6EB82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8638878C-ACAA-9445-B7FC-6EA603955EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B5E432-A137-7C43-A16B-07BF25F9D0CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$R$59</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="464">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1375,33 +1378,6 @@
     <t>Grupo</t>
   </si>
   <si>
-    <t>Capa de Negocios</t>
-  </si>
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Api Get DELETE</t>
-  </si>
-  <si>
-    <t>Api Post PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dao ASLQLITE insert select </t>
-  </si>
-  <si>
-    <t>Dao A Postgre insert delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dao ASLQLITE update select </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentacion Menu Operaciones con mensajes </t>
-  </si>
-  <si>
-    <t>Presentacion Operaciones con usuarios</t>
-  </si>
-  <si>
     <t>STEFANIA CHOQUE APAZA</t>
   </si>
   <si>
@@ -1412,6 +1388,39 @@
   </si>
   <si>
     <t xml:space="preserve">Joel Uria </t>
+  </si>
+  <si>
+    <t>Modelo y Presentacion</t>
+  </si>
+  <si>
+    <t>Api post y put</t>
+  </si>
+  <si>
+    <t>api post y put</t>
+  </si>
+  <si>
+    <t>Api Get y Delete</t>
+  </si>
+  <si>
+    <t>DAO POSTGRE Insert Delete</t>
+  </si>
+  <si>
+    <t>Capa Negocios</t>
+  </si>
+  <si>
+    <t>CApa Negocios</t>
+  </si>
+  <si>
+    <t>Dao Postgre Update Select</t>
+  </si>
+  <si>
+    <t>Capa de presentacion Usuarios</t>
+  </si>
+  <si>
+    <t>Capa de Presentacion Mensajes</t>
+  </si>
+  <si>
+    <t>DAO SQLLITE INSERT DELETE</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1503,7 +1512,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1561,25 +1570,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1629,6 +1625,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1640,14 +1637,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1971,7 +1968,7 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -1979,7 +1976,7 @@
     <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1996,7 +1993,7 @@
         <v>9845916</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2016,7 +2013,7 @@
         <v>4308676</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2036,7 +2033,7 @@
         <v>5273148</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2056,7 +2053,7 @@
         <v>10680663</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2076,7 +2073,7 @@
         <v>5246381</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2096,7 +2093,7 @@
         <v>12873339</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2116,7 +2113,7 @@
         <v>7351544</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2136,7 +2133,7 @@
         <v>7296889</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2156,7 +2153,7 @@
         <v>9083846</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2173,7 +2170,7 @@
         <v>8437859</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2193,7 +2190,7 @@
         <v>11304597</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2210,7 +2207,7 @@
         <v>8911045</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>6717766</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2247,7 +2244,7 @@
         <v>2631732</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2264,7 +2261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2284,7 +2281,7 @@
         <v>33970</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2304,7 +2301,7 @@
         <v>9899773</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2324,7 +2321,7 @@
         <v>7041610</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2344,7 +2341,7 @@
         <v>12669252</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>10931935</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2384,7 +2381,7 @@
         <v>6920030</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2404,7 +2401,7 @@
         <v>6434495</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2424,7 +2421,7 @@
         <v>9155549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2441,7 +2438,7 @@
         <v>6823974</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2461,7 +2458,7 @@
         <v>2622061</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2478,7 +2475,7 @@
         <v>7838112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2498,7 +2495,7 @@
         <v>12864046</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2518,7 +2515,7 @@
         <v>9110161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2532,7 +2529,7 @@
         <v>9911855</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2549,7 +2546,7 @@
         <v>9459513</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2566,7 +2563,7 @@
         <v>10954950</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2583,7 +2580,7 @@
         <v>8028972</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2603,7 +2600,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2623,7 +2620,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2650,153 +2647,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53:P54"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
-    <col min="9" max="9" width="37.83203125" customWidth="1"/>
-    <col min="10" max="10" width="43.33203125" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
+    <col min="12" max="12" width="37.1640625" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" customHeight="1">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="18.75" customHeight="1">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>20</v>
       </c>
       <c r="B2" s="9">
         <v>44816.903854166703</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>243</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>20</v>
       </c>
-      <c r="O2" s="10">
-        <f>MOD(N2,10)</f>
+      <c r="P2" s="10">
+        <f>MOD(O2,10)</f>
         <v>0</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="18.75" customHeight="1">
+    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>10</v>
       </c>
       <c r="B3" s="9">
         <v>44816.902002314797</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>182</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>182</v>
@@ -2805,51 +2803,51 @@
         <v>182</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>10</v>
       </c>
-      <c r="O3" s="10">
-        <f>MOD(N3,10)</f>
+      <c r="P3" s="10">
+        <f>MOD(O3,10)</f>
         <v>0</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>50</v>
       </c>
       <c r="B4" s="9">
         <v>44819.851585648103</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>434</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>430</v>
@@ -2858,412 +2856,412 @@
         <v>430</v>
       </c>
       <c r="L4" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10">
         <v>50</v>
       </c>
-      <c r="O4" s="10">
-        <f>MOD(N4,10)</f>
+      <c r="P4" s="10">
+        <f>MOD(O4,10)</f>
         <v>0</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>40</v>
       </c>
       <c r="B5" s="9">
         <v>44817.857048611098</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10">
+      <c r="N5" s="10"/>
+      <c r="O5" s="10">
         <v>40</v>
       </c>
-      <c r="O5" s="10">
-        <f>MOD(N5,10)</f>
+      <c r="P5" s="10">
+        <f>MOD(O5,10)</f>
         <v>0</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>30</v>
       </c>
       <c r="B6" s="9">
         <v>44816.906944444498</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>306</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="10">
         <v>30</v>
       </c>
-      <c r="O6" s="10">
-        <f>MOD(N6,10)</f>
+      <c r="P6" s="10">
+        <f>MOD(O6,10)</f>
         <v>0</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>11</v>
       </c>
       <c r="B7" s="9">
         <v>44816.902002314797</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="N7" s="10">
+      <c r="O7" s="10">
         <v>11</v>
       </c>
-      <c r="O7" s="10">
-        <f>MOD(N7,10)</f>
+      <c r="P7" s="10">
+        <f>MOD(O7,10)</f>
         <v>1</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>51</v>
       </c>
       <c r="B8" s="16">
         <v>44825.443055555559</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="M8" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>51</v>
       </c>
-      <c r="O8" s="10">
-        <f>MOD(N8,10)</f>
+      <c r="P8" s="10">
+        <f>MOD(O8,10)</f>
         <v>1</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>41</v>
       </c>
       <c r="B9" s="9">
         <v>44817.973298611098</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <v>41</v>
       </c>
-      <c r="O9" s="10">
-        <f>MOD(N9,10)</f>
+      <c r="P9" s="10">
+        <f>MOD(O9,10)</f>
         <v>1</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>31</v>
       </c>
       <c r="B10" s="9">
         <v>44816.9081365741</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>314</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>31</v>
       </c>
-      <c r="O10" s="10">
-        <f>MOD(N10,10)</f>
+      <c r="P10" s="10">
+        <f>MOD(O10,10)</f>
         <v>1</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>21</v>
       </c>
       <c r="B11" s="9">
         <v>44816.904432870397</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="N11" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="N11" s="10">
+      <c r="O11" s="10">
         <v>21</v>
       </c>
-      <c r="O11" s="10">
-        <f>MOD(N11,10)</f>
+      <c r="P11" s="10">
+        <f>MOD(O11,10)</f>
         <v>1</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>1</v>
       </c>
       <c r="B12" s="9">
         <v>44816.899421296301</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>126</v>
@@ -3275,107 +3273,107 @@
         <v>126</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="N12" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <v>1</v>
       </c>
-      <c r="O12" s="10">
-        <f>MOD(N12,10)</f>
+      <c r="P12" s="10">
+        <f>MOD(O12,10)</f>
         <v>1</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" customHeight="1">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>32</v>
       </c>
       <c r="B13" s="9">
         <v>44816.908206018503</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <v>32</v>
       </c>
-      <c r="O13" s="10">
-        <f>MOD(N13,10)</f>
+      <c r="P13" s="10">
+        <f>MOD(O13,10)</f>
         <v>2</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>42</v>
       </c>
       <c r="B14" s="9">
         <v>44818.012800925899</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>378</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>378</v>
@@ -3384,189 +3382,191 @@
         <v>378</v>
       </c>
       <c r="L14" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10">
         <v>42</v>
       </c>
-      <c r="O14" s="10">
-        <f>MOD(N14,10)</f>
+      <c r="P14" s="10">
+        <f>MOD(O14,10)</f>
         <v>2</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>2</v>
       </c>
       <c r="B15" s="9">
         <v>44816.899618055599</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <v>2</v>
       </c>
-      <c r="O15" s="10">
-        <f>MOD(N15,10)</f>
+      <c r="P15" s="10">
+        <f>MOD(O15,10)</f>
         <v>2</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>22</v>
       </c>
       <c r="B16" s="9">
         <v>44816.904456018499</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="I16" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>255</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="M16" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <v>22</v>
       </c>
-      <c r="O16" s="10">
-        <f>MOD(N16,10)</f>
+      <c r="P16" s="10">
+        <f>MOD(O16,10)</f>
         <v>2</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>12</v>
       </c>
       <c r="B17" s="9">
         <v>44816.902106481502</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <v>12</v>
       </c>
-      <c r="O17" s="10">
-        <f>MOD(N17,10)</f>
+      <c r="P17" s="10">
+        <f>MOD(O17,10)</f>
         <v>2</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>52</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="9" t="s">
+        <v>463</v>
+      </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -3577,292 +3577,292 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="10">
+      <c r="N18" s="10"/>
+      <c r="O18" s="10">
         <v>52</v>
       </c>
-      <c r="O18" s="10">
-        <f>MOD(N18,10)</f>
+      <c r="P18" s="10">
+        <f>MOD(O18,10)</f>
         <v>2</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1">
+    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>33</v>
       </c>
       <c r="B19" s="9">
         <v>44816.9083217593</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <v>33</v>
       </c>
-      <c r="O19" s="10">
-        <f>MOD(N19,10)</f>
+      <c r="P19" s="10">
+        <f>MOD(O19,10)</f>
         <v>3</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="18.75" customHeight="1">
+    <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>43</v>
       </c>
       <c r="B20" s="9">
         <v>44818.452256944402</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <v>43</v>
       </c>
-      <c r="O20" s="10">
-        <f>MOD(N20,10)</f>
+      <c r="P20" s="10">
+        <f>MOD(O20,10)</f>
         <v>3</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="18.75" customHeight="1">
+    <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>44816.904606481497</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <v>23</v>
       </c>
-      <c r="O21" s="10">
-        <f>MOD(N21,10)</f>
+      <c r="P21" s="10">
+        <f>MOD(O21,10)</f>
         <v>3</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" ht="18.75" customHeight="1">
+    <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>13</v>
       </c>
       <c r="B22" s="9">
         <v>44816.902129629598</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="M22" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <v>13</v>
       </c>
-      <c r="O22" s="10">
-        <f>MOD(N22,10)</f>
+      <c r="P22" s="10">
+        <f>MOD(O22,10)</f>
         <v>3</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="18.75" customHeight="1">
+    <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>3</v>
       </c>
       <c r="B23" s="9">
         <v>44816.900532407402</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="I23" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>137</v>
       </c>
       <c r="K23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="M23" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="N23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <v>3</v>
       </c>
-      <c r="O23" s="10">
-        <f>MOD(N23,10)</f>
+      <c r="P23" s="10">
+        <f>MOD(O23,10)</f>
         <v>3</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18" ht="18.75" customHeight="1">
+    <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>53</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9" t="s">
+        <v>463</v>
+      </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -3873,588 +3873,588 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="10">
+      <c r="N24" s="10"/>
+      <c r="O24" s="10">
         <v>53</v>
       </c>
-      <c r="O24" s="10">
-        <f>MOD(N24,10)</f>
+      <c r="P24" s="10">
+        <f>MOD(O24,10)</f>
         <v>3</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:18" ht="18.75" customHeight="1">
+    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>4</v>
       </c>
       <c r="B25" s="9">
         <v>44816.900798611103</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="L25" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="M25" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="N25" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <v>4</v>
       </c>
-      <c r="O25" s="10">
-        <f>MOD(N25,10)</f>
+      <c r="P25" s="10">
+        <f>MOD(O25,10)</f>
         <v>4</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>451</v>
       </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="18.75" customHeight="1">
+    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>24</v>
       </c>
       <c r="B26" s="9">
         <v>44816.904733796298</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>269</v>
       </c>
       <c r="K26" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="M26" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="N26" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <v>24</v>
       </c>
-      <c r="O26" s="10">
-        <f>MOD(N26,10)</f>
+      <c r="P26" s="10">
+        <f>MOD(O26,10)</f>
         <v>4</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>451</v>
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="18.75" customHeight="1">
+    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>44</v>
       </c>
       <c r="B27" s="9">
         <v>44818.559421296297</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>398</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>398</v>
       </c>
       <c r="K27" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <v>44</v>
       </c>
-      <c r="O27" s="10">
-        <f>MOD(N27,10)</f>
+      <c r="P27" s="10">
+        <f>MOD(O27,10)</f>
         <v>4</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>451</v>
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" ht="18.75" customHeight="1">
+    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>34</v>
       </c>
       <c r="B28" s="9">
         <v>44816.909525463001</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="J28" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="10" t="s">
         <v>335</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>331</v>
       </c>
       <c r="M28" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <v>34</v>
       </c>
-      <c r="O28" s="10">
-        <f>MOD(N28,10)</f>
+      <c r="P28" s="10">
+        <f>MOD(O28,10)</f>
         <v>4</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>451</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" ht="18.75" customHeight="1">
+    <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>14</v>
       </c>
       <c r="B29" s="9">
         <v>44816.902141203696</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="J29" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="M29" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="N29" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N29" s="10">
+      <c r="O29" s="10">
         <v>14</v>
       </c>
-      <c r="O29" s="10">
-        <f>MOD(N29,10)</f>
+      <c r="P29" s="10">
+        <f>MOD(O29,10)</f>
         <v>4</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>451</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" ht="18.75" customHeight="1">
+    <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>54</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="10">
+      <c r="N30" s="10"/>
+      <c r="O30" s="10">
         <v>54</v>
       </c>
-      <c r="O30" s="10">
-        <f>MOD(N30,10)</f>
+      <c r="P30" s="10">
+        <f>MOD(O30,10)</f>
         <v>4</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>451</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:18" ht="18.75" customHeight="1">
+    <row r="31" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>5</v>
       </c>
       <c r="B31" s="9">
         <v>44816.900798611103</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="I31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="J31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="L31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="M31" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="N31" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="N31" s="10">
+      <c r="O31" s="10">
         <v>5</v>
       </c>
-      <c r="O31" s="10">
-        <f>MOD(N31,10)</f>
+      <c r="P31" s="10">
+        <f>MOD(O31,10)</f>
         <v>5</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:18" ht="18.75" customHeight="1">
+    <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>15</v>
       </c>
       <c r="B32" s="9">
         <v>44816.902199074102</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="I32" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>220</v>
       </c>
       <c r="K32" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="M32" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="N32" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N32" s="10">
+      <c r="O32" s="10">
         <v>15</v>
       </c>
-      <c r="O32" s="10">
-        <f>MOD(N32,10)</f>
+      <c r="P32" s="10">
+        <f>MOD(O32,10)</f>
         <v>5</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="1:18" ht="18.75" customHeight="1">
+    <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>25</v>
       </c>
       <c r="B33" s="9">
         <v>44816.904895833301</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="I33" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="J33" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="L33" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="M33" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="N33" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N33" s="10">
+      <c r="O33" s="10">
         <v>25</v>
       </c>
-      <c r="O33" s="10">
-        <f>MOD(N33,10)</f>
+      <c r="P33" s="10">
+        <f>MOD(O33,10)</f>
         <v>5</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" customHeight="1">
+    <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>45</v>
       </c>
       <c r="B34" s="9">
         <v>44818.816273148201</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="J34" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="K34" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="L34" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="M34" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="N34" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N34" s="10">
+      <c r="O34" s="10">
         <v>45</v>
       </c>
-      <c r="O34" s="10">
-        <f>MOD(N34,10)</f>
+      <c r="P34" s="10">
+        <f>MOD(O34,10)</f>
         <v>5</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="1:18" ht="18.75" customHeight="1">
+    <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <v>35</v>
       </c>
       <c r="B35" s="9">
         <v>44816.909907407397</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="I35" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>338</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>338</v>
       </c>
       <c r="K35" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="L35" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="M35" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="N35" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N35" s="10">
+      <c r="O35" s="10">
         <v>35</v>
       </c>
-      <c r="O35" s="10">
-        <f>MOD(N35,10)</f>
+      <c r="P35" s="10">
+        <f>MOD(O35,10)</f>
         <v>5</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" customHeight="1">
+    <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>55</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C36" s="10"/>
+        <v>449</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>461</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -4465,290 +4465,288 @@
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="10">
+      <c r="N36" s="10"/>
+      <c r="O36" s="10">
         <v>55</v>
       </c>
-      <c r="O36" s="10">
-        <f>MOD(N36,10)</f>
+      <c r="P36" s="10">
+        <f>MOD(O36,10)</f>
         <v>5</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="1:18" ht="18.75" customHeight="1">
+    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>46</v>
       </c>
       <c r="B37" s="9">
         <v>44818.831111111103</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="I37" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>410</v>
       </c>
       <c r="K37" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="L37" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="M37" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="N37" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="N37" s="10">
+      <c r="O37" s="10">
         <v>46</v>
       </c>
-      <c r="O37" s="10">
-        <f>MOD(N37,10)</f>
+      <c r="P37" s="10">
+        <f>MOD(O37,10)</f>
         <v>6</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="1:18" ht="18.75" customHeight="1">
+    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>36</v>
       </c>
       <c r="B38" s="9">
         <v>44816.924826388902</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="J38" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="K38" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="L38" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="M38" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="N38" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="N38" s="10">
+      <c r="O38" s="10">
         <v>36</v>
       </c>
-      <c r="O38" s="10">
-        <f>MOD(N38,10)</f>
+      <c r="P38" s="10">
+        <f>MOD(O38,10)</f>
         <v>6</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
     </row>
-    <row r="39" spans="1:18" ht="18.75" customHeight="1">
+    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>6</v>
       </c>
       <c r="B39" s="9">
         <v>44816.9008217593</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="I39" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="J39" s="10" t="s">
         <v>159</v>
       </c>
       <c r="K39" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L39" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="M39" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="N39" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N39" s="10">
+      <c r="O39" s="10">
         <v>6</v>
       </c>
-      <c r="O39" s="10">
-        <f>MOD(N39,10)</f>
+      <c r="P39" s="10">
+        <f>MOD(O39,10)</f>
         <v>6</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="1:18" ht="18.75" customHeight="1">
+    <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>26</v>
       </c>
       <c r="B40" s="9">
         <v>44816.9055324074</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="I40" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>281</v>
       </c>
       <c r="K40" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="M40" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="N40" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="N40" s="10">
+      <c r="O40" s="10">
         <v>26</v>
       </c>
-      <c r="O40" s="10">
-        <f>MOD(N40,10)</f>
+      <c r="P40" s="10">
+        <f>MOD(O40,10)</f>
         <v>6</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
     </row>
-    <row r="41" spans="1:18" ht="18.75" customHeight="1">
+    <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>16</v>
       </c>
       <c r="B41" s="9">
         <v>44816.903240740699</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="F41" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="G41" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="I41" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>225</v>
       </c>
       <c r="K41" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="L41" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="M41" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10">
+      <c r="N41" s="10"/>
+      <c r="O41" s="10">
         <v>16</v>
       </c>
-      <c r="O41" s="10">
-        <f>MOD(N41,10)</f>
+      <c r="P41" s="10">
+        <f>MOD(O41,10)</f>
         <v>6</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
     </row>
-    <row r="42" spans="1:18" ht="18.75" customHeight="1">
+    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>56</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="C42" s="10"/>
+        <v>450</v>
+      </c>
+      <c r="C42" s="9"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -4759,292 +4757,292 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="10">
+      <c r="N42" s="10"/>
+      <c r="O42" s="10">
         <v>56</v>
       </c>
-      <c r="O42" s="10">
-        <f>MOD(N42,10)</f>
+      <c r="P42" s="10">
+        <f>MOD(O42,10)</f>
         <v>6</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:18" ht="18.75" customHeight="1">
+    <row r="43" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>47</v>
       </c>
       <c r="B43" s="9">
         <v>44819.458912037</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="F43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="I43" s="10" t="s">
         <v>414</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>415</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>415</v>
       </c>
       <c r="K43" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="L43" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="M43" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="N43" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N43" s="10">
+      <c r="O43" s="10">
         <v>47</v>
       </c>
-      <c r="O43" s="10">
-        <f>MOD(N43,10)</f>
+      <c r="P43" s="10">
+        <f>MOD(O43,10)</f>
         <v>7</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="1:18" ht="18.75" customHeight="1">
+    <row r="44" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>17</v>
       </c>
       <c r="B44" s="9">
         <v>44816.903356481504</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="I44" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>231</v>
       </c>
       <c r="K44" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="L44" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="M44" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="N44" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N44" s="10">
+      <c r="O44" s="10">
         <v>17</v>
       </c>
-      <c r="O44" s="10">
-        <f>MOD(N44,10)</f>
+      <c r="P44" s="10">
+        <f>MOD(O44,10)</f>
         <v>7</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="1:18" ht="18.75" customHeight="1">
+    <row r="45" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>27</v>
       </c>
       <c r="B45" s="9">
         <v>44816.9061111111</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="G45" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="I45" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="J45" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="K45" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="L45" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="M45" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="N45" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N45" s="10">
+      <c r="O45" s="10">
         <v>27</v>
       </c>
-      <c r="O45" s="10">
-        <f>MOD(N45,10)</f>
+      <c r="P45" s="10">
+        <f>MOD(O45,10)</f>
         <v>7</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" customHeight="1">
+    <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>7</v>
       </c>
       <c r="B46" s="9">
         <v>44816.900902777801</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="I46" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="J46" s="10" t="s">
         <v>166</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="M46" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="M46" s="10" t="s">
+      <c r="N46" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N46" s="10">
+      <c r="O46" s="10">
         <v>7</v>
       </c>
-      <c r="O46" s="10">
-        <f>MOD(N46,10)</f>
+      <c r="P46" s="10">
+        <f>MOD(O46,10)</f>
         <v>7</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="1:18" ht="18.75" customHeight="1">
+    <row r="47" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <v>37</v>
       </c>
       <c r="B47" s="9">
         <v>44816.935821759304</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="F47" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="G47" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="I47" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>349</v>
       </c>
       <c r="K47" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="L47" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="M47" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="N47" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N47" s="10">
+      <c r="O47" s="10">
         <v>37</v>
       </c>
-      <c r="O47" s="10">
-        <f>MOD(N47,10)</f>
+      <c r="P47" s="10">
+        <f>MOD(O47,10)</f>
         <v>7</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A48" s="22">
+    <row r="48" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23">
         <v>57</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C48" s="10"/>
+        <v>451</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>453</v>
+      </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -5055,292 +5053,292 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="10">
+      <c r="N48" s="10"/>
+      <c r="O48" s="10">
         <v>57</v>
       </c>
-      <c r="O48" s="10">
-        <f>MOD(N48,10)</f>
+      <c r="P48" s="10">
+        <f>MOD(O48,10)</f>
         <v>7</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="1:18" ht="18.75" customHeight="1">
+    <row r="49" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>38</v>
       </c>
       <c r="B49" s="9">
         <v>44817.345902777801</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>351</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>351</v>
       </c>
       <c r="F49" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="I49" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="J49" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="K49" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="L49" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="M49" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="M49" s="10" t="s">
+      <c r="N49" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N49" s="10">
+      <c r="O49" s="10">
         <v>38</v>
       </c>
-      <c r="O49" s="10">
-        <f>MOD(N49,10)</f>
+      <c r="P49" s="10">
+        <f>MOD(O49,10)</f>
         <v>8</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="1:18" ht="18.75" customHeight="1">
+    <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>48</v>
       </c>
       <c r="B50" s="9">
         <v>44819.794398148202</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="I50" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="J50" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="K50" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="L50" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="M50" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="M50" s="10" t="s">
+      <c r="N50" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N50" s="10">
+      <c r="O50" s="10">
         <v>48</v>
       </c>
-      <c r="O50" s="10">
-        <f>MOD(N50,10)</f>
+      <c r="P50" s="10">
+        <f>MOD(O50,10)</f>
         <v>8</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="1:18" ht="18.75" customHeight="1">
+    <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>8</v>
       </c>
       <c r="B51" s="9">
         <v>44816.900972222204</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="G51" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="H51" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="I51" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="J51" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="K51" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="L51" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="M51" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M51" s="10" t="s">
+      <c r="N51" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="N51" s="10">
+      <c r="O51" s="10">
         <v>8</v>
       </c>
-      <c r="O51" s="10">
-        <f>MOD(N51,10)</f>
+      <c r="P51" s="10">
+        <f>MOD(O51,10)</f>
         <v>8</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="1:18" ht="18.75" customHeight="1">
+    <row r="52" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <v>18</v>
       </c>
       <c r="B52" s="9">
         <v>44816.903657407398</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="H52" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="I52" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="J52" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="K52" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="L52" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="M52" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="M52" s="10" t="s">
+      <c r="N52" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N52" s="10">
+      <c r="O52" s="10">
         <v>18</v>
       </c>
-      <c r="O52" s="10">
-        <f>MOD(N52,10)</f>
+      <c r="P52" s="10">
+        <f>MOD(O52,10)</f>
         <v>8</v>
-      </c>
-      <c r="P52" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="1:18" ht="18.75" customHeight="1">
+    <row r="53" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <v>28</v>
       </c>
       <c r="B53" s="9">
         <v>44816.906689814801</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="G53" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="H53" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="I53" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="J53" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="K53" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="L53" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="M53" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="M53" s="10" t="s">
+      <c r="N53" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N53" s="10">
+      <c r="O53" s="10">
         <v>28</v>
       </c>
-      <c r="O53" s="10">
-        <f>MOD(N53,10)</f>
+      <c r="P53" s="10">
+        <f>MOD(O53,10)</f>
         <v>8</v>
-      </c>
-      <c r="P53" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A54" s="22">
+    <row r="54" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23">
         <v>58</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="C54" s="10"/>
+        <v>452</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -5351,287 +5349,286 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="10">
+      <c r="N54" s="10"/>
+      <c r="O54" s="10">
         <v>58</v>
       </c>
-      <c r="O54" s="10">
-        <f>MOD(N54,10)</f>
+      <c r="P54" s="10">
+        <f>MOD(O54,10)</f>
         <v>8</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="1:18" ht="18.75" customHeight="1">
+    <row r="55" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>49</v>
       </c>
       <c r="B55" s="9">
         <v>44819.812349537002</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="F55" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="H55" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="I55" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="J55" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="K55" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="L55" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="M55" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="M55" s="10" t="s">
+      <c r="N55" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N55" s="10">
+      <c r="O55" s="10">
         <v>49</v>
       </c>
-      <c r="O55" s="10">
-        <f>MOD(N55,10)</f>
+      <c r="P55" s="10">
+        <f>MOD(O55,10)</f>
         <v>9</v>
-      </c>
-      <c r="P55" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="1:18" ht="18.75" customHeight="1">
+    <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>19</v>
       </c>
       <c r="B56" s="9">
         <v>44816.903692129599</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="H56" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="I56" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>242</v>
       </c>
       <c r="K56" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="L56" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="M56" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="M56" s="10" t="s">
+      <c r="N56" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N56" s="10">
+      <c r="O56" s="10">
         <v>19</v>
       </c>
-      <c r="O56" s="10">
-        <f>MOD(N56,10)</f>
+      <c r="P56" s="10">
+        <f>MOD(O56,10)</f>
         <v>9</v>
-      </c>
-      <c r="P56" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A57" s="19">
+    <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20">
         <v>39</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="21">
         <v>44817.728460648199</v>
       </c>
       <c r="C57" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="E57" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="F57" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="G57" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="H57" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="I57" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="J57" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="J57" s="21" t="s">
+      <c r="K57" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="K57" s="21" t="s">
+      <c r="L57" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="L57" s="21" t="s">
+      <c r="M57" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="M57" s="21" t="s">
+      <c r="N57" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="N57" s="21">
+      <c r="O57" s="22">
         <v>39</v>
       </c>
-      <c r="O57" s="21">
-        <f>MOD(N57,10)</f>
+      <c r="P57" s="22">
+        <f>MOD(O57,10)</f>
         <v>9</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
-    <row r="58" spans="1:18" ht="18.75" customHeight="1">
+    <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>9</v>
       </c>
       <c r="B58" s="9">
         <v>44816.901365740698</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="D58" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="E58" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="F58" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="G58" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="H58" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="I58" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="J58" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="J58" s="23" t="s">
+      <c r="K58" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="L58" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="L58" s="23" t="s">
+      <c r="M58" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="M58" s="23" t="s">
+      <c r="N58" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="N58" s="21">
+      <c r="O58" s="22">
         <v>9</v>
       </c>
-      <c r="O58" s="21">
-        <f>MOD(N58,10)</f>
+      <c r="P58" s="22">
+        <f>MOD(O58,10)</f>
         <v>9</v>
-      </c>
-      <c r="P58" s="24" t="s">
-        <v>457</v>
       </c>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
-    <row r="59" spans="1:18" ht="18.75" customHeight="1">
+    <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="25">
         <v>29</v>
       </c>
       <c r="B59" s="26">
         <v>44816.906886574099</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="D59" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="E59" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="F59" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="G59" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="H59" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="H59" s="27" t="s">
+      <c r="I59" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="J59" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="J59" s="27" t="s">
+      <c r="K59" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="K59" s="27" t="s">
+      <c r="L59" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="L59" s="27" t="s">
+      <c r="M59" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="M59" s="27" t="s">
+      <c r="N59" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="N59" s="21">
+      <c r="O59" s="22">
         <v>29</v>
       </c>
-      <c r="O59" s="21">
-        <f>MOD(N59,10)</f>
+      <c r="P59" s="22">
+        <f>MOD(O59,10)</f>
         <v>9</v>
-      </c>
-      <c r="P59" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
-    <row r="60" spans="1:18" ht="18.75" customHeight="1">
+    <row r="60" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="8"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -5648,9 +5645,9 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" customHeight="1">
+    <row r="61" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="11"/>
-      <c r="C61" s="8"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -5667,9 +5664,9 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
     </row>
-    <row r="62" spans="1:18" ht="18.75" customHeight="1">
+    <row r="62" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="11"/>
-      <c r="C62" s="8"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -5686,9 +5683,9 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" customHeight="1">
+    <row r="63" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
-      <c r="C63" s="8"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -5705,9 +5702,9 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
     </row>
-    <row r="64" spans="1:18" ht="18.75" customHeight="1">
+    <row r="64" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
-      <c r="C64" s="8"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -5724,9 +5721,9 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="2:18" ht="18.75" customHeight="1">
+    <row r="65" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
-      <c r="C65" s="8"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -5743,9 +5740,9 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="2:18" ht="18.75" customHeight="1">
+    <row r="66" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="11"/>
-      <c r="C66" s="8"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -5762,9 +5759,9 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="2:18" ht="18.75" customHeight="1">
+    <row r="67" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
-      <c r="C67" s="8"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -5781,9 +5778,9 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="2:18" ht="18.75" customHeight="1">
+    <row r="68" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
-      <c r="C68" s="8"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -5800,9 +5797,9 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="2:18" ht="18.75" customHeight="1">
+    <row r="69" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="11"/>
-      <c r="C69" s="8"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -5819,9 +5816,9 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="2:18" ht="18.75" customHeight="1">
+    <row r="70" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
-      <c r="C70" s="8"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -5838,9 +5835,9 @@
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
     </row>
-    <row r="71" spans="2:18" ht="18.75" customHeight="1">
+    <row r="71" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
-      <c r="C71" s="8"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -5857,9 +5854,9 @@
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
     </row>
-    <row r="72" spans="2:18" ht="18.75" customHeight="1">
+    <row r="72" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
-      <c r="C72" s="8"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -5876,9 +5873,9 @@
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73" spans="2:18" ht="18.75" customHeight="1">
+    <row r="73" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="11"/>
-      <c r="C73" s="8"/>
+      <c r="C73" s="11"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -5895,9 +5892,9 @@
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74" spans="2:18" ht="18.75" customHeight="1">
+    <row r="74" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
-      <c r="C74" s="8"/>
+      <c r="C74" s="11"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -5914,9 +5911,9 @@
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
     </row>
-    <row r="75" spans="2:18" ht="18.75" customHeight="1">
+    <row r="75" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
-      <c r="C75" s="8"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -5933,9 +5930,9 @@
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
     </row>
-    <row r="76" spans="2:18" ht="18.75" customHeight="1">
+    <row r="76" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="11"/>
-      <c r="C76" s="8"/>
+      <c r="C76" s="11"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -5952,9 +5949,9 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
     </row>
-    <row r="77" spans="2:18" ht="18.75" customHeight="1">
+    <row r="77" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
-      <c r="C77" s="8"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -5971,9 +5968,9 @@
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
     </row>
-    <row r="78" spans="2:18" ht="18.75" customHeight="1">
+    <row r="78" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="11"/>
-      <c r="C78" s="8"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -5990,9 +5987,9 @@
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
     </row>
-    <row r="79" spans="2:18" ht="18.75" customHeight="1">
+    <row r="79" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="11"/>
-      <c r="C79" s="8"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -6009,9 +6006,9 @@
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
     </row>
-    <row r="80" spans="2:18" ht="18.75" customHeight="1">
+    <row r="80" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
-      <c r="C80" s="8"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -6028,9 +6025,9 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
     </row>
-    <row r="81" spans="2:18" ht="18.75" customHeight="1">
+    <row r="81" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
-      <c r="C81" s="8"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
@@ -6047,9 +6044,9 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
-    <row r="82" spans="2:18" ht="18.75" customHeight="1">
+    <row r="82" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="11"/>
-      <c r="C82" s="8"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -6066,9 +6063,9 @@
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
     </row>
-    <row r="83" spans="2:18" ht="18.75" customHeight="1">
+    <row r="83" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="11"/>
-      <c r="C83" s="8"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -6085,9 +6082,9 @@
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>
-    <row r="84" spans="2:18" ht="18.75" customHeight="1">
+    <row r="84" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
-      <c r="C84" s="8"/>
+      <c r="C84" s="11"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -6104,9 +6101,9 @@
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
     </row>
-    <row r="85" spans="2:18" ht="18.75" customHeight="1">
+    <row r="85" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="11"/>
-      <c r="C85" s="8"/>
+      <c r="C85" s="11"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -6123,9 +6120,9 @@
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
     </row>
-    <row r="86" spans="2:18" ht="18.75" customHeight="1">
+    <row r="86" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="11"/>
-      <c r="C86" s="8"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -6142,9 +6139,9 @@
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
     </row>
-    <row r="87" spans="2:18" ht="18.75" customHeight="1">
+    <row r="87" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="11"/>
-      <c r="C87" s="8"/>
+      <c r="C87" s="11"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
@@ -6161,9 +6158,9 @@
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
     </row>
-    <row r="88" spans="2:18" ht="18.75" customHeight="1">
+    <row r="88" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="11"/>
-      <c r="C88" s="8"/>
+      <c r="C88" s="11"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -6180,9 +6177,9 @@
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
     </row>
-    <row r="89" spans="2:18" ht="18.75" customHeight="1">
+    <row r="89" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
-      <c r="C89" s="8"/>
+      <c r="C89" s="11"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -6199,9 +6196,9 @@
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
     </row>
-    <row r="90" spans="2:18" ht="18.75" customHeight="1">
+    <row r="90" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="11"/>
-      <c r="C90" s="8"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -6218,9 +6215,9 @@
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
     </row>
-    <row r="91" spans="2:18" ht="18.75" customHeight="1">
+    <row r="91" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
-      <c r="C91" s="8"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
@@ -6237,9 +6234,9 @@
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
     </row>
-    <row r="92" spans="2:18" ht="18.75" customHeight="1">
+    <row r="92" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="11"/>
-      <c r="C92" s="8"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -6256,9 +6253,9 @@
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
     </row>
-    <row r="93" spans="2:18" ht="18.75" customHeight="1">
+    <row r="93" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="11"/>
-      <c r="C93" s="8"/>
+      <c r="C93" s="11"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -6275,9 +6272,9 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
     </row>
-    <row r="94" spans="2:18" ht="18.75" customHeight="1">
+    <row r="94" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="11"/>
-      <c r="C94" s="8"/>
+      <c r="C94" s="11"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -6294,9 +6291,9 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
     </row>
-    <row r="95" spans="2:18" ht="18.75" customHeight="1">
+    <row r="95" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="11"/>
-      <c r="C95" s="8"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -6313,9 +6310,9 @@
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
     </row>
-    <row r="96" spans="2:18" ht="18.75" customHeight="1">
+    <row r="96" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="11"/>
-      <c r="C96" s="8"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -6332,9 +6329,9 @@
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
     </row>
-    <row r="97" spans="2:18" ht="18.75" customHeight="1">
+    <row r="97" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="11"/>
-      <c r="C97" s="8"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -6351,9 +6348,9 @@
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
     </row>
-    <row r="98" spans="2:18" ht="18.75" customHeight="1">
+    <row r="98" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="11"/>
-      <c r="C98" s="8"/>
+      <c r="C98" s="11"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -6370,9 +6367,9 @@
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
     </row>
-    <row r="99" spans="2:18" ht="18.75" customHeight="1">
+    <row r="99" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
-      <c r="C99" s="8"/>
+      <c r="C99" s="11"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -6389,9 +6386,9 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
     </row>
-    <row r="100" spans="2:18" ht="18.75" customHeight="1">
+    <row r="100" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
-      <c r="C100" s="8"/>
+      <c r="C100" s="11"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -6408,9 +6405,9 @@
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
     </row>
-    <row r="101" spans="2:18" ht="18.75" customHeight="1">
+    <row r="101" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="11"/>
-      <c r="C101" s="8"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -6427,9 +6424,9 @@
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
     </row>
-    <row r="102" spans="2:18" ht="18.75" customHeight="1">
+    <row r="102" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="11"/>
-      <c r="C102" s="8"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
@@ -6446,9 +6443,9 @@
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
     </row>
-    <row r="103" spans="2:18" ht="18.75" customHeight="1">
+    <row r="103" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="11"/>
-      <c r="C103" s="8"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
@@ -6465,9 +6462,9 @@
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
     </row>
-    <row r="104" spans="2:18" ht="18.75" customHeight="1">
+    <row r="104" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="11"/>
-      <c r="C104" s="8"/>
+      <c r="C104" s="11"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
@@ -6484,9 +6481,9 @@
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
     </row>
-    <row r="105" spans="2:18" ht="18.75" customHeight="1">
+    <row r="105" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="11"/>
-      <c r="C105" s="8"/>
+      <c r="C105" s="11"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
@@ -6503,9 +6500,9 @@
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
     </row>
-    <row r="106" spans="2:18" ht="18.75" customHeight="1">
+    <row r="106" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="11"/>
-      <c r="C106" s="8"/>
+      <c r="C106" s="11"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -6522,9 +6519,9 @@
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
     </row>
-    <row r="107" spans="2:18" ht="18.75" customHeight="1">
+    <row r="107" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="11"/>
-      <c r="C107" s="8"/>
+      <c r="C107" s="11"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
@@ -6541,9 +6538,9 @@
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
     </row>
-    <row r="108" spans="2:18" ht="18.75" customHeight="1">
+    <row r="108" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="11"/>
-      <c r="C108" s="8"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -6560,9 +6557,9 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
     </row>
-    <row r="109" spans="2:18" ht="18.75" customHeight="1">
+    <row r="109" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="11"/>
-      <c r="C109" s="8"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -6579,9 +6576,9 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
     </row>
-    <row r="110" spans="2:18" ht="18.75" customHeight="1">
+    <row r="110" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="11"/>
-      <c r="C110" s="8"/>
+      <c r="C110" s="11"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
@@ -6598,9 +6595,9 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
     </row>
-    <row r="111" spans="2:18" ht="18.75" customHeight="1">
+    <row r="111" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="11"/>
-      <c r="C111" s="8"/>
+      <c r="C111" s="11"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -6617,9 +6614,9 @@
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
     </row>
-    <row r="112" spans="2:18" ht="18.75" customHeight="1">
+    <row r="112" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="11"/>
-      <c r="C112" s="8"/>
+      <c r="C112" s="11"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
@@ -6636,9 +6633,9 @@
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
     </row>
-    <row r="113" spans="2:18" ht="18.75" customHeight="1">
+    <row r="113" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="11"/>
-      <c r="C113" s="8"/>
+      <c r="C113" s="11"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
@@ -6655,9 +6652,9 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
     </row>
-    <row r="114" spans="2:18" ht="18.75" customHeight="1">
+    <row r="114" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="11"/>
-      <c r="C114" s="8"/>
+      <c r="C114" s="11"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
@@ -6674,9 +6671,9 @@
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
     </row>
-    <row r="115" spans="2:18" ht="18.75" customHeight="1">
+    <row r="115" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="11"/>
-      <c r="C115" s="8"/>
+      <c r="C115" s="11"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
@@ -6693,9 +6690,9 @@
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
     </row>
-    <row r="116" spans="2:18" ht="18.75" customHeight="1">
+    <row r="116" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="11"/>
-      <c r="C116" s="8"/>
+      <c r="C116" s="11"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
@@ -6712,9 +6709,9 @@
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
     </row>
-    <row r="117" spans="2:18" ht="18.75" customHeight="1">
+    <row r="117" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="11"/>
-      <c r="C117" s="8"/>
+      <c r="C117" s="11"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
@@ -6731,9 +6728,9 @@
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
     </row>
-    <row r="118" spans="2:18" ht="18.75" customHeight="1">
+    <row r="118" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="11"/>
-      <c r="C118" s="8"/>
+      <c r="C118" s="11"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
@@ -6750,9 +6747,9 @@
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
     </row>
-    <row r="119" spans="2:18" ht="18.75" customHeight="1">
+    <row r="119" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="11"/>
-      <c r="C119" s="8"/>
+      <c r="C119" s="11"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
@@ -6769,9 +6766,9 @@
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
     </row>
-    <row r="120" spans="2:18" ht="18.75" customHeight="1">
+    <row r="120" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="11"/>
-      <c r="C120" s="8"/>
+      <c r="C120" s="11"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -6788,9 +6785,9 @@
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
     </row>
-    <row r="121" spans="2:18" ht="18.75" customHeight="1">
+    <row r="121" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="11"/>
-      <c r="C121" s="8"/>
+      <c r="C121" s="11"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
@@ -6807,9 +6804,9 @@
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
     </row>
-    <row r="122" spans="2:18" ht="18.75" customHeight="1">
+    <row r="122" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="11"/>
-      <c r="C122" s="8"/>
+      <c r="C122" s="11"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
@@ -6826,9 +6823,9 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
     </row>
-    <row r="123" spans="2:18" ht="18.75" customHeight="1">
+    <row r="123" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="11"/>
-      <c r="C123" s="8"/>
+      <c r="C123" s="11"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
@@ -6845,9 +6842,9 @@
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
     </row>
-    <row r="124" spans="2:18" ht="18.75" customHeight="1">
+    <row r="124" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="11"/>
-      <c r="C124" s="8"/>
+      <c r="C124" s="11"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
@@ -6864,9 +6861,9 @@
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
     </row>
-    <row r="125" spans="2:18" ht="18.75" customHeight="1">
+    <row r="125" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="11"/>
-      <c r="C125" s="8"/>
+      <c r="C125" s="11"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -6883,9 +6880,9 @@
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
     </row>
-    <row r="126" spans="2:18" ht="18.75" customHeight="1">
+    <row r="126" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="11"/>
-      <c r="C126" s="8"/>
+      <c r="C126" s="11"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -6902,9 +6899,9 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
     </row>
-    <row r="127" spans="2:18" ht="18.75" customHeight="1">
+    <row r="127" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="11"/>
-      <c r="C127" s="8"/>
+      <c r="C127" s="11"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
@@ -6921,9 +6918,9 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
     </row>
-    <row r="128" spans="2:18" ht="18.75" customHeight="1">
+    <row r="128" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="11"/>
-      <c r="C128" s="8"/>
+      <c r="C128" s="11"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
@@ -6940,9 +6937,9 @@
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
     </row>
-    <row r="129" spans="2:18" ht="18.75" customHeight="1">
+    <row r="129" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="11"/>
-      <c r="C129" s="8"/>
+      <c r="C129" s="11"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -6959,9 +6956,9 @@
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
     </row>
-    <row r="130" spans="2:18" ht="18.75" customHeight="1">
+    <row r="130" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="11"/>
-      <c r="C130" s="8"/>
+      <c r="C130" s="11"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
@@ -6978,9 +6975,9 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
     </row>
-    <row r="131" spans="2:18" ht="18.75" customHeight="1">
+    <row r="131" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="11"/>
-      <c r="C131" s="8"/>
+      <c r="C131" s="11"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
@@ -6997,9 +6994,9 @@
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
     </row>
-    <row r="132" spans="2:18" ht="18.75" customHeight="1">
+    <row r="132" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="11"/>
-      <c r="C132" s="8"/>
+      <c r="C132" s="11"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -7016,9 +7013,9 @@
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
     </row>
-    <row r="133" spans="2:18" ht="18.75" customHeight="1">
+    <row r="133" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="11"/>
-      <c r="C133" s="8"/>
+      <c r="C133" s="11"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
@@ -7035,9 +7032,9 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
     </row>
-    <row r="134" spans="2:18" ht="18.75" customHeight="1">
+    <row r="134" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="11"/>
-      <c r="C134" s="8"/>
+      <c r="C134" s="11"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
@@ -7054,9 +7051,9 @@
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
     </row>
-    <row r="135" spans="2:18" ht="18.75" customHeight="1">
+    <row r="135" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="11"/>
-      <c r="C135" s="8"/>
+      <c r="C135" s="11"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
@@ -7073,9 +7070,9 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
     </row>
-    <row r="136" spans="2:18" ht="18.75" customHeight="1">
+    <row r="136" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="11"/>
-      <c r="C136" s="8"/>
+      <c r="C136" s="11"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
@@ -7092,9 +7089,9 @@
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
     </row>
-    <row r="137" spans="2:18" ht="18.75" customHeight="1">
+    <row r="137" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="11"/>
-      <c r="C137" s="8"/>
+      <c r="C137" s="11"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
@@ -7111,9 +7108,9 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
     </row>
-    <row r="138" spans="2:18" ht="18.75" customHeight="1">
+    <row r="138" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="11"/>
-      <c r="C138" s="8"/>
+      <c r="C138" s="11"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
@@ -7130,9 +7127,9 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
     </row>
-    <row r="139" spans="2:18" ht="18.75" customHeight="1">
+    <row r="139" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="11"/>
-      <c r="C139" s="8"/>
+      <c r="C139" s="11"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
@@ -7149,9 +7146,9 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="8"/>
     </row>
-    <row r="140" spans="2:18" ht="18.75" customHeight="1">
+    <row r="140" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="11"/>
-      <c r="C140" s="8"/>
+      <c r="C140" s="11"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
@@ -7168,9 +7165,9 @@
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
     </row>
-    <row r="141" spans="2:18" ht="18.75" customHeight="1">
+    <row r="141" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="11"/>
-      <c r="C141" s="8"/>
+      <c r="C141" s="11"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
@@ -7187,9 +7184,9 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
     </row>
-    <row r="142" spans="2:18" ht="18.75" customHeight="1">
+    <row r="142" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="11"/>
-      <c r="C142" s="8"/>
+      <c r="C142" s="11"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
@@ -7206,9 +7203,9 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
     </row>
-    <row r="143" spans="2:18" ht="18.75" customHeight="1">
+    <row r="143" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="11"/>
-      <c r="C143" s="8"/>
+      <c r="C143" s="11"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
@@ -7225,9 +7222,9 @@
       <c r="Q143" s="8"/>
       <c r="R143" s="8"/>
     </row>
-    <row r="144" spans="2:18" ht="18.75" customHeight="1">
+    <row r="144" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="11"/>
-      <c r="C144" s="8"/>
+      <c r="C144" s="11"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
@@ -7244,9 +7241,9 @@
       <c r="Q144" s="8"/>
       <c r="R144" s="8"/>
     </row>
-    <row r="145" spans="2:18" ht="18.75" customHeight="1">
+    <row r="145" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="11"/>
-      <c r="C145" s="8"/>
+      <c r="C145" s="11"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
@@ -7263,9 +7260,9 @@
       <c r="Q145" s="8"/>
       <c r="R145" s="8"/>
     </row>
-    <row r="146" spans="2:18" ht="18.75" customHeight="1">
+    <row r="146" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="11"/>
-      <c r="C146" s="8"/>
+      <c r="C146" s="11"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
@@ -7282,9 +7279,9 @@
       <c r="Q146" s="8"/>
       <c r="R146" s="8"/>
     </row>
-    <row r="147" spans="2:18" ht="18.75" customHeight="1">
+    <row r="147" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="11"/>
-      <c r="C147" s="8"/>
+      <c r="C147" s="11"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
@@ -7301,9 +7298,9 @@
       <c r="Q147" s="8"/>
       <c r="R147" s="8"/>
     </row>
-    <row r="148" spans="2:18" ht="18.75" customHeight="1">
+    <row r="148" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="11"/>
-      <c r="C148" s="8"/>
+      <c r="C148" s="11"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
@@ -7320,9 +7317,9 @@
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
     </row>
-    <row r="149" spans="2:18" ht="18.75" customHeight="1">
+    <row r="149" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="11"/>
-      <c r="C149" s="8"/>
+      <c r="C149" s="11"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
@@ -7339,9 +7336,9 @@
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
     </row>
-    <row r="150" spans="2:18" ht="18.75" customHeight="1">
+    <row r="150" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="11"/>
-      <c r="C150" s="8"/>
+      <c r="C150" s="11"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
@@ -7358,9 +7355,9 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
     </row>
-    <row r="151" spans="2:18" ht="18.75" customHeight="1">
+    <row r="151" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="11"/>
-      <c r="C151" s="8"/>
+      <c r="C151" s="11"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
@@ -7378,16 +7375,17 @@
       <c r="R151" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R59" xr:uid="{29724BE2-0535-1648-ADF2-EDAAA8F87CC3}"/>
   <sortState ref="A2:P59">
-    <sortCondition ref="O2:O59"/>
-    <sortCondition ref="D2:D59"/>
     <sortCondition ref="P2:P59"/>
+    <sortCondition ref="E2:E59"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="L11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="M11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="L51" r:id="rId3" xr:uid="{662A30AF-FF5E-B345-8E23-258FED7E5F51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B5E432-A137-7C43-A16B-07BF25F9D0CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C1CC0C-2F7A-2C4F-924F-E521DA144D74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="465">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1421,6 +1421,9 @@
   </si>
   <si>
     <t>DAO SQLLITE INSERT DELETE</t>
+  </si>
+  <si>
+    <t>Monografia</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1433,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1503,16 +1506,86 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1546,36 +1619,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1606,45 +1655,86 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2647,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2670,7 +2760,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18"/>
+      <c r="A1" s="12"/>
       <c r="B1" s="6" t="s">
         <v>114</v>
       </c>
@@ -2716,631 +2806,613 @@
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
-        <v>20</v>
-      </c>
-      <c r="B2" s="9">
-        <v>44816.903854166703</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="A2" s="14">
+        <v>47</v>
+      </c>
+      <c r="B2" s="15">
+        <v>44819.458912037</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="10">
-        <v>20</v>
-      </c>
-      <c r="P2" s="10">
+      <c r="F2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="16">
+        <v>47</v>
+      </c>
+      <c r="P2" s="16">
         <f>MOD(O2,10)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9">
-        <v>44816.902002314797</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="O3" s="10">
-        <v>10</v>
-      </c>
-      <c r="P3" s="10">
+      <c r="A3" s="14">
+        <v>49</v>
+      </c>
+      <c r="B3" s="15">
+        <v>44819.812349537002</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="16">
+        <v>49</v>
+      </c>
+      <c r="P3" s="16">
         <f>MOD(O3,10)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>50</v>
-      </c>
-      <c r="B4" s="9">
-        <v>44819.851585648103</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10">
-        <v>50</v>
-      </c>
-      <c r="P4" s="10">
+      <c r="A4" s="14">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15">
+        <v>44817.345902777801</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="16">
+        <v>38</v>
+      </c>
+      <c r="P4" s="16">
         <f>MOD(O4,10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>40</v>
-      </c>
-      <c r="B5" s="9">
-        <v>44817.857048611098</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10">
-        <v>40</v>
-      </c>
-      <c r="P5" s="10">
+      <c r="A5" s="14">
+        <v>41</v>
+      </c>
+      <c r="B5" s="15">
+        <v>44817.973298611098</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" s="16">
+        <v>41</v>
+      </c>
+      <c r="P5" s="16">
         <f>MOD(O5,10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>30</v>
-      </c>
-      <c r="B6" s="9">
-        <v>44816.906944444498</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O6" s="10">
-        <v>30</v>
-      </c>
-      <c r="P6" s="10">
+      <c r="A6" s="14">
+        <v>45</v>
+      </c>
+      <c r="B6" s="15">
+        <v>44818.816273148201</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="16">
+        <v>45</v>
+      </c>
+      <c r="P6" s="16">
         <f>MOD(O6,10)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9">
-        <v>44816.902002314797</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O7" s="10">
-        <v>11</v>
-      </c>
-      <c r="P7" s="10">
+      <c r="A7" s="14">
+        <v>54</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
+        <v>54</v>
+      </c>
+      <c r="P7" s="16">
         <f>MOD(O7,10)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
-        <v>51</v>
-      </c>
-      <c r="B8" s="16">
-        <v>44825.443055555559</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="O8" s="10">
-        <v>51</v>
-      </c>
-      <c r="P8" s="10">
+        <v>17</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44816.903356481504</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="20">
+        <v>17</v>
+      </c>
+      <c r="P8" s="20">
         <f>MOD(O8,10)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
-        <v>41</v>
-      </c>
-      <c r="B9" s="9">
-        <v>44817.973298611098</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="N9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44816.903692129599</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="N9" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="O9" s="10">
-        <v>41</v>
-      </c>
-      <c r="P9" s="10">
+      <c r="O9" s="20">
+        <v>19</v>
+      </c>
+      <c r="P9" s="20">
         <f>MOD(O9,10)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9">
-        <v>44816.9081365741</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="N10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44816.9008217593</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="N10" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="O10" s="10">
-        <v>31</v>
-      </c>
-      <c r="P10" s="10">
+      <c r="O10" s="20">
+        <v>6</v>
+      </c>
+      <c r="P10" s="20">
         <f>MOD(O10,10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
-        <v>21</v>
-      </c>
-      <c r="B11" s="9">
-        <v>44816.904432870397</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O11" s="10">
-        <v>21</v>
-      </c>
-      <c r="P11" s="10">
+        <v>26</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44816.9055324074</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="O11" s="20">
+        <v>26</v>
+      </c>
+      <c r="P11" s="20">
         <f>MOD(O11,10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9">
-        <v>44816.899421296301</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="N12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44816.935821759304</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="10">
-        <v>1</v>
-      </c>
-      <c r="P12" s="10">
+      <c r="O12" s="20">
+        <v>37</v>
+      </c>
+      <c r="P12" s="20">
         <f>MOD(O12,10)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
-        <v>32</v>
-      </c>
-      <c r="B13" s="9">
-        <v>44816.908206018503</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="N13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="19">
+        <v>44816.904456018499</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="N13" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="O13" s="10">
-        <v>32</v>
-      </c>
-      <c r="P13" s="10">
+      <c r="O13" s="20">
+        <v>22</v>
+      </c>
+      <c r="P13" s="20">
         <f>MOD(O13,10)</f>
         <v>2</v>
       </c>
@@ -3349,831 +3421,875 @@
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
-        <v>42</v>
-      </c>
-      <c r="B14" s="9">
-        <v>44818.012800925899</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10">
-        <v>42</v>
-      </c>
-      <c r="P14" s="10">
+        <v>25</v>
+      </c>
+      <c r="B14" s="19">
+        <v>44816.904895833301</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" s="20">
+        <v>25</v>
+      </c>
+      <c r="P14" s="20">
         <f>MOD(O14,10)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="9">
-        <v>44816.899618055599</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O15" s="10">
-        <v>2</v>
-      </c>
-      <c r="P15" s="10">
+      <c r="A15" s="21">
+        <v>4</v>
+      </c>
+      <c r="B15" s="22">
+        <v>44816.900798611103</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="23">
+        <v>4</v>
+      </c>
+      <c r="P15" s="23">
         <f>MOD(O15,10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>22</v>
-      </c>
-      <c r="B16" s="9">
-        <v>44816.904456018499</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O16" s="10">
-        <v>22</v>
-      </c>
-      <c r="P16" s="10">
+      <c r="A16" s="21">
+        <v>13</v>
+      </c>
+      <c r="B16" s="22">
+        <v>44816.902129629598</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" s="23">
+        <v>13</v>
+      </c>
+      <c r="P16" s="23">
         <f>MOD(O16,10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
-        <v>12</v>
-      </c>
-      <c r="B17" s="9">
-        <v>44816.902106481502</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" s="10">
-        <v>12</v>
-      </c>
-      <c r="P17" s="10">
+      <c r="A17" s="21">
+        <v>3</v>
+      </c>
+      <c r="B17" s="22">
+        <v>44816.900532407402</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" s="23">
+        <v>3</v>
+      </c>
+      <c r="P17" s="23">
         <f>MOD(O17,10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
-        <v>52</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10">
-        <v>52</v>
-      </c>
-      <c r="P18" s="10">
+      <c r="A18" s="24">
+        <v>39</v>
+      </c>
+      <c r="B18" s="25">
+        <v>44817.728460648199</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O18" s="26">
+        <v>39</v>
+      </c>
+      <c r="P18" s="26">
         <f>MOD(O18,10)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9">
-        <v>44816.9083217593</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O19" s="10">
-        <v>33</v>
-      </c>
-      <c r="P19" s="10">
+      <c r="A19" s="24">
+        <v>40</v>
+      </c>
+      <c r="B19" s="25">
+        <v>44817.857048611098</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26">
+        <v>40</v>
+      </c>
+      <c r="P19" s="26">
         <f>MOD(O19,10)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
-        <v>43</v>
-      </c>
-      <c r="B20" s="9">
-        <v>44818.452256944402</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O20" s="10">
-        <v>43</v>
-      </c>
-      <c r="P20" s="10">
+      <c r="A20" s="24">
+        <v>18</v>
+      </c>
+      <c r="B20" s="25">
+        <v>44816.903657407398</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" s="26">
+        <v>18</v>
+      </c>
+      <c r="P20" s="26">
         <f>MOD(O20,10)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
-        <v>23</v>
-      </c>
-      <c r="B21" s="9">
-        <v>44816.904606481497</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="N21" s="10" t="s">
+      <c r="A21" s="24">
+        <v>9</v>
+      </c>
+      <c r="B21" s="25">
+        <v>44816.901365740698</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O21" s="10">
-        <v>23</v>
-      </c>
-      <c r="P21" s="10">
+      <c r="O21" s="26">
+        <v>9</v>
+      </c>
+      <c r="P21" s="26">
         <f>MOD(O21,10)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9">
-        <v>44816.902129629598</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O22" s="10">
-        <v>13</v>
-      </c>
-      <c r="P22" s="10">
+      <c r="A22" s="24">
+        <v>29</v>
+      </c>
+      <c r="B22" s="25">
+        <v>44816.906886574099</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" s="26">
+        <v>29</v>
+      </c>
+      <c r="P22" s="26">
         <f>MOD(O22,10)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
-        <v>3</v>
-      </c>
-      <c r="B23" s="9">
-        <v>44816.900532407402</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="O23" s="10">
-        <v>3</v>
-      </c>
-      <c r="P23" s="10">
+      <c r="A23" s="24">
+        <v>55</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26">
+        <v>55</v>
+      </c>
+      <c r="P23" s="26">
         <f>MOD(O23,10)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
-        <v>53</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10">
-        <v>53</v>
-      </c>
-      <c r="P24" s="10">
+      <c r="A24" s="27">
+        <v>27</v>
+      </c>
+      <c r="B24" s="28">
+        <v>44816.9061111111</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" s="29">
+        <v>27</v>
+      </c>
+      <c r="P24" s="29">
         <f>MOD(O24,10)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
-        <v>4</v>
-      </c>
-      <c r="B25" s="9">
-        <v>44816.900798611103</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O25" s="10">
-        <v>4</v>
-      </c>
-      <c r="P25" s="10">
+      <c r="A25" s="27">
+        <v>2</v>
+      </c>
+      <c r="B25" s="28">
+        <v>44816.899618055599</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="O25" s="29">
+        <v>2</v>
+      </c>
+      <c r="P25" s="29">
         <f>MOD(O25,10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
-        <v>24</v>
-      </c>
-      <c r="B26" s="9">
-        <v>44816.904733796298</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="N26" s="10" t="s">
+      <c r="A26" s="27">
+        <v>15</v>
+      </c>
+      <c r="B26" s="28">
+        <v>44816.902199074102</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="N26" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="O26" s="10">
-        <v>24</v>
-      </c>
-      <c r="P26" s="10">
+      <c r="O26" s="29">
+        <v>15</v>
+      </c>
+      <c r="P26" s="29">
         <f>MOD(O26,10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
-        <v>44</v>
-      </c>
-      <c r="B27" s="9">
-        <v>44818.559421296297</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O27" s="10">
-        <v>44</v>
-      </c>
-      <c r="P27" s="10">
+      <c r="A27" s="27">
+        <v>36</v>
+      </c>
+      <c r="B27" s="28">
+        <v>44816.924826388902</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="O27" s="29">
+        <v>36</v>
+      </c>
+      <c r="P27" s="29">
         <f>MOD(O27,10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
-        <v>34</v>
-      </c>
-      <c r="B28" s="9">
-        <v>44816.909525463001</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="27">
+        <v>12</v>
+      </c>
+      <c r="B28" s="28">
+        <v>44816.902106481502</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O28" s="10">
-        <v>34</v>
-      </c>
-      <c r="P28" s="10">
+      <c r="D28" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="O28" s="29">
+        <v>12</v>
+      </c>
+      <c r="P28" s="29">
         <f>MOD(O28,10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
     <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
-        <v>14</v>
-      </c>
-      <c r="B29" s="9">
-        <v>44816.902141203696</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="O29" s="10">
-        <v>14</v>
-      </c>
-      <c r="P29" s="10">
+      <c r="A29" s="27">
+        <v>1</v>
+      </c>
+      <c r="B29" s="28">
+        <v>44816.899421296301</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="O29" s="29">
+        <v>1</v>
+      </c>
+      <c r="P29" s="29">
         <f>MOD(O29,10)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
-        <v>54</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10">
-        <v>54</v>
-      </c>
-      <c r="P30" s="10">
+      <c r="A30" s="27">
+        <v>34</v>
+      </c>
+      <c r="B30" s="28">
+        <v>44816.909525463001</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" s="29">
+        <v>34</v>
+      </c>
+      <c r="P30" s="29">
         <f>MOD(O30,10)</f>
         <v>4</v>
       </c>
@@ -4181,105 +4297,105 @@
       <c r="R30" s="8"/>
     </row>
     <row r="31" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
-        <v>5</v>
-      </c>
-      <c r="B31" s="9">
-        <v>44816.900798611103</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="30">
+        <v>7</v>
+      </c>
+      <c r="B31" s="31">
+        <v>44816.900902777801</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="O31" s="10">
-        <v>5</v>
-      </c>
-      <c r="P31" s="10">
+      <c r="D31" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="L31" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="O31" s="32">
+        <v>7</v>
+      </c>
+      <c r="P31" s="32">
         <f>MOD(O31,10)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
     <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
-        <v>15</v>
-      </c>
-      <c r="B32" s="9">
-        <v>44816.902199074102</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="O32" s="10">
-        <v>15</v>
-      </c>
-      <c r="P32" s="10">
+      <c r="A32" s="30">
+        <v>5</v>
+      </c>
+      <c r="B32" s="31">
+        <v>44816.900798611103</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="O32" s="32">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32">
         <f>MOD(O32,10)</f>
         <v>5</v>
       </c>
@@ -4287,242 +4403,264 @@
       <c r="R32" s="8"/>
     </row>
     <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
-        <v>25</v>
-      </c>
-      <c r="B33" s="9">
-        <v>44816.904895833301</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="N33" s="10" t="s">
+      <c r="A33" s="30">
+        <v>48</v>
+      </c>
+      <c r="B33" s="31">
+        <v>44819.794398148202</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="N33" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="O33" s="10">
-        <v>25</v>
-      </c>
-      <c r="P33" s="10">
+      <c r="O33" s="32">
+        <v>48</v>
+      </c>
+      <c r="P33" s="32">
         <f>MOD(O33,10)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
     <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
-        <v>45</v>
-      </c>
-      <c r="B34" s="9">
-        <v>44818.816273148201</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O34" s="10">
-        <v>45</v>
-      </c>
-      <c r="P34" s="10">
+      <c r="A34" s="30">
+        <v>51</v>
+      </c>
+      <c r="B34" s="33">
+        <v>44825.443055555559</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="O34" s="32">
+        <v>51</v>
+      </c>
+      <c r="P34" s="32">
         <f>MOD(O34,10)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
     <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18">
-        <v>35</v>
-      </c>
-      <c r="B35" s="9">
-        <v>44816.909907407397</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="O35" s="10">
-        <v>35</v>
-      </c>
-      <c r="P35" s="10">
+      <c r="A35" s="30">
+        <v>23</v>
+      </c>
+      <c r="B35" s="31">
+        <v>44816.904606481497</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="O35" s="32">
+        <v>23</v>
+      </c>
+      <c r="P35" s="32">
         <f>MOD(O35,10)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
-        <v>55</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10">
-        <v>55</v>
-      </c>
-      <c r="P36" s="10">
+      <c r="A36" s="30">
+        <v>30</v>
+      </c>
+      <c r="B36" s="31">
+        <v>44816.906944444498</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="N36" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="O36" s="32">
+        <v>30</v>
+      </c>
+      <c r="P36" s="32">
         <f>MOD(O36,10)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
     </row>
     <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
+      <c r="A37" s="24">
         <v>46</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="25">
         <v>44818.831111111103</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="M37" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="26">
         <v>46</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="26">
         <f>MOD(O37,10)</f>
         <v>6</v>
       </c>
@@ -4530,1103 +4668,1055 @@
       <c r="R37" s="8"/>
     </row>
     <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18">
-        <v>36</v>
-      </c>
-      <c r="B38" s="9">
-        <v>44816.924826388902</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="O38" s="10">
-        <v>36</v>
-      </c>
-      <c r="P38" s="10">
+      <c r="A38" s="24">
+        <v>43</v>
+      </c>
+      <c r="B38" s="25">
+        <v>44818.452256944402</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O38" s="26">
+        <v>43</v>
+      </c>
+      <c r="P38" s="26">
         <f>MOD(O38,10)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
     </row>
     <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18">
-        <v>6</v>
-      </c>
-      <c r="B39" s="9">
-        <v>44816.9008217593</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="N39" s="10" t="s">
+      <c r="A39" s="24">
+        <v>44</v>
+      </c>
+      <c r="B39" s="25">
+        <v>44818.559421296297</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="N39" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O39" s="10">
-        <v>6</v>
-      </c>
-      <c r="P39" s="10">
+      <c r="O39" s="26">
+        <v>44</v>
+      </c>
+      <c r="P39" s="26">
         <f>MOD(O39,10)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
     </row>
     <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
-        <v>26</v>
-      </c>
-      <c r="B40" s="9">
-        <v>44816.9055324074</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="O40" s="10">
-        <v>26</v>
-      </c>
-      <c r="P40" s="10">
+      <c r="A40" s="24">
+        <v>31</v>
+      </c>
+      <c r="B40" s="25">
+        <v>44816.9081365741</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O40" s="26">
+        <v>31</v>
+      </c>
+      <c r="P40" s="26">
         <f>MOD(O40,10)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
     </row>
     <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
-        <v>16</v>
-      </c>
-      <c r="B41" s="9">
-        <v>44816.903240740699</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10">
-        <v>16</v>
-      </c>
-      <c r="P41" s="10">
+      <c r="A41" s="24">
+        <v>21</v>
+      </c>
+      <c r="B41" s="25">
+        <v>44816.904432870397</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="M41" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="N41" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O41" s="26">
+        <v>21</v>
+      </c>
+      <c r="P41" s="26">
         <f>MOD(O41,10)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
     </row>
     <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18">
-        <v>56</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10">
-        <v>56</v>
-      </c>
-      <c r="P42" s="10">
+      <c r="A42" s="24">
+        <v>58</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26">
+        <v>58</v>
+      </c>
+      <c r="P42" s="26">
         <f>MOD(O42,10)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
     <row r="43" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
-        <v>47</v>
-      </c>
-      <c r="B43" s="9">
-        <v>44819.458912037</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="A43" s="38">
+        <v>20</v>
+      </c>
+      <c r="B43" s="39">
+        <v>44816.903854166703</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="M43" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O43" s="10">
-        <v>47</v>
-      </c>
-      <c r="P43" s="10">
+      <c r="F43" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="J43" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="K43" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="L43" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="M43" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="N43" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O43" s="40">
+        <v>20</v>
+      </c>
+      <c r="P43" s="40">
         <f>MOD(O43,10)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
     </row>
     <row r="44" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18">
-        <v>17</v>
-      </c>
-      <c r="B44" s="9">
-        <v>44816.903356481504</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O44" s="10">
-        <v>17</v>
-      </c>
-      <c r="P44" s="10">
+      <c r="A44" s="38">
+        <v>33</v>
+      </c>
+      <c r="B44" s="39">
+        <v>44816.9083217593</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="N44" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="O44" s="40">
+        <v>33</v>
+      </c>
+      <c r="P44" s="40">
         <f>MOD(O44,10)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18">
-        <v>27</v>
-      </c>
-      <c r="B45" s="9">
-        <v>44816.9061111111</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="N45" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="O45" s="10">
-        <v>27</v>
-      </c>
-      <c r="P45" s="10">
+      <c r="A45" s="38">
+        <v>50</v>
+      </c>
+      <c r="B45" s="39">
+        <v>44819.851585648103</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="J45" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="L45" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="M45" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40">
+        <v>50</v>
+      </c>
+      <c r="P45" s="40">
         <f>MOD(O45,10)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
-        <v>7</v>
-      </c>
-      <c r="B46" s="9">
-        <v>44816.900902777801</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="O46" s="10">
-        <v>7</v>
-      </c>
-      <c r="P46" s="10">
+      <c r="A46" s="38">
+        <v>16</v>
+      </c>
+      <c r="B46" s="39">
+        <v>44816.903240740699</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="K46" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="L46" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="M46" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40">
+        <v>16</v>
+      </c>
+      <c r="P46" s="40">
         <f>MOD(O46,10)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
     <row r="47" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18">
-        <v>37</v>
-      </c>
-      <c r="B47" s="9">
-        <v>44816.935821759304</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="N47" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O47" s="10">
-        <v>37</v>
-      </c>
-      <c r="P47" s="10">
+      <c r="A47" s="38">
+        <v>28</v>
+      </c>
+      <c r="B47" s="39">
+        <v>44816.906689814801</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J47" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K47" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="L47" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="M47" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="N47" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O47" s="40">
+        <v>28</v>
+      </c>
+      <c r="P47" s="40">
         <f>MOD(O47,10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
     <row r="48" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23">
-        <v>57</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10">
-        <v>57</v>
-      </c>
-      <c r="P48" s="10">
+      <c r="A48" s="38">
+        <v>52</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40">
+        <v>52</v>
+      </c>
+      <c r="P48" s="40">
         <f>MOD(O48,10)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
     <row r="49" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18">
-        <v>38</v>
-      </c>
-      <c r="B49" s="9">
-        <v>44817.345902777801</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O49" s="10">
-        <v>38</v>
-      </c>
-      <c r="P49" s="10">
+      <c r="A49" s="38">
+        <v>53</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40">
+        <v>53</v>
+      </c>
+      <c r="P49" s="40">
         <f>MOD(O49,10)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
     <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18">
-        <v>48</v>
-      </c>
-      <c r="B50" s="9">
-        <v>44819.794398148202</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="N50" s="10" t="s">
+      <c r="A50" s="21">
+        <v>32</v>
+      </c>
+      <c r="B50" s="22">
+        <v>44816.908206018503</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="N50" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="O50" s="10">
-        <v>48</v>
-      </c>
-      <c r="P50" s="10">
+      <c r="O50" s="23">
+        <v>32</v>
+      </c>
+      <c r="P50" s="23">
         <f>MOD(O50,10)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
     <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18">
-        <v>8</v>
-      </c>
-      <c r="B51" s="9">
-        <v>44816.900972222204</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="O51" s="10">
-        <v>8</v>
-      </c>
-      <c r="P51" s="10">
+      <c r="A51" s="21">
+        <v>42</v>
+      </c>
+      <c r="B51" s="22">
+        <v>44818.012800925899</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23">
+        <v>42</v>
+      </c>
+      <c r="P51" s="23">
         <f>MOD(O51,10)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
     <row r="52" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18">
-        <v>18</v>
-      </c>
-      <c r="B52" s="9">
-        <v>44816.903657407398</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O52" s="10">
-        <v>18</v>
-      </c>
-      <c r="P52" s="10">
+      <c r="A52" s="21">
+        <v>10</v>
+      </c>
+      <c r="B52" s="22">
+        <v>44816.902002314797</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O52" s="23">
+        <v>10</v>
+      </c>
+      <c r="P52" s="23">
         <f>MOD(O52,10)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
     <row r="53" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18">
-        <v>28</v>
-      </c>
-      <c r="B53" s="9">
-        <v>44816.906689814801</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="N53" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="O53" s="10">
-        <v>28</v>
-      </c>
-      <c r="P53" s="10">
+      <c r="A53" s="21">
+        <v>11</v>
+      </c>
+      <c r="B53" s="22">
+        <v>44816.902002314797</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O53" s="23">
+        <v>11</v>
+      </c>
+      <c r="P53" s="23">
         <f>MOD(O53,10)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
     <row r="54" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23">
-        <v>58</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10">
-        <v>58</v>
-      </c>
-      <c r="P54" s="10">
+      <c r="A54" s="21">
+        <v>35</v>
+      </c>
+      <c r="B54" s="22">
+        <v>44816.909907407397</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O54" s="23">
+        <v>35</v>
+      </c>
+      <c r="P54" s="23">
         <f>MOD(O54,10)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
     <row r="55" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18">
-        <v>49</v>
-      </c>
-      <c r="B55" s="9">
-        <v>44819.812349537002</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="M55" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="N55" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O55" s="10">
-        <v>49</v>
-      </c>
-      <c r="P55" s="10">
+      <c r="A55" s="21">
+        <v>57</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23">
+        <v>57</v>
+      </c>
+      <c r="P55" s="23">
         <f>MOD(O55,10)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
     <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18">
-        <v>19</v>
-      </c>
-      <c r="B56" s="9">
-        <v>44816.903692129599</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="M56" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="N56" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O56" s="10">
-        <v>19</v>
-      </c>
-      <c r="P56" s="10">
+      <c r="A56" s="42">
+        <v>24</v>
+      </c>
+      <c r="B56" s="43">
+        <v>44816.904733796298</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="H56" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="I56" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="J56" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="K56" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="L56" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="M56" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="N56" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="O56" s="44">
+        <v>24</v>
+      </c>
+      <c r="P56" s="44">
         <f>MOD(O56,10)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20">
-        <v>39</v>
-      </c>
-      <c r="B57" s="21">
-        <v>44817.728460648199</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="J57" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="K57" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="L57" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="M57" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="N57" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="O57" s="22">
-        <v>39</v>
-      </c>
-      <c r="P57" s="22">
+      <c r="A57" s="42">
+        <v>8</v>
+      </c>
+      <c r="B57" s="43">
+        <v>44816.900972222204</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H57" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="I57" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="J57" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="L57" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="M57" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="N57" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="O57" s="44">
+        <v>8</v>
+      </c>
+      <c r="P57" s="44">
         <f>MOD(O57,10)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
     <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18">
-        <v>9</v>
-      </c>
-      <c r="B58" s="9">
-        <v>44816.901365740698</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="I58" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="K58" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="L58" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="M58" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="N58" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="O58" s="22">
-        <v>9</v>
-      </c>
-      <c r="P58" s="22">
+      <c r="A58" s="42">
+        <v>14</v>
+      </c>
+      <c r="B58" s="43">
+        <v>44816.902141203696</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="I58" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="J58" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="K58" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="L58" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="M58" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="N58" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="O58" s="44">
+        <v>14</v>
+      </c>
+      <c r="P58" s="44">
         <f>MOD(O58,10)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
     <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25">
-        <v>29</v>
-      </c>
-      <c r="B59" s="26">
-        <v>44816.906886574099</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="O59" s="22">
-        <v>29</v>
-      </c>
-      <c r="P59" s="22">
+      <c r="A59" s="12">
+        <v>56</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10">
+        <v>56</v>
+      </c>
+      <c r="P59" s="10">
         <f>MOD(O59,10)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
     <row r="60" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="8"/>
@@ -7377,13 +7467,14 @@
   </sheetData>
   <autoFilter ref="A1:R59" xr:uid="{29724BE2-0535-1648-ADF2-EDAAA8F87CC3}"/>
   <sortState ref="A2:P59">
-    <sortCondition ref="P2:P59"/>
+    <sortCondition ref="C2:C59"/>
     <sortCondition ref="E2:E59"/>
+    <sortCondition ref="F2:F59"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="M11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="L51" r:id="rId3" xr:uid="{662A30AF-FF5E-B345-8E23-258FED7E5F51}"/>
+    <hyperlink ref="D34" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="M41" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="L57" r:id="rId3" xr:uid="{662A30AF-FF5E-B345-8E23-258FED7E5F51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_ASUS\Desktop\Udabol\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C1CC0C-2F7A-2C4F-924F-E521DA144D74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB3FCD-FA07-4AB0-92CB-6906A618F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,14 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="472">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1424,6 +1432,27 @@
   </si>
   <si>
     <t>Monografia</t>
+  </si>
+  <si>
+    <t>alexgonzaq321@gmail.com</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plinio Alex </t>
+  </si>
+  <si>
+    <t>PlinioGonzalo</t>
+  </si>
+  <si>
+    <t>AlexGonzalo2</t>
+  </si>
+  <si>
+    <t>alex-gonzalo</t>
+  </si>
+  <si>
+    <t>pagonzalo-es@udabol.edu.bo</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1624,7 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1656,7 +1685,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1735,6 +1764,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2058,15 +2090,15 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2083,7 +2115,7 @@
         <v>9845916</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2103,7 +2135,7 @@
         <v>4308676</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2123,7 +2155,7 @@
         <v>5273148</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2143,7 +2175,7 @@
         <v>10680663</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2163,7 +2195,7 @@
         <v>5246381</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2183,7 +2215,7 @@
         <v>12873339</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2203,7 +2235,7 @@
         <v>7351544</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2223,7 +2255,7 @@
         <v>7296889</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2243,7 +2275,7 @@
         <v>9083846</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2260,7 +2292,7 @@
         <v>8437859</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2280,7 +2312,7 @@
         <v>11304597</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2297,7 +2329,7 @@
         <v>8911045</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2314,7 +2346,7 @@
         <v>6717766</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2334,7 +2366,7 @@
         <v>2631732</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2351,7 +2383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2371,7 +2403,7 @@
         <v>33970</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2391,7 +2423,7 @@
         <v>9899773</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2411,7 +2443,7 @@
         <v>7041610</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2431,7 +2463,7 @@
         <v>12669252</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2451,7 +2483,7 @@
         <v>10931935</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2471,7 +2503,7 @@
         <v>6920030</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2491,7 +2523,7 @@
         <v>6434495</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2511,7 +2543,7 @@
         <v>9155549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2528,7 +2560,7 @@
         <v>6823974</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2548,7 +2580,7 @@
         <v>2622061</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2565,7 +2597,7 @@
         <v>7838112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2585,7 +2617,7 @@
         <v>12864046</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2605,7 +2637,7 @@
         <v>9110161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2619,7 +2651,7 @@
         <v>9911855</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2636,7 +2668,7 @@
         <v>9459513</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2653,7 +2685,7 @@
         <v>10954950</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2670,7 +2702,7 @@
         <v>8028972</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2690,7 +2722,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2710,7 +2742,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2737,29 +2769,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" customWidth="1"/>
-    <col min="10" max="10" width="37.83203125" customWidth="1"/>
-    <col min="11" max="11" width="43.33203125" customWidth="1"/>
-    <col min="12" max="12" width="37.1640625" customWidth="1"/>
-    <col min="13" max="13" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="12" max="12" width="37.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1">
       <c r="A1" s="12"/>
       <c r="B1" s="6" t="s">
         <v>114</v>
@@ -2805,7 +2837,7 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1">
       <c r="A2" s="14">
         <v>47</v>
       </c>
@@ -2852,13 +2884,13 @@
         <v>47</v>
       </c>
       <c r="P2" s="16">
-        <f>MOD(O2,10)</f>
+        <f t="shared" ref="P2:P33" si="0">MOD(O2,10)</f>
         <v>7</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="18.75" customHeight="1">
       <c r="A3" s="14">
         <v>49</v>
       </c>
@@ -2905,13 +2937,13 @@
         <v>49</v>
       </c>
       <c r="P3" s="16">
-        <f>MOD(O3,10)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="A4" s="14">
         <v>38</v>
       </c>
@@ -2958,13 +2990,13 @@
         <v>38</v>
       </c>
       <c r="P4" s="16">
-        <f>MOD(O4,10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1">
       <c r="A5" s="14">
         <v>41</v>
       </c>
@@ -3011,13 +3043,13 @@
         <v>41</v>
       </c>
       <c r="P5" s="16">
-        <f>MOD(O5,10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1">
       <c r="A6" s="14">
         <v>45</v>
       </c>
@@ -3064,13 +3096,13 @@
         <v>45</v>
       </c>
       <c r="P6" s="16">
-        <f>MOD(O6,10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1">
       <c r="A7" s="14">
         <v>54</v>
       </c>
@@ -3080,28 +3112,50 @@
       <c r="C7" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="D7" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="O7" s="16">
         <v>54</v>
       </c>
       <c r="P7" s="16">
-        <f>MOD(O7,10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1">
       <c r="A8" s="18">
         <v>17</v>
       </c>
@@ -3148,13 +3202,13 @@
         <v>17</v>
       </c>
       <c r="P8" s="20">
-        <f>MOD(O8,10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1">
       <c r="A9" s="18">
         <v>19</v>
       </c>
@@ -3201,13 +3255,13 @@
         <v>19</v>
       </c>
       <c r="P9" s="20">
-        <f>MOD(O9,10)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1">
       <c r="A10" s="18">
         <v>6</v>
       </c>
@@ -3254,13 +3308,13 @@
         <v>6</v>
       </c>
       <c r="P10" s="20">
-        <f>MOD(O10,10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1">
       <c r="A11" s="18">
         <v>26</v>
       </c>
@@ -3307,13 +3361,13 @@
         <v>26</v>
       </c>
       <c r="P11" s="20">
-        <f>MOD(O11,10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1">
       <c r="A12" s="18">
         <v>37</v>
       </c>
@@ -3360,13 +3414,13 @@
         <v>37</v>
       </c>
       <c r="P12" s="20">
-        <f>MOD(O12,10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1">
       <c r="A13" s="18">
         <v>22</v>
       </c>
@@ -3413,13 +3467,13 @@
         <v>22</v>
       </c>
       <c r="P13" s="20">
-        <f>MOD(O13,10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1">
       <c r="A14" s="18">
         <v>25</v>
       </c>
@@ -3466,13 +3520,13 @@
         <v>25</v>
       </c>
       <c r="P14" s="20">
-        <f>MOD(O14,10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1">
       <c r="A15" s="21">
         <v>4</v>
       </c>
@@ -3519,13 +3573,13 @@
         <v>4</v>
       </c>
       <c r="P15" s="23">
-        <f>MOD(O15,10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1">
       <c r="A16" s="21">
         <v>13</v>
       </c>
@@ -3572,13 +3626,13 @@
         <v>13</v>
       </c>
       <c r="P16" s="23">
-        <f>MOD(O16,10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1">
       <c r="A17" s="21">
         <v>3</v>
       </c>
@@ -3625,13 +3679,13 @@
         <v>3</v>
       </c>
       <c r="P17" s="23">
-        <f>MOD(O17,10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1">
       <c r="A18" s="24">
         <v>39</v>
       </c>
@@ -3678,13 +3732,13 @@
         <v>39</v>
       </c>
       <c r="P18" s="26">
-        <f>MOD(O18,10)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="18.75" customHeight="1">
       <c r="A19" s="24">
         <v>40</v>
       </c>
@@ -3729,13 +3783,13 @@
         <v>40</v>
       </c>
       <c r="P19" s="26">
-        <f>MOD(O19,10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="18.75" customHeight="1">
       <c r="A20" s="24">
         <v>18</v>
       </c>
@@ -3782,13 +3836,13 @@
         <v>18</v>
       </c>
       <c r="P20" s="26">
-        <f>MOD(O20,10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="18.75" customHeight="1">
       <c r="A21" s="24">
         <v>9</v>
       </c>
@@ -3835,13 +3889,13 @@
         <v>9</v>
       </c>
       <c r="P21" s="26">
-        <f>MOD(O21,10)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="18.75" customHeight="1">
       <c r="A22" s="24">
         <v>29</v>
       </c>
@@ -3888,13 +3942,13 @@
         <v>29</v>
       </c>
       <c r="P22" s="26">
-        <f>MOD(O22,10)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="18.75" customHeight="1">
       <c r="A23" s="24">
         <v>55</v>
       </c>
@@ -3919,13 +3973,13 @@
         <v>55</v>
       </c>
       <c r="P23" s="26">
-        <f>MOD(O23,10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="18.75" customHeight="1">
       <c r="A24" s="27">
         <v>27</v>
       </c>
@@ -3972,13 +4026,13 @@
         <v>27</v>
       </c>
       <c r="P24" s="29">
-        <f>MOD(O24,10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="18.75" customHeight="1">
       <c r="A25" s="27">
         <v>2</v>
       </c>
@@ -4025,13 +4079,13 @@
         <v>2</v>
       </c>
       <c r="P25" s="29">
-        <f>MOD(O25,10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="18.75" customHeight="1">
       <c r="A26" s="27">
         <v>15</v>
       </c>
@@ -4078,13 +4132,13 @@
         <v>15</v>
       </c>
       <c r="P26" s="29">
-        <f>MOD(O26,10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="18.75" customHeight="1">
       <c r="A27" s="27">
         <v>36</v>
       </c>
@@ -4131,13 +4185,13 @@
         <v>36</v>
       </c>
       <c r="P27" s="29">
-        <f>MOD(O27,10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="18.75" customHeight="1">
       <c r="A28" s="27">
         <v>12</v>
       </c>
@@ -4184,13 +4238,13 @@
         <v>12</v>
       </c>
       <c r="P28" s="29">
-        <f>MOD(O28,10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="18.75" customHeight="1">
       <c r="A29" s="27">
         <v>1</v>
       </c>
@@ -4237,13 +4291,13 @@
         <v>1</v>
       </c>
       <c r="P29" s="29">
-        <f>MOD(O29,10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="18.75" customHeight="1">
       <c r="A30" s="27">
         <v>34</v>
       </c>
@@ -4290,13 +4344,13 @@
         <v>34</v>
       </c>
       <c r="P30" s="29">
-        <f>MOD(O30,10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="18.75" customHeight="1">
       <c r="A31" s="30">
         <v>7</v>
       </c>
@@ -4343,13 +4397,13 @@
         <v>7</v>
       </c>
       <c r="P31" s="32">
-        <f>MOD(O31,10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="18.75" customHeight="1">
       <c r="A32" s="30">
         <v>5</v>
       </c>
@@ -4396,13 +4450,13 @@
         <v>5</v>
       </c>
       <c r="P32" s="32">
-        <f>MOD(O32,10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="18.75" customHeight="1">
       <c r="A33" s="30">
         <v>48</v>
       </c>
@@ -4449,13 +4503,13 @@
         <v>48</v>
       </c>
       <c r="P33" s="32">
-        <f>MOD(O33,10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="18.75" customHeight="1">
       <c r="A34" s="30">
         <v>51</v>
       </c>
@@ -4502,13 +4556,13 @@
         <v>51</v>
       </c>
       <c r="P34" s="32">
-        <f>MOD(O34,10)</f>
+        <f t="shared" ref="P34:P65" si="1">MOD(O34,10)</f>
         <v>1</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="18.75" customHeight="1">
       <c r="A35" s="30">
         <v>23</v>
       </c>
@@ -4555,13 +4609,13 @@
         <v>23</v>
       </c>
       <c r="P35" s="32">
-        <f>MOD(O35,10)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="18.75" customHeight="1">
       <c r="A36" s="30">
         <v>30</v>
       </c>
@@ -4608,13 +4662,13 @@
         <v>30</v>
       </c>
       <c r="P36" s="32">
-        <f>MOD(O36,10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="18.75" customHeight="1">
       <c r="A37" s="24">
         <v>46</v>
       </c>
@@ -4661,13 +4715,13 @@
         <v>46</v>
       </c>
       <c r="P37" s="26">
-        <f>MOD(O37,10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="18.75" customHeight="1">
       <c r="A38" s="24">
         <v>43</v>
       </c>
@@ -4714,13 +4768,13 @@
         <v>43</v>
       </c>
       <c r="P38" s="26">
-        <f>MOD(O38,10)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
     </row>
-    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="18.75" customHeight="1">
       <c r="A39" s="24">
         <v>44</v>
       </c>
@@ -4767,13 +4821,13 @@
         <v>44</v>
       </c>
       <c r="P39" s="26">
-        <f>MOD(O39,10)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="18.75" customHeight="1">
       <c r="A40" s="24">
         <v>31</v>
       </c>
@@ -4820,13 +4874,13 @@
         <v>31</v>
       </c>
       <c r="P40" s="26">
-        <f>MOD(O40,10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
     </row>
-    <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="18.75" customHeight="1">
       <c r="A41" s="24">
         <v>21</v>
       </c>
@@ -4873,13 +4927,13 @@
         <v>21</v>
       </c>
       <c r="P41" s="26">
-        <f>MOD(O41,10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
     </row>
-    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="18.75" customHeight="1">
       <c r="A42" s="24">
         <v>58</v>
       </c>
@@ -4904,13 +4958,13 @@
         <v>58</v>
       </c>
       <c r="P42" s="26">
-        <f>MOD(O42,10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="18.75" customHeight="1">
       <c r="A43" s="38">
         <v>20</v>
       </c>
@@ -4957,13 +5011,13 @@
         <v>20</v>
       </c>
       <c r="P43" s="40">
-        <f>MOD(O43,10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="18.75" customHeight="1">
       <c r="A44" s="38">
         <v>33</v>
       </c>
@@ -5010,13 +5064,13 @@
         <v>33</v>
       </c>
       <c r="P44" s="40">
-        <f>MOD(O44,10)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="18.75" customHeight="1">
       <c r="A45" s="38">
         <v>50</v>
       </c>
@@ -5061,13 +5115,13 @@
         <v>50</v>
       </c>
       <c r="P45" s="40">
-        <f>MOD(O45,10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="18.75" customHeight="1">
       <c r="A46" s="38">
         <v>16</v>
       </c>
@@ -5112,13 +5166,13 @@
         <v>16</v>
       </c>
       <c r="P46" s="40">
-        <f>MOD(O46,10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="18.75" customHeight="1">
       <c r="A47" s="38">
         <v>28</v>
       </c>
@@ -5165,13 +5219,13 @@
         <v>28</v>
       </c>
       <c r="P47" s="40">
-        <f>MOD(O47,10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="18.75" customHeight="1">
       <c r="A48" s="38">
         <v>52</v>
       </c>
@@ -5196,13 +5250,13 @@
         <v>52</v>
       </c>
       <c r="P48" s="40">
-        <f>MOD(O48,10)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="18.75" customHeight="1">
       <c r="A49" s="38">
         <v>53</v>
       </c>
@@ -5227,13 +5281,13 @@
         <v>53</v>
       </c>
       <c r="P49" s="40">
-        <f>MOD(O49,10)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="18.75" customHeight="1">
       <c r="A50" s="21">
         <v>32</v>
       </c>
@@ -5280,13 +5334,13 @@
         <v>32</v>
       </c>
       <c r="P50" s="23">
-        <f>MOD(O50,10)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="18.75" customHeight="1">
       <c r="A51" s="21">
         <v>42</v>
       </c>
@@ -5331,13 +5385,13 @@
         <v>42</v>
       </c>
       <c r="P51" s="23">
-        <f>MOD(O51,10)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="18.75" customHeight="1">
       <c r="A52" s="21">
         <v>10</v>
       </c>
@@ -5384,13 +5438,13 @@
         <v>10</v>
       </c>
       <c r="P52" s="23">
-        <f>MOD(O52,10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="18.75" customHeight="1">
       <c r="A53" s="21">
         <v>11</v>
       </c>
@@ -5437,13 +5491,13 @@
         <v>11</v>
       </c>
       <c r="P53" s="23">
-        <f>MOD(O53,10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="18.75" customHeight="1">
       <c r="A54" s="21">
         <v>35</v>
       </c>
@@ -5490,13 +5544,13 @@
         <v>35</v>
       </c>
       <c r="P54" s="23">
-        <f>MOD(O54,10)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="18.75" customHeight="1">
       <c r="A55" s="21">
         <v>57</v>
       </c>
@@ -5521,13 +5575,13 @@
         <v>57</v>
       </c>
       <c r="P55" s="23">
-        <f>MOD(O55,10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="18.75" customHeight="1">
       <c r="A56" s="42">
         <v>24</v>
       </c>
@@ -5574,13 +5628,13 @@
         <v>24</v>
       </c>
       <c r="P56" s="44">
-        <f>MOD(O56,10)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="18.75" customHeight="1">
       <c r="A57" s="42">
         <v>8</v>
       </c>
@@ -5627,13 +5681,13 @@
         <v>8</v>
       </c>
       <c r="P57" s="44">
-        <f>MOD(O57,10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
-    <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="18.75" customHeight="1">
       <c r="A58" s="42">
         <v>14</v>
       </c>
@@ -5680,13 +5734,13 @@
         <v>14</v>
       </c>
       <c r="P58" s="44">
-        <f>MOD(O58,10)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
-    <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="18.75" customHeight="1">
       <c r="A59" s="12">
         <v>56</v>
       </c>
@@ -5709,13 +5763,13 @@
         <v>56</v>
       </c>
       <c r="P59" s="10">
-        <f>MOD(O59,10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
-    <row r="60" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="18.75" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -5735,7 +5789,7 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="18.75" customHeight="1">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="8"/>
@@ -5754,7 +5808,7 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
     </row>
-    <row r="62" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="18.75" customHeight="1">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="8"/>
@@ -5773,7 +5827,7 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="18.75" customHeight="1">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="8"/>
@@ -5792,7 +5846,7 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
     </row>
-    <row r="64" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="18.75" customHeight="1">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8"/>
@@ -5811,7 +5865,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:18" ht="18.75" customHeight="1">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="8"/>
@@ -5830,7 +5884,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:18" ht="18.75" customHeight="1">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="8"/>
@@ -5849,7 +5903,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" ht="18.75" customHeight="1">
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="8"/>
@@ -5868,7 +5922,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:18" ht="18.75" customHeight="1">
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8"/>
@@ -5887,7 +5941,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18" ht="18.75" customHeight="1">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="8"/>
@@ -5906,7 +5960,7 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:18" ht="18.75" customHeight="1">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="8"/>
@@ -5925,7 +5979,7 @@
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
     </row>
-    <row r="71" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" ht="18.75" customHeight="1">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="8"/>
@@ -5944,7 +5998,7 @@
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
     </row>
-    <row r="72" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" ht="18.75" customHeight="1">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8"/>
@@ -5963,7 +6017,7 @@
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" ht="18.75" customHeight="1">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="8"/>
@@ -5982,7 +6036,7 @@
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18" ht="18.75" customHeight="1">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="8"/>
@@ -6001,7 +6055,7 @@
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
     </row>
-    <row r="75" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:18" ht="18.75" customHeight="1">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="8"/>
@@ -6020,7 +6074,7 @@
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
     </row>
-    <row r="76" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18" ht="18.75" customHeight="1">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="8"/>
@@ -6039,7 +6093,7 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
     </row>
-    <row r="77" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" ht="18.75" customHeight="1">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="8"/>
@@ -6058,7 +6112,7 @@
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
     </row>
-    <row r="78" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18" ht="18.75" customHeight="1">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="8"/>
@@ -6077,7 +6131,7 @@
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
     </row>
-    <row r="79" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18" ht="18.75" customHeight="1">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="8"/>
@@ -6096,7 +6150,7 @@
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
     </row>
-    <row r="80" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" ht="18.75" customHeight="1">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8"/>
@@ -6115,7 +6169,7 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
     </row>
-    <row r="81" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:18" ht="18.75" customHeight="1">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="8"/>
@@ -6134,7 +6188,7 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
-    <row r="82" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:18" ht="18.75" customHeight="1">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="8"/>
@@ -6153,7 +6207,7 @@
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
     </row>
-    <row r="83" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:18" ht="18.75" customHeight="1">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="8"/>
@@ -6172,7 +6226,7 @@
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>
-    <row r="84" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:18" ht="18.75" customHeight="1">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="8"/>
@@ -6191,7 +6245,7 @@
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
     </row>
-    <row r="85" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:18" ht="18.75" customHeight="1">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="8"/>
@@ -6210,7 +6264,7 @@
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
     </row>
-    <row r="86" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:18" ht="18.75" customHeight="1">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="8"/>
@@ -6229,7 +6283,7 @@
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
     </row>
-    <row r="87" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:18" ht="18.75" customHeight="1">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="8"/>
@@ -6248,7 +6302,7 @@
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
     </row>
-    <row r="88" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:18" ht="18.75" customHeight="1">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8"/>
@@ -6267,7 +6321,7 @@
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
     </row>
-    <row r="89" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:18" ht="18.75" customHeight="1">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="8"/>
@@ -6286,7 +6340,7 @@
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
     </row>
-    <row r="90" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:18" ht="18.75" customHeight="1">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="8"/>
@@ -6305,7 +6359,7 @@
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
     </row>
-    <row r="91" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:18" ht="18.75" customHeight="1">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="8"/>
@@ -6324,7 +6378,7 @@
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
     </row>
-    <row r="92" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:18" ht="18.75" customHeight="1">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="8"/>
@@ -6343,7 +6397,7 @@
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
     </row>
-    <row r="93" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:18" ht="18.75" customHeight="1">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="8"/>
@@ -6362,7 +6416,7 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
     </row>
-    <row r="94" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:18" ht="18.75" customHeight="1">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="8"/>
@@ -6381,7 +6435,7 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
     </row>
-    <row r="95" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:18" ht="18.75" customHeight="1">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="8"/>
@@ -6400,7 +6454,7 @@
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
     </row>
-    <row r="96" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:18" ht="18.75" customHeight="1">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8"/>
@@ -6419,7 +6473,7 @@
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
     </row>
-    <row r="97" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:18" ht="18.75" customHeight="1">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="8"/>
@@ -6438,7 +6492,7 @@
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
     </row>
-    <row r="98" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:18" ht="18.75" customHeight="1">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="8"/>
@@ -6457,7 +6511,7 @@
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
     </row>
-    <row r="99" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:18" ht="18.75" customHeight="1">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="8"/>
@@ -6476,7 +6530,7 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
     </row>
-    <row r="100" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:18" ht="18.75" customHeight="1">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="8"/>
@@ -6495,7 +6549,7 @@
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
     </row>
-    <row r="101" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:18" ht="18.75" customHeight="1">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="8"/>
@@ -6514,7 +6568,7 @@
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
     </row>
-    <row r="102" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:18" ht="18.75" customHeight="1">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="8"/>
@@ -6533,7 +6587,7 @@
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
     </row>
-    <row r="103" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:18" ht="18.75" customHeight="1">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="8"/>
@@ -6552,7 +6606,7 @@
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
     </row>
-    <row r="104" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:18" ht="18.75" customHeight="1">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8"/>
@@ -6571,7 +6625,7 @@
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
     </row>
-    <row r="105" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:18" ht="18.75" customHeight="1">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="8"/>
@@ -6590,7 +6644,7 @@
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
     </row>
-    <row r="106" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:18" ht="18.75" customHeight="1">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="8"/>
@@ -6609,7 +6663,7 @@
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
     </row>
-    <row r="107" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:18" ht="18.75" customHeight="1">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="8"/>
@@ -6628,7 +6682,7 @@
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
     </row>
-    <row r="108" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:18" ht="18.75" customHeight="1">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="8"/>
@@ -6647,7 +6701,7 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
     </row>
-    <row r="109" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:18" ht="18.75" customHeight="1">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="8"/>
@@ -6666,7 +6720,7 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
     </row>
-    <row r="110" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:18" ht="18.75" customHeight="1">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="8"/>
@@ -6685,7 +6739,7 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
     </row>
-    <row r="111" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:18" ht="18.75" customHeight="1">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="8"/>
@@ -6704,7 +6758,7 @@
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
     </row>
-    <row r="112" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:18" ht="18.75" customHeight="1">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8"/>
@@ -6723,7 +6777,7 @@
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
     </row>
-    <row r="113" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:18" ht="18.75" customHeight="1">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="8"/>
@@ -6742,7 +6796,7 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
     </row>
-    <row r="114" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:18" ht="18.75" customHeight="1">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="8"/>
@@ -6761,7 +6815,7 @@
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
     </row>
-    <row r="115" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:18" ht="18.75" customHeight="1">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="8"/>
@@ -6780,7 +6834,7 @@
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
     </row>
-    <row r="116" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:18" ht="18.75" customHeight="1">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="8"/>
@@ -6799,7 +6853,7 @@
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
     </row>
-    <row r="117" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:18" ht="18.75" customHeight="1">
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="8"/>
@@ -6818,7 +6872,7 @@
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
     </row>
-    <row r="118" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:18" ht="18.75" customHeight="1">
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="8"/>
@@ -6837,7 +6891,7 @@
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
     </row>
-    <row r="119" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:18" ht="18.75" customHeight="1">
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="8"/>
@@ -6856,7 +6910,7 @@
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
     </row>
-    <row r="120" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:18" ht="18.75" customHeight="1">
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8"/>
@@ -6875,7 +6929,7 @@
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
     </row>
-    <row r="121" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:18" ht="18.75" customHeight="1">
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="8"/>
@@ -6894,7 +6948,7 @@
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
     </row>
-    <row r="122" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:18" ht="18.75" customHeight="1">
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="8"/>
@@ -6913,7 +6967,7 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
     </row>
-    <row r="123" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:18" ht="18.75" customHeight="1">
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="8"/>
@@ -6932,7 +6986,7 @@
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
     </row>
-    <row r="124" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:18" ht="18.75" customHeight="1">
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="8"/>
@@ -6951,7 +7005,7 @@
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
     </row>
-    <row r="125" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:18" ht="18.75" customHeight="1">
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="8"/>
@@ -6970,7 +7024,7 @@
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
     </row>
-    <row r="126" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:18" ht="18.75" customHeight="1">
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="8"/>
@@ -6989,7 +7043,7 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
     </row>
-    <row r="127" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:18" ht="18.75" customHeight="1">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="8"/>
@@ -7008,7 +7062,7 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
     </row>
-    <row r="128" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:18" ht="18.75" customHeight="1">
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8"/>
@@ -7027,7 +7081,7 @@
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
     </row>
-    <row r="129" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:18" ht="18.75" customHeight="1">
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="8"/>
@@ -7046,7 +7100,7 @@
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
     </row>
-    <row r="130" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:18" ht="18.75" customHeight="1">
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="8"/>
@@ -7065,7 +7119,7 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
     </row>
-    <row r="131" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:18" ht="18.75" customHeight="1">
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="8"/>
@@ -7084,7 +7138,7 @@
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
     </row>
-    <row r="132" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:18" ht="18.75" customHeight="1">
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="8"/>
@@ -7103,7 +7157,7 @@
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
     </row>
-    <row r="133" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:18" ht="18.75" customHeight="1">
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="8"/>
@@ -7122,7 +7176,7 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
     </row>
-    <row r="134" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:18" ht="18.75" customHeight="1">
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="8"/>
@@ -7141,7 +7195,7 @@
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
     </row>
-    <row r="135" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:18" ht="18.75" customHeight="1">
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="8"/>
@@ -7160,7 +7214,7 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
     </row>
-    <row r="136" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:18" ht="18.75" customHeight="1">
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8"/>
@@ -7179,7 +7233,7 @@
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
     </row>
-    <row r="137" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:18" ht="18.75" customHeight="1">
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="8"/>
@@ -7198,7 +7252,7 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
     </row>
-    <row r="138" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:18" ht="18.75" customHeight="1">
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="8"/>
@@ -7217,7 +7271,7 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
     </row>
-    <row r="139" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:18" ht="18.75" customHeight="1">
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="8"/>
@@ -7236,7 +7290,7 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="8"/>
     </row>
-    <row r="140" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:18" ht="18.75" customHeight="1">
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="8"/>
@@ -7255,7 +7309,7 @@
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
     </row>
-    <row r="141" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:18" ht="18.75" customHeight="1">
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="8"/>
@@ -7274,7 +7328,7 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
     </row>
-    <row r="142" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:18" ht="18.75" customHeight="1">
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="8"/>
@@ -7293,7 +7347,7 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
     </row>
-    <row r="143" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:18" ht="18.75" customHeight="1">
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="8"/>
@@ -7312,7 +7366,7 @@
       <c r="Q143" s="8"/>
       <c r="R143" s="8"/>
     </row>
-    <row r="144" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:18" ht="18.75" customHeight="1">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8"/>
@@ -7331,7 +7385,7 @@
       <c r="Q144" s="8"/>
       <c r="R144" s="8"/>
     </row>
-    <row r="145" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:18" ht="18.75" customHeight="1">
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="8"/>
@@ -7350,7 +7404,7 @@
       <c r="Q145" s="8"/>
       <c r="R145" s="8"/>
     </row>
-    <row r="146" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:18" ht="18.75" customHeight="1">
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="8"/>
@@ -7369,7 +7423,7 @@
       <c r="Q146" s="8"/>
       <c r="R146" s="8"/>
     </row>
-    <row r="147" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:18" ht="18.75" customHeight="1">
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="8"/>
@@ -7388,7 +7442,7 @@
       <c r="Q147" s="8"/>
       <c r="R147" s="8"/>
     </row>
-    <row r="148" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:18" ht="18.75" customHeight="1">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="8"/>
@@ -7407,7 +7461,7 @@
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
     </row>
-    <row r="149" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:18" ht="18.75" customHeight="1">
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="8"/>
@@ -7426,7 +7480,7 @@
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
     </row>
-    <row r="150" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:18" ht="18.75" customHeight="1">
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="8"/>
@@ -7445,7 +7499,7 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
     </row>
-    <row r="151" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:18" ht="18.75" customHeight="1">
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="8"/>
@@ -7466,7 +7520,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R59" xr:uid="{29724BE2-0535-1648-ADF2-EDAAA8F87CC3}"/>
-  <sortState ref="A2:P59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P59">
     <sortCondition ref="C2:C59"/>
     <sortCondition ref="E2:E59"/>
     <sortCondition ref="F2:F59"/>
@@ -7475,8 +7529,12 @@
     <hyperlink ref="D34" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="M41" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="L57" r:id="rId3" xr:uid="{662A30AF-FF5E-B345-8E23-258FED7E5F51}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{028D1419-25E2-48BE-97B5-BC1B8D32177A}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{EE236C28-3782-41CB-BC8D-44CC21A2495D}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{256AFA53-6D85-4A56-AA90-109D3FC99E4C}"/>
+    <hyperlink ref="M7" r:id="rId7" xr:uid="{0E46C9AB-5845-481F-A228-6057067B749C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_ASUS\Desktop\Udabol\UDABOL_202202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB3FCD-FA07-4AB0-92CB-6906A618F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B225F1-6019-41EA-8A54-5763874E1E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1452,7 +1452,7 @@
     <t>alex-gonzalo</t>
   </si>
   <si>
-    <t>pagonzalo-es@udabol.edu.bo</t>
+    <t xml:space="preserve">pagonzalo-es@udabol.edu.bo </t>
   </si>
 </sst>
 </file>
@@ -2770,7 +2770,7 @@
   <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4556,7 +4556,7 @@
         <v>51</v>
       </c>
       <c r="P34" s="32">
-        <f t="shared" ref="P34:P65" si="1">MOD(O34,10)</f>
+        <f t="shared" ref="P34:P59" si="1">MOD(O34,10)</f>
         <v>1</v>
       </c>
       <c r="Q34" s="8"/>

--- a/Nomina.xlsx
+++ b/Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_ASUS\Desktop\Udabol\UDABOL_202202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerruizescobar/Documents/UDABOL/UDABOL_202202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B225F1-6019-41EA-8A54-5763874E1E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C1CC0C-2F7A-2C4F-924F-E521DA144D74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,6 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="465">
   <si>
     <t>Leonardo</t>
   </si>
@@ -1432,27 +1424,6 @@
   </si>
   <si>
     <t>Monografia</t>
-  </si>
-  <si>
-    <t>alexgonzaq321@gmail.com</t>
-  </si>
-  <si>
-    <t>Gonzalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plinio Alex </t>
-  </si>
-  <si>
-    <t>PlinioGonzalo</t>
-  </si>
-  <si>
-    <t>AlexGonzalo2</t>
-  </si>
-  <si>
-    <t>alex-gonzalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pagonzalo-es@udabol.edu.bo </t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1433,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1653,7 +1624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1685,7 +1656,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1764,9 +1735,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2090,15 +2058,15 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2115,7 +2083,7 @@
         <v>9845916</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2135,7 +2103,7 @@
         <v>4308676</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2155,7 +2123,7 @@
         <v>5273148</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2175,7 +2143,7 @@
         <v>10680663</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2195,7 +2163,7 @@
         <v>5246381</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2215,7 +2183,7 @@
         <v>12873339</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2235,7 +2203,7 @@
         <v>7351544</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2255,7 +2223,7 @@
         <v>7296889</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2275,7 +2243,7 @@
         <v>9083846</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2292,7 +2260,7 @@
         <v>8437859</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2312,7 +2280,7 @@
         <v>11304597</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2329,7 +2297,7 @@
         <v>8911045</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2346,7 +2314,7 @@
         <v>6717766</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2366,7 +2334,7 @@
         <v>2631732</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2383,7 +2351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2403,7 +2371,7 @@
         <v>33970</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2423,7 +2391,7 @@
         <v>9899773</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2443,7 +2411,7 @@
         <v>7041610</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2463,7 +2431,7 @@
         <v>12669252</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2483,7 +2451,7 @@
         <v>10931935</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2503,7 +2471,7 @@
         <v>6920030</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2523,7 +2491,7 @@
         <v>6434495</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2543,7 +2511,7 @@
         <v>9155549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2560,7 +2528,7 @@
         <v>6823974</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2580,7 +2548,7 @@
         <v>2622061</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2597,7 +2565,7 @@
         <v>7838112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2617,7 +2585,7 @@
         <v>12864046</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2637,7 +2605,7 @@
         <v>9110161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2651,7 +2619,7 @@
         <v>9911855</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2668,7 +2636,7 @@
         <v>9459513</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2685,7 +2653,7 @@
         <v>10954950</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2702,7 +2670,7 @@
         <v>8028972</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2722,7 +2690,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2742,7 +2710,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2769,29 +2737,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" customWidth="1"/>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
-    <col min="12" max="12" width="37.140625" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
+    <col min="12" max="12" width="37.1640625" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" customHeight="1">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="6" t="s">
         <v>114</v>
@@ -2837,7 +2805,7 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="18.75" customHeight="1">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>47</v>
       </c>
@@ -2884,13 +2852,13 @@
         <v>47</v>
       </c>
       <c r="P2" s="16">
-        <f t="shared" ref="P2:P33" si="0">MOD(O2,10)</f>
+        <f>MOD(O2,10)</f>
         <v>7</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="18.75" customHeight="1">
+    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>49</v>
       </c>
@@ -2937,13 +2905,13 @@
         <v>49</v>
       </c>
       <c r="P3" s="16">
-        <f t="shared" si="0"/>
+        <f>MOD(O3,10)</f>
         <v>9</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>38</v>
       </c>
@@ -2990,13 +2958,13 @@
         <v>38</v>
       </c>
       <c r="P4" s="16">
-        <f t="shared" si="0"/>
+        <f>MOD(O4,10)</f>
         <v>8</v>
       </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>41</v>
       </c>
@@ -3043,13 +3011,13 @@
         <v>41</v>
       </c>
       <c r="P5" s="16">
-        <f t="shared" si="0"/>
+        <f>MOD(O5,10)</f>
         <v>1</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>45</v>
       </c>
@@ -3096,13 +3064,13 @@
         <v>45</v>
       </c>
       <c r="P6" s="16">
-        <f t="shared" si="0"/>
+        <f>MOD(O6,10)</f>
         <v>5</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>54</v>
       </c>
@@ -3112,50 +3080,28 @@
       <c r="C7" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>129</v>
-      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="16">
         <v>54</v>
       </c>
       <c r="P7" s="16">
-        <f t="shared" si="0"/>
+        <f>MOD(O7,10)</f>
         <v>4</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>17</v>
       </c>
@@ -3202,13 +3148,13 @@
         <v>17</v>
       </c>
       <c r="P8" s="20">
-        <f t="shared" si="0"/>
+        <f>MOD(O8,10)</f>
         <v>7</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>19</v>
       </c>
@@ -3255,13 +3201,13 @@
         <v>19</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" si="0"/>
+        <f>MOD(O9,10)</f>
         <v>9</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>6</v>
       </c>
@@ -3308,13 +3254,13 @@
         <v>6</v>
       </c>
       <c r="P10" s="20">
-        <f t="shared" si="0"/>
+        <f>MOD(O10,10)</f>
         <v>6</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>26</v>
       </c>
@@ -3361,13 +3307,13 @@
         <v>26</v>
       </c>
       <c r="P11" s="20">
-        <f t="shared" si="0"/>
+        <f>MOD(O11,10)</f>
         <v>6</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>37</v>
       </c>
@@ -3414,13 +3360,13 @@
         <v>37</v>
       </c>
       <c r="P12" s="20">
-        <f t="shared" si="0"/>
+        <f>MOD(O12,10)</f>
         <v>7</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="18.75" customHeight="1">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>22</v>
       </c>
@@ -3467,13 +3413,13 @@
         <v>22</v>
       </c>
       <c r="P13" s="20">
-        <f t="shared" si="0"/>
+        <f>MOD(O13,10)</f>
         <v>2</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>25</v>
       </c>
@@ -3520,13 +3466,13 @@
         <v>25</v>
       </c>
       <c r="P14" s="20">
-        <f t="shared" si="0"/>
+        <f>MOD(O14,10)</f>
         <v>5</v>
       </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>4</v>
       </c>
@@ -3573,13 +3519,13 @@
         <v>4</v>
       </c>
       <c r="P15" s="23">
-        <f t="shared" si="0"/>
+        <f>MOD(O15,10)</f>
         <v>4</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>13</v>
       </c>
@@ -3626,13 +3572,13 @@
         <v>13</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" si="0"/>
+        <f>MOD(O16,10)</f>
         <v>3</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>3</v>
       </c>
@@ -3679,13 +3625,13 @@
         <v>3</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" si="0"/>
+        <f>MOD(O17,10)</f>
         <v>3</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>39</v>
       </c>
@@ -3732,13 +3678,13 @@
         <v>39</v>
       </c>
       <c r="P18" s="26">
-        <f t="shared" si="0"/>
+        <f>MOD(O18,10)</f>
         <v>9</v>
       </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1">
+    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>40</v>
       </c>
@@ -3783,13 +3729,13 @@
         <v>40</v>
       </c>
       <c r="P19" s="26">
-        <f t="shared" si="0"/>
+        <f>MOD(O19,10)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="18.75" customHeight="1">
+    <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>18</v>
       </c>
@@ -3836,13 +3782,13 @@
         <v>18</v>
       </c>
       <c r="P20" s="26">
-        <f t="shared" si="0"/>
+        <f>MOD(O20,10)</f>
         <v>8</v>
       </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="18.75" customHeight="1">
+    <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>9</v>
       </c>
@@ -3889,13 +3835,13 @@
         <v>9</v>
       </c>
       <c r="P21" s="26">
-        <f t="shared" si="0"/>
+        <f>MOD(O21,10)</f>
         <v>9</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" ht="18.75" customHeight="1">
+    <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
         <v>29</v>
       </c>
@@ -3942,13 +3888,13 @@
         <v>29</v>
       </c>
       <c r="P22" s="26">
-        <f t="shared" si="0"/>
+        <f>MOD(O22,10)</f>
         <v>9</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="18.75" customHeight="1">
+    <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
         <v>55</v>
       </c>
@@ -3973,13 +3919,13 @@
         <v>55</v>
       </c>
       <c r="P23" s="26">
-        <f t="shared" si="0"/>
+        <f>MOD(O23,10)</f>
         <v>5</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18" ht="18.75" customHeight="1">
+    <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
         <v>27</v>
       </c>
@@ -4026,13 +3972,13 @@
         <v>27</v>
       </c>
       <c r="P24" s="29">
-        <f t="shared" si="0"/>
+        <f>MOD(O24,10)</f>
         <v>7</v>
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:18" ht="18.75" customHeight="1">
+    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
         <v>2</v>
       </c>
@@ -4079,13 +4025,13 @@
         <v>2</v>
       </c>
       <c r="P25" s="29">
-        <f t="shared" si="0"/>
+        <f>MOD(O25,10)</f>
         <v>2</v>
       </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="18.75" customHeight="1">
+    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
         <v>15</v>
       </c>
@@ -4132,13 +4078,13 @@
         <v>15</v>
       </c>
       <c r="P26" s="29">
-        <f t="shared" si="0"/>
+        <f>MOD(O26,10)</f>
         <v>5</v>
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="18.75" customHeight="1">
+    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27">
         <v>36</v>
       </c>
@@ -4185,13 +4131,13 @@
         <v>36</v>
       </c>
       <c r="P27" s="29">
-        <f t="shared" si="0"/>
+        <f>MOD(O27,10)</f>
         <v>6</v>
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" ht="18.75" customHeight="1">
+    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
         <v>12</v>
       </c>
@@ -4238,13 +4184,13 @@
         <v>12</v>
       </c>
       <c r="P28" s="29">
-        <f t="shared" si="0"/>
+        <f>MOD(O28,10)</f>
         <v>2</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" ht="18.75" customHeight="1">
+    <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
         <v>1</v>
       </c>
@@ -4291,13 +4237,13 @@
         <v>1</v>
       </c>
       <c r="P29" s="29">
-        <f t="shared" si="0"/>
+        <f>MOD(O29,10)</f>
         <v>1</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" ht="18.75" customHeight="1">
+    <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
         <v>34</v>
       </c>
@@ -4344,13 +4290,13 @@
         <v>34</v>
       </c>
       <c r="P30" s="29">
-        <f t="shared" si="0"/>
+        <f>MOD(O30,10)</f>
         <v>4</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:18" ht="18.75" customHeight="1">
+    <row r="31" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <v>7</v>
       </c>
@@ -4397,13 +4343,13 @@
         <v>7</v>
       </c>
       <c r="P31" s="32">
-        <f t="shared" si="0"/>
+        <f>MOD(O31,10)</f>
         <v>7</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:18" ht="18.75" customHeight="1">
+    <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30">
         <v>5</v>
       </c>
@@ -4450,13 +4396,13 @@
         <v>5</v>
       </c>
       <c r="P32" s="32">
-        <f t="shared" si="0"/>
+        <f>MOD(O32,10)</f>
         <v>5</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="1:18" ht="18.75" customHeight="1">
+    <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
         <v>48</v>
       </c>
@@ -4503,13 +4449,13 @@
         <v>48</v>
       </c>
       <c r="P33" s="32">
-        <f t="shared" si="0"/>
+        <f>MOD(O33,10)</f>
         <v>8</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" customHeight="1">
+    <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30">
         <v>51</v>
       </c>
@@ -4556,13 +4502,13 @@
         <v>51</v>
       </c>
       <c r="P34" s="32">
-        <f t="shared" ref="P34:P59" si="1">MOD(O34,10)</f>
+        <f>MOD(O34,10)</f>
         <v>1</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="1:18" ht="18.75" customHeight="1">
+    <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30">
         <v>23</v>
       </c>
@@ -4609,13 +4555,13 @@
         <v>23</v>
       </c>
       <c r="P35" s="32">
-        <f t="shared" si="1"/>
+        <f>MOD(O35,10)</f>
         <v>3</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" customHeight="1">
+    <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <v>30</v>
       </c>
@@ -4662,13 +4608,13 @@
         <v>30</v>
       </c>
       <c r="P36" s="32">
-        <f t="shared" si="1"/>
+        <f>MOD(O36,10)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="1:18" ht="18.75" customHeight="1">
+    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24">
         <v>46</v>
       </c>
@@ -4715,13 +4661,13 @@
         <v>46</v>
       </c>
       <c r="P37" s="26">
-        <f t="shared" si="1"/>
+        <f>MOD(O37,10)</f>
         <v>6</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="1:18" ht="18.75" customHeight="1">
+    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
         <v>43</v>
       </c>
@@ -4768,13 +4714,13 @@
         <v>43</v>
       </c>
       <c r="P38" s="26">
-        <f t="shared" si="1"/>
+        <f>MOD(O38,10)</f>
         <v>3</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
     </row>
-    <row r="39" spans="1:18" ht="18.75" customHeight="1">
+    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24">
         <v>44</v>
       </c>
@@ -4821,13 +4767,13 @@
         <v>44</v>
       </c>
       <c r="P39" s="26">
-        <f t="shared" si="1"/>
+        <f>MOD(O39,10)</f>
         <v>4</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="1:18" ht="18.75" customHeight="1">
+    <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24">
         <v>31</v>
       </c>
@@ -4874,13 +4820,13 @@
         <v>31</v>
       </c>
       <c r="P40" s="26">
-        <f t="shared" si="1"/>
+        <f>MOD(O40,10)</f>
         <v>1</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
     </row>
-    <row r="41" spans="1:18" ht="18.75" customHeight="1">
+    <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24">
         <v>21</v>
       </c>
@@ -4927,13 +4873,13 @@
         <v>21</v>
       </c>
       <c r="P41" s="26">
-        <f t="shared" si="1"/>
+        <f>MOD(O41,10)</f>
         <v>1</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
     </row>
-    <row r="42" spans="1:18" ht="18.75" customHeight="1">
+    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24">
         <v>58</v>
       </c>
@@ -4958,13 +4904,13 @@
         <v>58</v>
       </c>
       <c r="P42" s="26">
-        <f t="shared" si="1"/>
+        <f>MOD(O42,10)</f>
         <v>8</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:18" ht="18.75" customHeight="1">
+    <row r="43" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="38">
         <v>20</v>
       </c>
@@ -5011,13 +4957,13 @@
         <v>20</v>
       </c>
       <c r="P43" s="40">
-        <f t="shared" si="1"/>
+        <f>MOD(O43,10)</f>
         <v>0</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="1:18" ht="18.75" customHeight="1">
+    <row r="44" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="38">
         <v>33</v>
       </c>
@@ -5064,13 +5010,13 @@
         <v>33</v>
       </c>
       <c r="P44" s="40">
-        <f t="shared" si="1"/>
+        <f>MOD(O44,10)</f>
         <v>3</v>
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="1:18" ht="18.75" customHeight="1">
+    <row r="45" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="38">
         <v>50</v>
       </c>
@@ -5115,13 +5061,13 @@
         <v>50</v>
       </c>
       <c r="P45" s="40">
-        <f t="shared" si="1"/>
+        <f>MOD(O45,10)</f>
         <v>0</v>
       </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" customHeight="1">
+    <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="38">
         <v>16</v>
       </c>
@@ -5166,13 +5112,13 @@
         <v>16</v>
       </c>
       <c r="P46" s="40">
-        <f t="shared" si="1"/>
+        <f>MOD(O46,10)</f>
         <v>6</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="1:18" ht="18.75" customHeight="1">
+    <row r="47" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38">
         <v>28</v>
       </c>
@@ -5219,13 +5165,13 @@
         <v>28</v>
       </c>
       <c r="P47" s="40">
-        <f t="shared" si="1"/>
+        <f>MOD(O47,10)</f>
         <v>8</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" customHeight="1">
+    <row r="48" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="38">
         <v>52</v>
       </c>
@@ -5250,13 +5196,13 @@
         <v>52</v>
       </c>
       <c r="P48" s="40">
-        <f t="shared" si="1"/>
+        <f>MOD(O48,10)</f>
         <v>2</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="1:18" ht="18.75" customHeight="1">
+    <row r="49" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="38">
         <v>53</v>
       </c>
@@ -5281,13 +5227,13 @@
         <v>53</v>
       </c>
       <c r="P49" s="40">
-        <f t="shared" si="1"/>
+        <f>MOD(O49,10)</f>
         <v>3</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="1:18" ht="18.75" customHeight="1">
+    <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>32</v>
       </c>
@@ -5334,13 +5280,13 @@
         <v>32</v>
       </c>
       <c r="P50" s="23">
-        <f t="shared" si="1"/>
+        <f>MOD(O50,10)</f>
         <v>2</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="1:18" ht="18.75" customHeight="1">
+    <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>42</v>
       </c>
@@ -5385,13 +5331,13 @@
         <v>42</v>
       </c>
       <c r="P51" s="23">
-        <f t="shared" si="1"/>
+        <f>MOD(O51,10)</f>
         <v>2</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="1:18" ht="18.75" customHeight="1">
+    <row r="52" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>10</v>
       </c>
@@ -5438,13 +5384,13 @@
         <v>10</v>
       </c>
       <c r="P52" s="23">
-        <f t="shared" si="1"/>
+        <f>MOD(O52,10)</f>
         <v>0</v>
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="1:18" ht="18.75" customHeight="1">
+    <row r="53" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>11</v>
       </c>
@@ -5491,13 +5437,13 @@
         <v>11</v>
       </c>
       <c r="P53" s="23">
-        <f t="shared" si="1"/>
+        <f>MOD(O53,10)</f>
         <v>1</v>
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="1:18" ht="18.75" customHeight="1">
+    <row r="54" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
         <v>35</v>
       </c>
@@ -5544,13 +5490,13 @@
         <v>35</v>
       </c>
       <c r="P54" s="23">
-        <f t="shared" si="1"/>
+        <f>MOD(O54,10)</f>
         <v>5</v>
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="1:18" ht="18.75" customHeight="1">
+    <row r="55" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>57</v>
       </c>
@@ -5575,13 +5521,13 @@
         <v>57</v>
       </c>
       <c r="P55" s="23">
-        <f t="shared" si="1"/>
+        <f>MOD(O55,10)</f>
         <v>7</v>
       </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="1:18" ht="18.75" customHeight="1">
+    <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="42">
         <v>24</v>
       </c>
@@ -5628,13 +5574,13 @@
         <v>24</v>
       </c>
       <c r="P56" s="44">
-        <f t="shared" si="1"/>
+        <f>MOD(O56,10)</f>
         <v>4</v>
       </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="1:18" ht="18.75" customHeight="1">
+    <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="42">
         <v>8</v>
       </c>
@@ -5681,13 +5627,13 @@
         <v>8</v>
       </c>
       <c r="P57" s="44">
-        <f t="shared" si="1"/>
+        <f>MOD(O57,10)</f>
         <v>8</v>
       </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
-    <row r="58" spans="1:18" ht="18.75" customHeight="1">
+    <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="42">
         <v>14</v>
       </c>
@@ -5734,13 +5680,13 @@
         <v>14</v>
       </c>
       <c r="P58" s="44">
-        <f t="shared" si="1"/>
+        <f>MOD(O58,10)</f>
         <v>4</v>
       </c>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
-    <row r="59" spans="1:18" ht="18.75" customHeight="1">
+    <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>56</v>
       </c>
@@ -5763,13 +5709,13 @@
         <v>56</v>
       </c>
       <c r="P59" s="10">
-        <f t="shared" si="1"/>
+        <f>MOD(O59,10)</f>
         <v>6</v>
       </c>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
-    <row r="60" spans="1:18" ht="18.75" customHeight="1">
+    <row r="60" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -5789,7 +5735,7 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" customHeight="1">
+    <row r="61" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="8"/>
@@ -5808,7 +5754,7 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
     </row>
-    <row r="62" spans="1:18" ht="18.75" customHeight="1">
+    <row r="62" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="8"/>
@@ -5827,7 +5773,7 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" customHeight="1">
+    <row r="63" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="8"/>
@@ -5846,7 +5792,7 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
     </row>
-    <row r="64" spans="1:18" ht="18.75" customHeight="1">
+    <row r="64" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8"/>
@@ -5865,7 +5811,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="2:18" ht="18.75" customHeight="1">
+    <row r="65" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="8"/>
@@ -5884,7 +5830,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="2:18" ht="18.75" customHeight="1">
+    <row r="66" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="8"/>
@@ -5903,7 +5849,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="2:18" ht="18.75" customHeight="1">
+    <row r="67" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="8"/>
@@ -5922,7 +5868,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="2:18" ht="18.75" customHeight="1">
+    <row r="68" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8"/>
@@ -5941,7 +5887,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="2:18" ht="18.75" customHeight="1">
+    <row r="69" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="8"/>
@@ -5960,7 +5906,7 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="2:18" ht="18.75" customHeight="1">
+    <row r="70" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="8"/>
@@ -5979,7 +5925,7 @@
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
     </row>
-    <row r="71" spans="2:18" ht="18.75" customHeight="1">
+    <row r="71" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="8"/>
@@ -5998,7 +5944,7 @@
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
     </row>
-    <row r="72" spans="2:18" ht="18.75" customHeight="1">
+    <row r="72" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8"/>
@@ -6017,7 +5963,7 @@
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73" spans="2:18" ht="18.75" customHeight="1">
+    <row r="73" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="8"/>
@@ -6036,7 +5982,7 @@
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74" spans="2:18" ht="18.75" customHeight="1">
+    <row r="74" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="8"/>
@@ -6055,7 +6001,7 @@
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
     </row>
-    <row r="75" spans="2:18" ht="18.75" customHeight="1">
+    <row r="75" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="8"/>
@@ -6074,7 +6020,7 @@
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
     </row>
-    <row r="76" spans="2:18" ht="18.75" customHeight="1">
+    <row r="76" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="8"/>
@@ -6093,7 +6039,7 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
     </row>
-    <row r="77" spans="2:18" ht="18.75" customHeight="1">
+    <row r="77" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="8"/>
@@ -6112,7 +6058,7 @@
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
     </row>
-    <row r="78" spans="2:18" ht="18.75" customHeight="1">
+    <row r="78" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="8"/>
@@ -6131,7 +6077,7 @@
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
     </row>
-    <row r="79" spans="2:18" ht="18.75" customHeight="1">
+    <row r="79" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="8"/>
@@ -6150,7 +6096,7 @@
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
     </row>
-    <row r="80" spans="2:18" ht="18.75" customHeight="1">
+    <row r="80" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8"/>
@@ -6169,7 +6115,7 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
     </row>
-    <row r="81" spans="2:18" ht="18.75" customHeight="1">
+    <row r="81" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="8"/>
@@ -6188,7 +6134,7 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
-    <row r="82" spans="2:18" ht="18.75" customHeight="1">
+    <row r="82" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="8"/>
@@ -6207,7 +6153,7 @@
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
     </row>
-    <row r="83" spans="2:18" ht="18.75" customHeight="1">
+    <row r="83" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="8"/>
@@ -6226,7 +6172,7 @@
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>
-    <row r="84" spans="2:18" ht="18.75" customHeight="1">
+    <row r="84" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="8"/>
@@ -6245,7 +6191,7 @@
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
     </row>
-    <row r="85" spans="2:18" ht="18.75" customHeight="1">
+    <row r="85" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="8"/>
@@ -6264,7 +6210,7 @@
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
     </row>
-    <row r="86" spans="2:18" ht="18.75" customHeight="1">
+    <row r="86" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="8"/>
@@ -6283,7 +6229,7 @@
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
     </row>
-    <row r="87" spans="2:18" ht="18.75" customHeight="1">
+    <row r="87" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="8"/>
@@ -6302,7 +6248,7 @@
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
     </row>
-    <row r="88" spans="2:18" ht="18.75" customHeight="1">
+    <row r="88" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8"/>
@@ -6321,7 +6267,7 @@
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
     </row>
-    <row r="89" spans="2:18" ht="18.75" customHeight="1">
+    <row r="89" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="8"/>
@@ -6340,7 +6286,7 @@
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
     </row>
-    <row r="90" spans="2:18" ht="18.75" customHeight="1">
+    <row r="90" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="8"/>
@@ -6359,7 +6305,7 @@
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
     </row>
-    <row r="91" spans="2:18" ht="18.75" customHeight="1">
+    <row r="91" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="8"/>
@@ -6378,7 +6324,7 @@
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
     </row>
-    <row r="92" spans="2:18" ht="18.75" customHeight="1">
+    <row r="92" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="8"/>
@@ -6397,7 +6343,7 @@
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
     </row>
-    <row r="93" spans="2:18" ht="18.75" customHeight="1">
+    <row r="93" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="8"/>
@@ -6416,7 +6362,7 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
     </row>
-    <row r="94" spans="2:18" ht="18.75" customHeight="1">
+    <row r="94" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="8"/>
@@ -6435,7 +6381,7 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
     </row>
-    <row r="95" spans="2:18" ht="18.75" customHeight="1">
+    <row r="95" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="8"/>
@@ -6454,7 +6400,7 @@
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
     </row>
-    <row r="96" spans="2:18" ht="18.75" customHeight="1">
+    <row r="96" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8"/>
@@ -6473,7 +6419,7 @@
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
     </row>
-    <row r="97" spans="2:18" ht="18.75" customHeight="1">
+    <row r="97" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="8"/>
@@ -6492,7 +6438,7 @@
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
     </row>
-    <row r="98" spans="2:18" ht="18.75" customHeight="1">
+    <row r="98" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="8"/>
@@ -6511,7 +6457,7 @@
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
     </row>
-    <row r="99" spans="2:18" ht="18.75" customHeight="1">
+    <row r="99" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="8"/>
@@ -6530,7 +6476,7 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
     </row>
-    <row r="100" spans="2:18" ht="18.75" customHeight="1">
+    <row r="100" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="8"/>
@@ -6549,7 +6495,7 @@
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
     </row>
-    <row r="101" spans="2:18" ht="18.75" customHeight="1">
+    <row r="101" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="8"/>
@@ -6568,7 +6514,7 @@
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
     </row>
-    <row r="102" spans="2:18" ht="18.75" customHeight="1">
+    <row r="102" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="8"/>
@@ -6587,7 +6533,7 @@
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
     </row>
-    <row r="103" spans="2:18" ht="18.75" customHeight="1">
+    <row r="103" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="8"/>
@@ -6606,7 +6552,7 @@
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
     </row>
-    <row r="104" spans="2:18" ht="18.75" customHeight="1">
+    <row r="104" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8"/>
@@ -6625,7 +6571,7 @@
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
     </row>
-    <row r="105" spans="2:18" ht="18.75" customHeight="1">
+    <row r="105" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="8"/>
@@ -6644,7 +6590,7 @@
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
     </row>
-    <row r="106" spans="2:18" ht="18.75" customHeight="1">
+    <row r="106" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="8"/>
@@ -6663,7 +6609,7 @@
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
     </row>
-    <row r="107" spans="2:18" ht="18.75" customHeight="1">
+    <row r="107" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="8"/>
@@ -6682,7 +6628,7 @@
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
     </row>
-    <row r="108" spans="2:18" ht="18.75" customHeight="1">
+    <row r="108" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="8"/>
@@ -6701,7 +6647,7 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
     </row>
-    <row r="109" spans="2:18" ht="18.75" customHeight="1">
+    <row r="109" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="8"/>
@@ -6720,7 +6666,7 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
     </row>
-    <row r="110" spans="2:18" ht="18.75" customHeight="1">
+    <row r="110" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="8"/>
@@ -6739,7 +6685,7 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
     </row>
-    <row r="111" spans="2:18" ht="18.75" customHeight="1">
+    <row r="111" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="8"/>
@@ -6758,7 +6704,7 @@
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
     </row>
-    <row r="112" spans="2:18" ht="18.75" customHeight="1">
+    <row r="112" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8"/>
@@ -6777,7 +6723,7 @@
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
     </row>
-    <row r="113" spans="2:18" ht="18.75" customHeight="1">
+    <row r="113" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="8"/>
@@ -6796,7 +6742,7 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
     </row>
-    <row r="114" spans="2:18" ht="18.75" customHeight="1">
+    <row r="114" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="8"/>
@@ -6815,7 +6761,7 @@
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
     </row>
-    <row r="115" spans="2:18" ht="18.75" customHeight="1">
+    <row r="115" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="8"/>
@@ -6834,7 +6780,7 @@
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
     </row>
-    <row r="116" spans="2:18" ht="18.75" customHeight="1">
+    <row r="116" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="8"/>
@@ -6853,7 +6799,7 @@
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
     </row>
-    <row r="117" spans="2:18" ht="18.75" customHeight="1">
+    <row r="117" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="8"/>
@@ -6872,7 +6818,7 @@
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
     </row>
-    <row r="118" spans="2:18" ht="18.75" customHeight="1">
+    <row r="118" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="8"/>
@@ -6891,7 +6837,7 @@
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
     </row>
-    <row r="119" spans="2:18" ht="18.75" customHeight="1">
+    <row r="119" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="8"/>
@@ -6910,7 +6856,7 @@
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
     </row>
-    <row r="120" spans="2:18" ht="18.75" customHeight="1">
+    <row r="120" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8"/>
@@ -6929,7 +6875,7 @@
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
     </row>
-    <row r="121" spans="2:18" ht="18.75" customHeight="1">
+    <row r="121" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="8"/>
@@ -6948,7 +6894,7 @@
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
     </row>
-    <row r="122" spans="2:18" ht="18.75" customHeight="1">
+    <row r="122" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="8"/>
@@ -6967,7 +6913,7 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
     </row>
-    <row r="123" spans="2:18" ht="18.75" customHeight="1">
+    <row r="123" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="8"/>
@@ -6986,7 +6932,7 @@
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
     </row>
-    <row r="124" spans="2:18" ht="18.75" customHeight="1">
+    <row r="124" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="8"/>
@@ -7005,7 +6951,7 @@
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
     </row>
-    <row r="125" spans="2:18" ht="18.75" customHeight="1">
+    <row r="125" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="8"/>
@@ -7024,7 +6970,7 @@
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
     </row>
-    <row r="126" spans="2:18" ht="18.75" customHeight="1">
+    <row r="126" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="8"/>
@@ -7043,7 +6989,7 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
     </row>
-    <row r="127" spans="2:18" ht="18.75" customHeight="1">
+    <row r="127" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="8"/>
@@ -7062,7 +7008,7 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
     </row>
-    <row r="128" spans="2:18" ht="18.75" customHeight="1">
+    <row r="128" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8"/>
@@ -7081,7 +7027,7 @@
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
     </row>
-    <row r="129" spans="2:18" ht="18.75" customHeight="1">
+    <row r="129" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="8"/>
@@ -7100,7 +7046,7 @@
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
     </row>
-    <row r="130" spans="2:18" ht="18.75" customHeight="1">
+    <row r="130" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="8"/>
@@ -7119,7 +7065,7 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
     </row>
-    <row r="131" spans="2:18" ht="18.75" customHeight="1">
+    <row r="131" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="8"/>
@@ -7138,7 +7084,7 @@
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
     </row>
-    <row r="132" spans="2:18" ht="18.75" customHeight="1">
+    <row r="132" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="8"/>
@@ -7157,7 +7103,7 @@
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
     </row>
-    <row r="133" spans="2:18" ht="18.75" customHeight="1">
+    <row r="133" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="8"/>
@@ -7176,7 +7122,7 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
     </row>
-    <row r="134" spans="2:18" ht="18.75" customHeight="1">
+    <row r="134" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="8"/>
@@ -7195,7 +7141,7 @@
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
     </row>
-    <row r="135" spans="2:18" ht="18.75" customHeight="1">
+    <row r="135" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="8"/>
@@ -7214,7 +7160,7 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
     </row>
-    <row r="136" spans="2:18" ht="18.75" customHeight="1">
+    <row r="136" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8"/>
@@ -7233,7 +7179,7 @@
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
     </row>
-    <row r="137" spans="2:18" ht="18.75" customHeight="1">
+    <row r="137" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="8"/>
@@ -7252,7 +7198,7 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
     </row>
-    <row r="138" spans="2:18" ht="18.75" customHeight="1">
+    <row r="138" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="8"/>
@@ -7271,7 +7217,7 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
     </row>
-    <row r="139" spans="2:18" ht="18.75" customHeight="1">
+    <row r="139" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="8"/>
@@ -7290,7 +7236,7 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="8"/>
     </row>
-    <row r="140" spans="2:18" ht="18.75" customHeight="1">
+    <row r="140" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="8"/>
@@ -7309,7 +7255,7 @@
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
     </row>
-    <row r="141" spans="2:18" ht="18.75" customHeight="1">
+    <row r="141" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="8"/>
@@ -7328,7 +7274,7 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
     </row>
-    <row r="142" spans="2:18" ht="18.75" customHeight="1">
+    <row r="142" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="8"/>
@@ -7347,7 +7293,7 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
     </row>
-    <row r="143" spans="2:18" ht="18.75" customHeight="1">
+    <row r="143" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="8"/>
@@ -7366,7 +7312,7 @@
       <c r="Q143" s="8"/>
       <c r="R143" s="8"/>
     </row>
-    <row r="144" spans="2:18" ht="18.75" customHeight="1">
+    <row r="144" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8"/>
@@ -7385,7 +7331,7 @@
       <c r="Q144" s="8"/>
       <c r="R144" s="8"/>
     </row>
-    <row r="145" spans="2:18" ht="18.75" customHeight="1">
+    <row r="145" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="8"/>
@@ -7404,7 +7350,7 @@
       <c r="Q145" s="8"/>
       <c r="R145" s="8"/>
     </row>
-    <row r="146" spans="2:18" ht="18.75" customHeight="1">
+    <row r="146" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="8"/>
@@ -7423,7 +7369,7 @@
       <c r="Q146" s="8"/>
       <c r="R146" s="8"/>
     </row>
-    <row r="147" spans="2:18" ht="18.75" customHeight="1">
+    <row r="147" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="8"/>
@@ -7442,7 +7388,7 @@
       <c r="Q147" s="8"/>
       <c r="R147" s="8"/>
     </row>
-    <row r="148" spans="2:18" ht="18.75" customHeight="1">
+    <row r="148" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="8"/>
@@ -7461,7 +7407,7 @@
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
     </row>
-    <row r="149" spans="2:18" ht="18.75" customHeight="1">
+    <row r="149" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="8"/>
@@ -7480,7 +7426,7 @@
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
     </row>
-    <row r="150" spans="2:18" ht="18.75" customHeight="1">
+    <row r="150" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="8"/>
@@ -7499,7 +7445,7 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
     </row>
-    <row r="151" spans="2:18" ht="18.75" customHeight="1">
+    <row r="151" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="8"/>
@@ -7520,7 +7466,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R59" xr:uid="{29724BE2-0535-1648-ADF2-EDAAA8F87CC3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P59">
+  <sortState ref="A2:P59">
     <sortCondition ref="C2:C59"/>
     <sortCondition ref="E2:E59"/>
     <sortCondition ref="F2:F59"/>
@@ -7529,12 +7475,8 @@
     <hyperlink ref="D34" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="M41" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="L57" r:id="rId3" xr:uid="{662A30AF-FF5E-B345-8E23-258FED7E5F51}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{028D1419-25E2-48BE-97B5-BC1B8D32177A}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{EE236C28-3782-41CB-BC8D-44CC21A2495D}"/>
-    <hyperlink ref="L7" r:id="rId6" xr:uid="{256AFA53-6D85-4A56-AA90-109D3FC99E4C}"/>
-    <hyperlink ref="M7" r:id="rId7" xr:uid="{0E46C9AB-5845-481F-A228-6057067B749C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>